--- a/new_data/double_hit/20260204_212649_phrase101/20260204_212649_phrase101_keypoints.xlsx
+++ b/new_data/double_hit/20260204_212649_phrase101/20260204_212649_phrase101_keypoints.xlsx
@@ -491,1645 +491,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.959349623306479</v>
+        <v>2.95939737470714</v>
       </c>
       <c r="B2" t="n">
-        <v>2.928906689072629</v>
+        <v>2.928952418423215</v>
       </c>
       <c r="C2" t="n">
-        <v>2.958592817069134</v>
+        <v>2.958644588104175</v>
       </c>
       <c r="D2" t="n">
-        <v>2.817356603047337</v>
+        <v>2.81741276448138</v>
       </c>
       <c r="E2" t="n">
-        <v>2.898370620737866</v>
+        <v>2.898449710609836</v>
       </c>
       <c r="F2" t="n">
-        <v>2.645342502031121</v>
+        <v>2.645470327539174</v>
       </c>
       <c r="G2" t="n">
-        <v>2.946818686697343</v>
+        <v>2.946902143791775</v>
       </c>
       <c r="H2" t="n">
-        <v>2.53206356842391</v>
+        <v>2.532147159697279</v>
       </c>
       <c r="I2" t="n">
-        <v>3.050995778623542</v>
+        <v>3.051047951919927</v>
       </c>
       <c r="J2" t="n">
-        <v>2.547812398220515</v>
+        <v>2.54785080891559</v>
       </c>
       <c r="K2" t="n">
-        <v>3.309112172599489</v>
+        <v>3.309134770252499</v>
       </c>
       <c r="L2" t="n">
-        <v>2.677773152647066</v>
+        <v>2.677849868390681</v>
       </c>
       <c r="M2" t="n">
-        <v>2.920038965987811</v>
+        <v>2.920080133455534</v>
       </c>
       <c r="N2" t="n">
-        <v>2.616766099847273</v>
+        <v>2.616813468610027</v>
       </c>
       <c r="O2" t="n">
-        <v>3.166772099480053</v>
+        <v>3.166815934508666</v>
       </c>
       <c r="P2" t="n">
-        <v>2.591327106854239</v>
+        <v>2.591360077852729</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.367412653092616</v>
+        <v>3.36748618225906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.944887254112452</v>
+        <v>2.944921724677009</v>
       </c>
       <c r="B3" t="n">
-        <v>2.920867822818973</v>
+        <v>2.920900755188333</v>
       </c>
       <c r="C3" t="n">
-        <v>2.979628657106182</v>
+        <v>2.97966156137035</v>
       </c>
       <c r="D3" t="n">
-        <v>2.869419298797387</v>
+        <v>2.869473843232281</v>
       </c>
       <c r="E3" t="n">
-        <v>3.018175174793732</v>
+        <v>3.018225832680802</v>
       </c>
       <c r="F3" t="n">
-        <v>2.733814031183974</v>
+        <v>2.733931736958834</v>
       </c>
       <c r="G3" t="n">
-        <v>3.027445501196672</v>
+        <v>3.027506045118428</v>
       </c>
       <c r="H3" t="n">
-        <v>2.584702302254808</v>
+        <v>2.584817287911175</v>
       </c>
       <c r="I3" t="n">
-        <v>3.095167376004457</v>
+        <v>3.095260139472694</v>
       </c>
       <c r="J3" t="n">
-        <v>2.594925969848202</v>
+        <v>2.594995490797248</v>
       </c>
       <c r="K3" t="n">
-        <v>3.27512189246293</v>
+        <v>3.275161837202655</v>
       </c>
       <c r="L3" t="n">
-        <v>2.748392084664764</v>
+        <v>2.748441121215694</v>
       </c>
       <c r="M3" t="n">
-        <v>2.98398817636922</v>
+        <v>2.983995676152157</v>
       </c>
       <c r="N3" t="n">
-        <v>2.668045772477242</v>
+        <v>2.668177495567341</v>
       </c>
       <c r="O3" t="n">
-        <v>3.262189452544738</v>
+        <v>3.262230994750844</v>
       </c>
       <c r="P3" t="n">
-        <v>2.594494216289833</v>
+        <v>2.594631381154411</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.423385514402281</v>
+        <v>3.423510665974137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.049309464725505</v>
+        <v>3.049422108862183</v>
       </c>
       <c r="B4" t="n">
-        <v>3.021266750273467</v>
+        <v>3.021385849701919</v>
       </c>
       <c r="C4" t="n">
-        <v>3.062291771721352</v>
+        <v>3.062406302726917</v>
       </c>
       <c r="D4" t="n">
-        <v>2.926807321770343</v>
+        <v>2.926918281219148</v>
       </c>
       <c r="E4" t="n">
-        <v>3.036454758781304</v>
+        <v>3.036554518085487</v>
       </c>
       <c r="F4" t="n">
-        <v>2.766131197531286</v>
+        <v>2.766232625727371</v>
       </c>
       <c r="G4" t="n">
-        <v>3.073827383460686</v>
+        <v>3.073911507423088</v>
       </c>
       <c r="H4" t="n">
-        <v>2.628743365226569</v>
+        <v>2.628847420642523</v>
       </c>
       <c r="I4" t="n">
-        <v>3.16192325951753</v>
+        <v>3.161999640290474</v>
       </c>
       <c r="J4" t="n">
-        <v>2.626972533965301</v>
+        <v>2.62707032357907</v>
       </c>
       <c r="K4" t="n">
-        <v>3.339811958950228</v>
+        <v>3.33989891832302</v>
       </c>
       <c r="L4" t="n">
-        <v>2.79964957377857</v>
+        <v>2.799720812606187</v>
       </c>
       <c r="M4" t="n">
-        <v>3.048738926689988</v>
+        <v>3.048787942067333</v>
       </c>
       <c r="N4" t="n">
-        <v>2.713097010441194</v>
+        <v>2.713216721689513</v>
       </c>
       <c r="O4" t="n">
-        <v>3.308842303708653</v>
+        <v>3.308810261658429</v>
       </c>
       <c r="P4" t="n">
-        <v>2.591507691675892</v>
+        <v>2.591590167279597</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.457379461235726</v>
+        <v>3.457371029376095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.111058106970565</v>
+        <v>3.111116326064035</v>
       </c>
       <c r="B5" t="n">
-        <v>3.082127868537183</v>
+        <v>3.082180426411626</v>
       </c>
       <c r="C5" t="n">
-        <v>3.11587137997329</v>
+        <v>3.11593372031136</v>
       </c>
       <c r="D5" t="n">
-        <v>2.971704741799914</v>
+        <v>2.971752168569931</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0614964651667</v>
+        <v>3.061559830309506</v>
       </c>
       <c r="F5" t="n">
-        <v>2.805226619742724</v>
+        <v>2.805352595087893</v>
       </c>
       <c r="G5" t="n">
-        <v>3.115995680997738</v>
+        <v>3.116046289959246</v>
       </c>
       <c r="H5" t="n">
-        <v>2.660172824257693</v>
+        <v>2.660337954616832</v>
       </c>
       <c r="I5" t="n">
-        <v>3.211676302898863</v>
+        <v>3.211755057979786</v>
       </c>
       <c r="J5" t="n">
-        <v>2.65775298764754</v>
+        <v>2.657896989971951</v>
       </c>
       <c r="K5" t="n">
-        <v>3.38540660139274</v>
+        <v>3.385404556797346</v>
       </c>
       <c r="L5" t="n">
-        <v>2.857594934678253</v>
+        <v>2.857696014649455</v>
       </c>
       <c r="M5" t="n">
-        <v>3.109441460313369</v>
+        <v>3.109496716504709</v>
       </c>
       <c r="N5" t="n">
-        <v>2.749313158922618</v>
+        <v>2.749419963805375</v>
       </c>
       <c r="O5" t="n">
-        <v>3.344998868365674</v>
+        <v>3.345112323058022</v>
       </c>
       <c r="P5" t="n">
-        <v>2.621747490902238</v>
+        <v>2.621805400813031</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.484660786079312</v>
+        <v>3.484866624217765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.156532115085515</v>
+        <v>3.156559262877812</v>
       </c>
       <c r="B6" t="n">
-        <v>3.1299228957812</v>
+        <v>3.129947358105867</v>
       </c>
       <c r="C6" t="n">
-        <v>3.160621582122872</v>
+        <v>3.160648437839462</v>
       </c>
       <c r="D6" t="n">
-        <v>3.017446968792101</v>
+        <v>3.017461679110135</v>
       </c>
       <c r="E6" t="n">
-        <v>3.104081482804887</v>
+        <v>3.104115740665199</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8438803883142</v>
+        <v>2.843905682768832</v>
       </c>
       <c r="G6" t="n">
-        <v>3.163413405132147</v>
+        <v>3.163453145450802</v>
       </c>
       <c r="H6" t="n">
-        <v>2.712068135294882</v>
+        <v>2.712105875603939</v>
       </c>
       <c r="I6" t="n">
-        <v>3.274796289779422</v>
+        <v>3.274883529832148</v>
       </c>
       <c r="J6" t="n">
-        <v>2.693524732466337</v>
+        <v>2.693494666050406</v>
       </c>
       <c r="K6" t="n">
-        <v>3.461420894543873</v>
+        <v>3.461519972587274</v>
       </c>
       <c r="L6" t="n">
-        <v>2.902562205283509</v>
+        <v>2.902607820730452</v>
       </c>
       <c r="M6" t="n">
-        <v>3.155820409219873</v>
+        <v>3.155872111346416</v>
       </c>
       <c r="N6" t="n">
-        <v>2.783764342857793</v>
+        <v>2.783884059862852</v>
       </c>
       <c r="O6" t="n">
-        <v>3.381497169172503</v>
+        <v>3.38159405588258</v>
       </c>
       <c r="P6" t="n">
-        <v>2.716732540404021</v>
+        <v>2.716813816952586</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.500994454029292</v>
+        <v>3.501190323190392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.208215307707828</v>
+        <v>3.208149162483653</v>
       </c>
       <c r="B7" t="n">
-        <v>3.180312111072316</v>
+        <v>3.180243623451961</v>
       </c>
       <c r="C7" t="n">
-        <v>3.211418900777441</v>
+        <v>3.211336680233082</v>
       </c>
       <c r="D7" t="n">
-        <v>3.063175629005809</v>
+        <v>3.063131955277949</v>
       </c>
       <c r="E7" t="n">
-        <v>3.153192854231107</v>
+        <v>3.153093071081499</v>
       </c>
       <c r="F7" t="n">
-        <v>2.882384188983024</v>
+        <v>2.88240798577149</v>
       </c>
       <c r="G7" t="n">
-        <v>3.204974680999662</v>
+        <v>3.20492167700908</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76177131159856</v>
+        <v>2.761850843016493</v>
       </c>
       <c r="I7" t="n">
-        <v>3.307969263180011</v>
+        <v>3.308010907155524</v>
       </c>
       <c r="J7" t="n">
-        <v>2.728250735333144</v>
+        <v>2.728328555234571</v>
       </c>
       <c r="K7" t="n">
-        <v>3.46364474620545</v>
+        <v>3.463884668545639</v>
       </c>
       <c r="L7" t="n">
-        <v>2.939793662132765</v>
+        <v>2.939876807737458</v>
       </c>
       <c r="M7" t="n">
-        <v>3.190555395494051</v>
+        <v>3.190579863856728</v>
       </c>
       <c r="N7" t="n">
-        <v>2.849663685978212</v>
+        <v>2.8497758048959</v>
       </c>
       <c r="O7" t="n">
-        <v>3.414610742083533</v>
+        <v>3.414676332011526</v>
       </c>
       <c r="P7" t="n">
-        <v>2.808067026485743</v>
+        <v>2.808183336722034</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.534627231219431</v>
+        <v>3.53474671187542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.235103929314884</v>
+        <v>3.235135077160627</v>
       </c>
       <c r="B8" t="n">
-        <v>3.208810045942796</v>
+        <v>3.208847314306374</v>
       </c>
       <c r="C8" t="n">
-        <v>3.240707008826931</v>
+        <v>3.240737525532134</v>
       </c>
       <c r="D8" t="n">
-        <v>3.100100549995366</v>
+        <v>3.100182403163977</v>
       </c>
       <c r="E8" t="n">
-        <v>3.18878694758576</v>
+        <v>3.188843284532985</v>
       </c>
       <c r="F8" t="n">
-        <v>2.934164182403137</v>
+        <v>2.934312860385586</v>
       </c>
       <c r="G8" t="n">
-        <v>3.247005660738321</v>
+        <v>3.247123927998693</v>
       </c>
       <c r="H8" t="n">
-        <v>2.780115612786175</v>
+        <v>2.780135160579503</v>
       </c>
       <c r="I8" t="n">
-        <v>3.350357012525711</v>
+        <v>3.350419963622036</v>
       </c>
       <c r="J8" t="n">
-        <v>2.754625836041265</v>
+        <v>2.754569383512507</v>
       </c>
       <c r="K8" t="n">
-        <v>3.493098222284515</v>
+        <v>3.493172944196806</v>
       </c>
       <c r="L8" t="n">
-        <v>2.995151435039744</v>
+        <v>2.995256857719115</v>
       </c>
       <c r="M8" t="n">
-        <v>3.243079728382095</v>
+        <v>3.243160523034518</v>
       </c>
       <c r="N8" t="n">
-        <v>2.862735093708397</v>
+        <v>2.862874585128596</v>
       </c>
       <c r="O8" t="n">
-        <v>3.486643735755456</v>
+        <v>3.486767474558618</v>
       </c>
       <c r="P8" t="n">
-        <v>2.9702257796108</v>
+        <v>2.970224411443163</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.581957321298257</v>
+        <v>3.582050897981282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.291355826257601</v>
+        <v>3.291433468129681</v>
       </c>
       <c r="B9" t="n">
-        <v>3.264129501867311</v>
+        <v>3.264213247247498</v>
       </c>
       <c r="C9" t="n">
-        <v>3.295214291391118</v>
+        <v>3.295283936769592</v>
       </c>
       <c r="D9" t="n">
-        <v>3.155431739349918</v>
+        <v>3.155540635901174</v>
       </c>
       <c r="E9" t="n">
-        <v>3.235953869653142</v>
+        <v>3.236002266793366</v>
       </c>
       <c r="F9" t="n">
-        <v>2.989114768620885</v>
+        <v>2.989229064749731</v>
       </c>
       <c r="G9" t="n">
-        <v>3.296678403457842</v>
+        <v>3.296730841755126</v>
       </c>
       <c r="H9" t="n">
-        <v>2.826236792901568</v>
+        <v>2.826272582452225</v>
       </c>
       <c r="I9" t="n">
-        <v>3.378014907139526</v>
+        <v>3.378054162134394</v>
       </c>
       <c r="J9" t="n">
-        <v>2.779677442508255</v>
+        <v>2.779556361917651</v>
       </c>
       <c r="K9" t="n">
-        <v>3.501969428731375</v>
+        <v>3.502084280198687</v>
       </c>
       <c r="L9" t="n">
-        <v>3.052963694842452</v>
+        <v>3.053041021369716</v>
       </c>
       <c r="M9" t="n">
-        <v>3.299226391124173</v>
+        <v>3.299265308876263</v>
       </c>
       <c r="N9" t="n">
-        <v>2.95434384871722</v>
+        <v>2.954470344222949</v>
       </c>
       <c r="O9" t="n">
-        <v>3.569826421319422</v>
+        <v>3.569942510644157</v>
       </c>
       <c r="P9" t="n">
-        <v>3.024802729415828</v>
+        <v>3.024846358014381</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.674260182027667</v>
+        <v>3.67454208078944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.354616980968285</v>
+        <v>3.354663142662228</v>
       </c>
       <c r="B10" t="n">
-        <v>3.330394781336989</v>
+        <v>3.330448934722621</v>
       </c>
       <c r="C10" t="n">
-        <v>3.357421270746973</v>
+        <v>3.357464183509793</v>
       </c>
       <c r="D10" t="n">
-        <v>3.230187622129653</v>
+        <v>3.230243614285051</v>
       </c>
       <c r="E10" t="n">
-        <v>3.288251967343298</v>
+        <v>3.288309752069934</v>
       </c>
       <c r="F10" t="n">
-        <v>3.051302681152931</v>
+        <v>3.05136604367739</v>
       </c>
       <c r="G10" t="n">
-        <v>3.370686646742447</v>
+        <v>3.37073603499266</v>
       </c>
       <c r="H10" t="n">
-        <v>2.868654425826893</v>
+        <v>2.86872197332026</v>
       </c>
       <c r="I10" t="n">
-        <v>3.463968148870827</v>
+        <v>3.464013005277756</v>
       </c>
       <c r="J10" t="n">
-        <v>2.800810816682481</v>
+        <v>2.800909944098353</v>
       </c>
       <c r="K10" t="n">
-        <v>3.538502563158625</v>
+        <v>3.538609647512165</v>
       </c>
       <c r="L10" t="n">
-        <v>3.104025382342526</v>
+        <v>3.104074306234543</v>
       </c>
       <c r="M10" t="n">
-        <v>3.357985575397784</v>
+        <v>3.358006131195708</v>
       </c>
       <c r="N10" t="n">
-        <v>3.048366573621178</v>
+        <v>3.048485434055912</v>
       </c>
       <c r="O10" t="n">
-        <v>3.622577722744732</v>
+        <v>3.622589904922649</v>
       </c>
       <c r="P10" t="n">
-        <v>3.001686588900303</v>
+        <v>3.001837598665738</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.788257421554916</v>
+        <v>3.788224224804887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.419851185273519</v>
+        <v>3.419868836193012</v>
       </c>
       <c r="B11" t="n">
-        <v>3.391300449967875</v>
+        <v>3.391334447173943</v>
       </c>
       <c r="C11" t="n">
-        <v>3.427547948707677</v>
+        <v>3.427578207029516</v>
       </c>
       <c r="D11" t="n">
-        <v>3.288495436016552</v>
+        <v>3.288585492705799</v>
       </c>
       <c r="E11" t="n">
-        <v>3.373893539839258</v>
+        <v>3.373982220962485</v>
       </c>
       <c r="F11" t="n">
-        <v>3.123107972948211</v>
+        <v>3.12321444646259</v>
       </c>
       <c r="G11" t="n">
-        <v>3.451192276909682</v>
+        <v>3.45136230357834</v>
       </c>
       <c r="H11" t="n">
-        <v>2.899873233121896</v>
+        <v>2.900030269134961</v>
       </c>
       <c r="I11" t="n">
-        <v>3.539589005446053</v>
+        <v>3.53967960918165</v>
       </c>
       <c r="J11" t="n">
-        <v>2.820104425693975</v>
+        <v>2.819992332796947</v>
       </c>
       <c r="K11" t="n">
-        <v>3.63958386290367</v>
+        <v>3.639593788575501</v>
       </c>
       <c r="L11" t="n">
-        <v>3.180924082782649</v>
+        <v>3.181070112006799</v>
       </c>
       <c r="M11" t="n">
-        <v>3.439688748768104</v>
+        <v>3.439893766519917</v>
       </c>
       <c r="N11" t="n">
-        <v>3.073246578673886</v>
+        <v>3.073361492856869</v>
       </c>
       <c r="O11" t="n">
-        <v>3.693890577148173</v>
+        <v>3.694076764799655</v>
       </c>
       <c r="P11" t="n">
-        <v>3.008920248517715</v>
+        <v>3.008952587094348</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.825230926278218</v>
+        <v>3.825567647116521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.500015445960634</v>
+        <v>3.500044826187147</v>
       </c>
       <c r="B12" t="n">
-        <v>3.470274500845678</v>
+        <v>3.470306638620813</v>
       </c>
       <c r="C12" t="n">
-        <v>3.504008112200192</v>
+        <v>3.504049665581977</v>
       </c>
       <c r="D12" t="n">
-        <v>3.364242426964669</v>
+        <v>3.36427996401438</v>
       </c>
       <c r="E12" t="n">
-        <v>3.449283027840954</v>
+        <v>3.449375650965156</v>
       </c>
       <c r="F12" t="n">
-        <v>3.197974956643601</v>
+        <v>3.198067395484857</v>
       </c>
       <c r="G12" t="n">
-        <v>3.520967318638984</v>
+        <v>3.521027881888406</v>
       </c>
       <c r="H12" t="n">
-        <v>2.984522230770719</v>
+        <v>2.984568607991968</v>
       </c>
       <c r="I12" t="n">
-        <v>3.606931927130633</v>
+        <v>3.607014592436456</v>
       </c>
       <c r="J12" t="n">
-        <v>2.868663042564576</v>
+        <v>2.868704372854141</v>
       </c>
       <c r="K12" t="n">
-        <v>3.743467252409272</v>
+        <v>3.74345487249654</v>
       </c>
       <c r="L12" t="n">
-        <v>3.237769984620956</v>
+        <v>3.237888083402742</v>
       </c>
       <c r="M12" t="n">
-        <v>3.492267715439755</v>
+        <v>3.492358555962424</v>
       </c>
       <c r="N12" t="n">
-        <v>3.130707935584569</v>
+        <v>3.130792547155957</v>
       </c>
       <c r="O12" t="n">
-        <v>3.743848955555142</v>
+        <v>3.744004153710004</v>
       </c>
       <c r="P12" t="n">
-        <v>3.024051056554125</v>
+        <v>3.024146739486151</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.846121565118566</v>
+        <v>3.846240861278809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.566734295835155</v>
+        <v>3.566815494497013</v>
       </c>
       <c r="B13" t="n">
-        <v>3.534480563343976</v>
+        <v>3.534557873541018</v>
       </c>
       <c r="C13" t="n">
-        <v>3.567058798509598</v>
+        <v>3.5671315695344</v>
       </c>
       <c r="D13" t="n">
-        <v>3.424413289539528</v>
+        <v>3.424514992572053</v>
       </c>
       <c r="E13" t="n">
-        <v>3.493949995971217</v>
+        <v>3.494034267007505</v>
       </c>
       <c r="F13" t="n">
-        <v>3.290160116402959</v>
+        <v>3.290297138035872</v>
       </c>
       <c r="G13" t="n">
-        <v>3.567036064988902</v>
+        <v>3.567118002508433</v>
       </c>
       <c r="H13" t="n">
-        <v>3.055721234235839</v>
+        <v>3.055977732476948</v>
       </c>
       <c r="I13" t="n">
-        <v>3.667307024722062</v>
+        <v>3.667328823091665</v>
       </c>
       <c r="J13" t="n">
-        <v>2.943257407346465</v>
+        <v>2.943494986892236</v>
       </c>
       <c r="K13" t="n">
-        <v>3.769993971033645</v>
+        <v>3.769945040711161</v>
       </c>
       <c r="L13" t="n">
-        <v>3.345420171837916</v>
+        <v>3.345495133196111</v>
       </c>
       <c r="M13" t="n">
-        <v>3.570843563035698</v>
+        <v>3.570892202461828</v>
       </c>
       <c r="N13" t="n">
-        <v>3.205609019561003</v>
+        <v>3.20571736474821</v>
       </c>
       <c r="O13" t="n">
-        <v>3.812111118149132</v>
+        <v>3.812124924441749</v>
       </c>
       <c r="P13" t="n">
-        <v>3.053015761938238</v>
+        <v>3.0530201208162</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.853967929785688</v>
+        <v>3.853911364419301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.616154403139206</v>
+        <v>3.61621083598364</v>
       </c>
       <c r="B14" t="n">
-        <v>3.583250931959764</v>
+        <v>3.583338298742612</v>
       </c>
       <c r="C14" t="n">
-        <v>3.625244144720493</v>
+        <v>3.625299276675844</v>
       </c>
       <c r="D14" t="n">
-        <v>3.476926989006601</v>
+        <v>3.477061550846738</v>
       </c>
       <c r="E14" t="n">
-        <v>3.591302998322211</v>
+        <v>3.591360444529106</v>
       </c>
       <c r="F14" t="n">
-        <v>3.333914443678207</v>
+        <v>3.334081230917932</v>
       </c>
       <c r="G14" t="n">
-        <v>3.670014147033262</v>
+        <v>3.670117030266018</v>
       </c>
       <c r="H14" t="n">
-        <v>3.108510119304233</v>
+        <v>3.108630260224725</v>
       </c>
       <c r="I14" t="n">
-        <v>3.754787445706532</v>
+        <v>3.75484090737003</v>
       </c>
       <c r="J14" t="n">
-        <v>2.972252546314736</v>
+        <v>2.972497988321724</v>
       </c>
       <c r="K14" t="n">
-        <v>3.799112311017297</v>
+        <v>3.799201415517488</v>
       </c>
       <c r="L14" t="n">
-        <v>3.407166247395156</v>
+        <v>3.407311636969852</v>
       </c>
       <c r="M14" t="n">
-        <v>3.660496135255648</v>
+        <v>3.660594811419256</v>
       </c>
       <c r="N14" t="n">
-        <v>3.296309167081386</v>
+        <v>3.296473068261758</v>
       </c>
       <c r="O14" t="n">
-        <v>3.857627659947964</v>
+        <v>3.857717465217537</v>
       </c>
       <c r="P14" t="n">
-        <v>3.16040194697938</v>
+        <v>3.160562635567132</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.861419391198149</v>
+        <v>3.861477364792211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.696747667362025</v>
+        <v>3.69681657069218</v>
       </c>
       <c r="B15" t="n">
-        <v>3.666311516517415</v>
+        <v>3.666380231303126</v>
       </c>
       <c r="C15" t="n">
-        <v>3.697160170761741</v>
+        <v>3.697222848118427</v>
       </c>
       <c r="D15" t="n">
-        <v>3.550922398852104</v>
+        <v>3.550943540821439</v>
       </c>
       <c r="E15" t="n">
-        <v>3.633150643216551</v>
+        <v>3.633205919403432</v>
       </c>
       <c r="F15" t="n">
-        <v>3.398772078213211</v>
+        <v>3.398831879064264</v>
       </c>
       <c r="G15" t="n">
-        <v>3.711549389352884</v>
+        <v>3.71156319456527</v>
       </c>
       <c r="H15" t="n">
-        <v>3.176401578843012</v>
+        <v>3.176546058861459</v>
       </c>
       <c r="I15" t="n">
-        <v>3.781503365890241</v>
+        <v>3.781554748174914</v>
       </c>
       <c r="J15" t="n">
-        <v>3.025100281868156</v>
+        <v>3.025059213651508</v>
       </c>
       <c r="K15" t="n">
-        <v>3.846815304169465</v>
+        <v>3.846928379486584</v>
       </c>
       <c r="L15" t="n">
-        <v>3.469192458594513</v>
+        <v>3.469275544647341</v>
       </c>
       <c r="M15" t="n">
-        <v>3.705588806894417</v>
+        <v>3.705636970952447</v>
       </c>
       <c r="N15" t="n">
-        <v>3.371294585086205</v>
+        <v>3.371385785533553</v>
       </c>
       <c r="O15" t="n">
-        <v>3.905454220785203</v>
+        <v>3.905522164578659</v>
       </c>
       <c r="P15" t="n">
-        <v>3.311501392290642</v>
+        <v>3.311601035567425</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.874102862397758</v>
+        <v>3.874175367744322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.757838870855361</v>
+        <v>3.757931255879427</v>
       </c>
       <c r="B16" t="n">
-        <v>3.727249452080901</v>
+        <v>3.72734237911734</v>
       </c>
       <c r="C16" t="n">
-        <v>3.758891212861746</v>
+        <v>3.758976283555243</v>
       </c>
       <c r="D16" t="n">
-        <v>3.614369455094926</v>
+        <v>3.61442878878909</v>
       </c>
       <c r="E16" t="n">
-        <v>3.695256788408031</v>
+        <v>3.695337764861806</v>
       </c>
       <c r="F16" t="n">
-        <v>3.445806999192685</v>
+        <v>3.445855557741354</v>
       </c>
       <c r="G16" t="n">
-        <v>3.765158697849602</v>
+        <v>3.765236916024326</v>
       </c>
       <c r="H16" t="n">
-        <v>3.196478577644277</v>
+        <v>3.196507187498682</v>
       </c>
       <c r="I16" t="n">
-        <v>3.815056209088257</v>
+        <v>3.815078135985968</v>
       </c>
       <c r="J16" t="n">
-        <v>3.087992750206916</v>
+        <v>3.087958512767946</v>
       </c>
       <c r="K16" t="n">
-        <v>3.900449912874699</v>
+        <v>3.90047706430092</v>
       </c>
       <c r="L16" t="n">
-        <v>3.527297137473908</v>
+        <v>3.527339482373958</v>
       </c>
       <c r="M16" t="n">
-        <v>3.766137705918259</v>
+        <v>3.766206408366382</v>
       </c>
       <c r="N16" t="n">
-        <v>3.459569945955638</v>
+        <v>3.459658356618811</v>
       </c>
       <c r="O16" t="n">
-        <v>3.960456507429049</v>
+        <v>3.960532421433628</v>
       </c>
       <c r="P16" t="n">
-        <v>3.422135537433721</v>
+        <v>3.422144429791649</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.909875523890776</v>
+        <v>3.909967382302841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.803816683122497</v>
+        <v>3.803897073207489</v>
       </c>
       <c r="B17" t="n">
-        <v>3.775793952168489</v>
+        <v>3.775862830767302</v>
       </c>
       <c r="C17" t="n">
-        <v>3.808812557630163</v>
+        <v>3.808897805643553</v>
       </c>
       <c r="D17" t="n">
-        <v>3.66736679188131</v>
+        <v>3.667406558483691</v>
       </c>
       <c r="E17" t="n">
-        <v>3.75984968742784</v>
+        <v>3.759948342631941</v>
       </c>
       <c r="F17" t="n">
-        <v>3.500268448045793</v>
+        <v>3.500345867493058</v>
       </c>
       <c r="G17" t="n">
-        <v>3.810290236475366</v>
+        <v>3.810380644914079</v>
       </c>
       <c r="H17" t="n">
-        <v>3.258805824658005</v>
+        <v>3.258875905896908</v>
       </c>
       <c r="I17" t="n">
-        <v>3.881731791939519</v>
+        <v>3.88177950246049</v>
       </c>
       <c r="J17" t="n">
-        <v>3.160981651757113</v>
+        <v>3.161103116547537</v>
       </c>
       <c r="K17" t="n">
-        <v>3.997846548918641</v>
+        <v>3.997757040598958</v>
       </c>
       <c r="L17" t="n">
-        <v>3.579830637104167</v>
+        <v>3.579932608548583</v>
       </c>
       <c r="M17" t="n">
-        <v>3.805635364778131</v>
+        <v>3.805735588564171</v>
       </c>
       <c r="N17" t="n">
-        <v>3.542703497781328</v>
+        <v>3.542900494481429</v>
       </c>
       <c r="O17" t="n">
-        <v>4.029311208239875</v>
+        <v>4.029389111654973</v>
       </c>
       <c r="P17" t="n">
-        <v>3.544289344184678</v>
+        <v>3.544409734451134</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.993699148070479</v>
+        <v>3.99377090169938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.866477599552883</v>
+        <v>3.866574166439174</v>
       </c>
       <c r="B18" t="n">
-        <v>3.837938597677276</v>
+        <v>3.838018510190211</v>
       </c>
       <c r="C18" t="n">
-        <v>3.871796510056237</v>
+        <v>3.871867873300844</v>
       </c>
       <c r="D18" t="n">
-        <v>3.733776172538622</v>
+        <v>3.733818250620004</v>
       </c>
       <c r="E18" t="n">
-        <v>3.81905547538221</v>
+        <v>3.81904484103754</v>
       </c>
       <c r="F18" t="n">
-        <v>3.567499902145027</v>
+        <v>3.567621449174712</v>
       </c>
       <c r="G18" t="n">
-        <v>3.86990852782945</v>
+        <v>3.8699017545648</v>
       </c>
       <c r="H18" t="n">
-        <v>3.315539892241278</v>
+        <v>3.31587281536506</v>
       </c>
       <c r="I18" t="n">
-        <v>3.927896972417548</v>
+        <v>3.927969359055192</v>
       </c>
       <c r="J18" t="n">
-        <v>3.24448150660175</v>
+        <v>3.244779032564713</v>
       </c>
       <c r="K18" t="n">
-        <v>4.040530934042448</v>
+        <v>4.040608675453088</v>
       </c>
       <c r="L18" t="n">
-        <v>3.630989858741419</v>
+        <v>3.631147031543885</v>
       </c>
       <c r="M18" t="n">
-        <v>3.854635268619006</v>
+        <v>3.854731619475722</v>
       </c>
       <c r="N18" t="n">
-        <v>3.620741440944042</v>
+        <v>3.620840491925695</v>
       </c>
       <c r="O18" t="n">
-        <v>4.094095142167463</v>
+        <v>4.094243162539755</v>
       </c>
       <c r="P18" t="n">
-        <v>3.637568279625238</v>
+        <v>3.637666170859092</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.111096148950761</v>
+        <v>4.111263179953216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.928995148135013</v>
+        <v>3.929048854310492</v>
       </c>
       <c r="B19" t="n">
-        <v>3.895665606777376</v>
+        <v>3.895727505183429</v>
       </c>
       <c r="C19" t="n">
-        <v>3.933416084570897</v>
+        <v>3.933468404688251</v>
       </c>
       <c r="D19" t="n">
-        <v>3.781759668002597</v>
+        <v>3.781840022396593</v>
       </c>
       <c r="E19" t="n">
-        <v>3.88954332298622</v>
+        <v>3.889610609854318</v>
       </c>
       <c r="F19" t="n">
-        <v>3.628487704786167</v>
+        <v>3.628614397804635</v>
       </c>
       <c r="G19" t="n">
-        <v>3.936243841209658</v>
+        <v>3.936316746788511</v>
       </c>
       <c r="H19" t="n">
-        <v>3.38368325385615</v>
+        <v>3.383801814351383</v>
       </c>
       <c r="I19" t="n">
-        <v>3.994000183884849</v>
+        <v>3.994088810118654</v>
       </c>
       <c r="J19" t="n">
-        <v>3.310644485228299</v>
+        <v>3.310917550799804</v>
       </c>
       <c r="K19" t="n">
-        <v>4.100343927001198</v>
+        <v>4.100460893872673</v>
       </c>
       <c r="L19" t="n">
-        <v>3.705285204392226</v>
+        <v>3.705385064281119</v>
       </c>
       <c r="M19" t="n">
-        <v>3.932535343978793</v>
+        <v>3.932604515142909</v>
       </c>
       <c r="N19" t="n">
-        <v>3.700372197234192</v>
+        <v>3.700440800007187</v>
       </c>
       <c r="O19" t="n">
-        <v>4.136421291005473</v>
+        <v>4.136546616209553</v>
       </c>
       <c r="P19" t="n">
-        <v>3.678786719333878</v>
+        <v>3.678824860878399</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.23062313405233</v>
+        <v>4.230808845920937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.010949856911737</v>
+        <v>4.01110662747385</v>
       </c>
       <c r="B20" t="n">
-        <v>3.991679164755783</v>
+        <v>3.991833383720779</v>
       </c>
       <c r="C20" t="n">
-        <v>4.015270692522624</v>
+        <v>4.015411774821836</v>
       </c>
       <c r="D20" t="n">
-        <v>3.897673489992347</v>
+        <v>3.897786026366598</v>
       </c>
       <c r="E20" t="n">
-        <v>3.95162820133576</v>
+        <v>3.951681220357652</v>
       </c>
       <c r="F20" t="n">
-        <v>3.693226538342054</v>
+        <v>3.693334611811636</v>
       </c>
       <c r="G20" t="n">
-        <v>4.006609221137664</v>
+        <v>4.006702844180324</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45498584150831</v>
+        <v>3.45504850120114</v>
       </c>
       <c r="I20" t="n">
-        <v>4.057298005564395</v>
+        <v>4.057329118266149</v>
       </c>
       <c r="J20" t="n">
-        <v>3.371263051492983</v>
+        <v>3.371345817808408</v>
       </c>
       <c r="K20" t="n">
-        <v>4.152915926948765</v>
+        <v>4.152882415502638</v>
       </c>
       <c r="L20" t="n">
-        <v>3.767743719154486</v>
+        <v>3.767864518945343</v>
       </c>
       <c r="M20" t="n">
-        <v>4.001129709310687</v>
+        <v>4.001242666243278</v>
       </c>
       <c r="N20" t="n">
-        <v>3.765834470085758</v>
+        <v>3.765987869245404</v>
       </c>
       <c r="O20" t="n">
-        <v>4.21102317251598</v>
+        <v>4.211134458210902</v>
       </c>
       <c r="P20" t="n">
-        <v>3.740000757172907</v>
+        <v>3.740130217781934</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.265819757464501</v>
+        <v>4.265965776993661</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.056944535984551</v>
+        <v>4.057045677426357</v>
       </c>
       <c r="B21" t="n">
-        <v>4.032628835582654</v>
+        <v>4.032725500013659</v>
       </c>
       <c r="C21" t="n">
-        <v>4.053204871830152</v>
+        <v>4.053304111670557</v>
       </c>
       <c r="D21" t="n">
-        <v>3.92031827662313</v>
+        <v>3.920381358099634</v>
       </c>
       <c r="E21" t="n">
-        <v>3.970976627465705</v>
+        <v>3.971054200085399</v>
       </c>
       <c r="F21" t="n">
-        <v>3.731973257679599</v>
+        <v>3.732093771616718</v>
       </c>
       <c r="G21" t="n">
-        <v>4.04679145230622</v>
+        <v>4.046819806611212</v>
       </c>
       <c r="H21" t="n">
-        <v>3.511153037752953</v>
+        <v>3.511333691820605</v>
       </c>
       <c r="I21" t="n">
-        <v>4.118689144863035</v>
+        <v>4.11869754350661</v>
       </c>
       <c r="J21" t="n">
-        <v>3.424513023694837</v>
+        <v>3.424630495630959</v>
       </c>
       <c r="K21" t="n">
-        <v>4.216662552327202</v>
+        <v>4.216819408767342</v>
       </c>
       <c r="L21" t="n">
-        <v>3.828877823001391</v>
+        <v>3.829008904919165</v>
       </c>
       <c r="M21" t="n">
-        <v>4.062422214463084</v>
+        <v>4.06250182192325</v>
       </c>
       <c r="N21" t="n">
-        <v>3.814000200384985</v>
+        <v>3.814130644226561</v>
       </c>
       <c r="O21" t="n">
-        <v>4.256597648125616</v>
+        <v>4.256700598287511</v>
       </c>
       <c r="P21" t="n">
-        <v>3.76046275914724</v>
+        <v>3.760512657576882</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.269657689095454</v>
+        <v>4.269870880413817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.076718298953314</v>
+        <v>4.076733632162359</v>
       </c>
       <c r="B22" t="n">
-        <v>4.044452466362411</v>
+        <v>4.044477111235496</v>
       </c>
       <c r="C22" t="n">
-        <v>4.08485139931695</v>
+        <v>4.084870914331381</v>
       </c>
       <c r="D22" t="n">
-        <v>3.939793203795654</v>
+        <v>3.939834639954048</v>
       </c>
       <c r="E22" t="n">
-        <v>4.055758726211502</v>
+        <v>4.055820611649199</v>
       </c>
       <c r="F22" t="n">
-        <v>3.788549657296759</v>
+        <v>3.788656902930313</v>
       </c>
       <c r="G22" t="n">
-        <v>4.110706012402052</v>
+        <v>4.110724165678321</v>
       </c>
       <c r="H22" t="n">
-        <v>3.592172372153967</v>
+        <v>3.592329203518406</v>
       </c>
       <c r="I22" t="n">
-        <v>4.177779798535173</v>
+        <v>4.177824109375163</v>
       </c>
       <c r="J22" t="n">
-        <v>3.502124530009668</v>
+        <v>3.502243051070136</v>
       </c>
       <c r="K22" t="n">
-        <v>4.261353353987226</v>
+        <v>4.261402122799552</v>
       </c>
       <c r="L22" t="n">
-        <v>3.883520773350374</v>
+        <v>3.883640751752576</v>
       </c>
       <c r="M22" t="n">
-        <v>4.116068923268043</v>
+        <v>4.116134842304407</v>
       </c>
       <c r="N22" t="n">
-        <v>3.853975263179461</v>
+        <v>3.85410056943008</v>
       </c>
       <c r="O22" t="n">
-        <v>4.286155625065943</v>
+        <v>4.286243347344649</v>
       </c>
       <c r="P22" t="n">
-        <v>3.801953634434537</v>
+        <v>3.802074324935039</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.27161057185713</v>
+        <v>4.271777597576709</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.090682914045017</v>
+        <v>4.090705468849833</v>
       </c>
       <c r="B23" t="n">
-        <v>4.069938576410434</v>
+        <v>4.069962586175824</v>
       </c>
       <c r="C23" t="n">
-        <v>4.103868722718056</v>
+        <v>4.10388565123833</v>
       </c>
       <c r="D23" t="n">
-        <v>3.985626914875157</v>
+        <v>3.985665887051575</v>
       </c>
       <c r="E23" t="n">
-        <v>4.074355479479744</v>
+        <v>4.074390570110265</v>
       </c>
       <c r="F23" t="n">
-        <v>3.809655897914025</v>
+        <v>3.809748861515682</v>
       </c>
       <c r="G23" t="n">
-        <v>4.110406076596748</v>
+        <v>4.110500126411681</v>
       </c>
       <c r="H23" t="n">
-        <v>3.639288693804318</v>
+        <v>3.639377816189165</v>
       </c>
       <c r="I23" t="n">
-        <v>4.185496728802207</v>
+        <v>4.185610115574561</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5722277411103</v>
+        <v>3.572181069928669</v>
       </c>
       <c r="K23" t="n">
-        <v>4.290157458047717</v>
+        <v>4.290348289390531</v>
       </c>
       <c r="L23" t="n">
-        <v>3.901882858017888</v>
+        <v>3.902000604649346</v>
       </c>
       <c r="M23" t="n">
-        <v>4.120457959441016</v>
+        <v>4.120565026297113</v>
       </c>
       <c r="N23" t="n">
-        <v>3.898803565972723</v>
+        <v>3.898930790017089</v>
       </c>
       <c r="O23" t="n">
-        <v>4.292419076687223</v>
+        <v>4.292484179289348</v>
       </c>
       <c r="P23" t="n">
-        <v>3.81891027418551</v>
+        <v>3.819063174856414</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.266572530335271</v>
+        <v>4.266685196046275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.071312487733753</v>
+        <v>4.071315255332346</v>
       </c>
       <c r="B24" t="n">
-        <v>4.047663026156108</v>
+        <v>4.047670495806964</v>
       </c>
       <c r="C24" t="n">
-        <v>4.106420010411586</v>
+        <v>4.106444685676759</v>
       </c>
       <c r="D24" t="n">
-        <v>3.991529563522819</v>
+        <v>3.991595044075417</v>
       </c>
       <c r="E24" t="n">
-        <v>4.137813169143536</v>
+        <v>4.13791578580306</v>
       </c>
       <c r="F24" t="n">
-        <v>3.852204248583349</v>
+        <v>3.85237095695751</v>
       </c>
       <c r="G24" t="n">
-        <v>4.151677316740552</v>
+        <v>4.151791553279636</v>
       </c>
       <c r="H24" t="n">
-        <v>3.698189045908054</v>
+        <v>3.698357344830349</v>
       </c>
       <c r="I24" t="n">
-        <v>4.201162324579491</v>
+        <v>4.201275997125991</v>
       </c>
       <c r="J24" t="n">
-        <v>3.63017511869327</v>
+        <v>3.630360144037815</v>
       </c>
       <c r="K24" t="n">
-        <v>4.330030219999063</v>
+        <v>4.330252946198859</v>
       </c>
       <c r="L24" t="n">
-        <v>3.925274550804423</v>
+        <v>3.925399691001817</v>
       </c>
       <c r="M24" t="n">
-        <v>4.137399565734754</v>
+        <v>4.1374853077359</v>
       </c>
       <c r="N24" t="n">
-        <v>3.913359252602507</v>
+        <v>3.913486742173888</v>
       </c>
       <c r="O24" t="n">
-        <v>4.299266266452813</v>
+        <v>4.299312426790769</v>
       </c>
       <c r="P24" t="n">
-        <v>3.871100204317517</v>
+        <v>3.871197222206435</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.27767785519499</v>
+        <v>4.277821157630324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.173833332676383</v>
+        <v>4.173896272019604</v>
       </c>
       <c r="B25" t="n">
-        <v>4.151978719224611</v>
+        <v>4.152054826918667</v>
       </c>
       <c r="C25" t="n">
-        <v>4.194157466847789</v>
+        <v>4.194207576597321</v>
       </c>
       <c r="D25" t="n">
-        <v>4.062536982075628</v>
+        <v>4.062620625069554</v>
       </c>
       <c r="E25" t="n">
-        <v>4.176500487991522</v>
+        <v>4.176546975552403</v>
       </c>
       <c r="F25" t="n">
-        <v>3.880685316648151</v>
+        <v>3.880795709739713</v>
       </c>
       <c r="G25" t="n">
-        <v>4.17111374359577</v>
+        <v>4.171146932541263</v>
       </c>
       <c r="H25" t="n">
-        <v>3.709640873623533</v>
+        <v>3.709842749002136</v>
       </c>
       <c r="I25" t="n">
-        <v>4.213091556229576</v>
+        <v>4.21311304394378</v>
       </c>
       <c r="J25" t="n">
-        <v>3.688682034221099</v>
+        <v>3.688891594145718</v>
       </c>
       <c r="K25" t="n">
-        <v>4.38858076921984</v>
+        <v>4.388589691150321</v>
       </c>
       <c r="L25" t="n">
-        <v>3.940647177500488</v>
+        <v>3.940738497224535</v>
       </c>
       <c r="M25" t="n">
-        <v>4.14954073246487</v>
+        <v>4.149593328396647</v>
       </c>
       <c r="N25" t="n">
-        <v>3.938310391574811</v>
+        <v>3.938398368583461</v>
       </c>
       <c r="O25" t="n">
-        <v>4.322949094972125</v>
+        <v>4.32301402115466</v>
       </c>
       <c r="P25" t="n">
-        <v>3.906669364133343</v>
+        <v>3.906745763650307</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.283606904060234</v>
+        <v>4.28372648068963</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.19010613345805</v>
+        <v>4.19017083635765</v>
       </c>
       <c r="B26" t="n">
-        <v>4.176118051506275</v>
+        <v>4.176185065967831</v>
       </c>
       <c r="C26" t="n">
-        <v>4.206297533568839</v>
+        <v>4.206357031688722</v>
       </c>
       <c r="D26" t="n">
-        <v>4.107961489782611</v>
+        <v>4.108044494711701</v>
       </c>
       <c r="E26" t="n">
-        <v>4.184277552087492</v>
+        <v>4.184351682247051</v>
       </c>
       <c r="F26" t="n">
-        <v>3.900431212720578</v>
+        <v>3.900562133220495</v>
       </c>
       <c r="G26" t="n">
-        <v>4.201626895074994</v>
+        <v>4.201716008778966</v>
       </c>
       <c r="H26" t="n">
-        <v>3.758833279050942</v>
+        <v>3.758850880234145</v>
       </c>
       <c r="I26" t="n">
-        <v>4.250713332962386</v>
+        <v>4.250802608755755</v>
       </c>
       <c r="J26" t="n">
-        <v>3.767295648794972</v>
+        <v>3.767274169977602</v>
       </c>
       <c r="K26" t="n">
-        <v>4.411073387929838</v>
+        <v>4.411248091220282</v>
       </c>
       <c r="L26" t="n">
-        <v>3.944875979019527</v>
+        <v>3.944982409617481</v>
       </c>
       <c r="M26" t="n">
-        <v>4.159105677962629</v>
+        <v>4.159173482111052</v>
       </c>
       <c r="N26" t="n">
-        <v>3.961073245845335</v>
+        <v>3.961206005939057</v>
       </c>
       <c r="O26" t="n">
-        <v>4.322070187728464</v>
+        <v>4.322186432570689</v>
       </c>
       <c r="P26" t="n">
-        <v>3.930553127642027</v>
+        <v>3.930762699698831</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.300658511260564</v>
+        <v>4.300841467284859</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.288170841674686</v>
+        <v>4.288243566983799</v>
       </c>
       <c r="B27" t="n">
-        <v>4.270595996828674</v>
+        <v>4.270683801942688</v>
       </c>
       <c r="C27" t="n">
-        <v>4.291033431933868</v>
+        <v>4.291106576139158</v>
       </c>
       <c r="D27" t="n">
-        <v>4.164219253440347</v>
+        <v>4.164337018858716</v>
       </c>
       <c r="E27" t="n">
-        <v>4.212576018647353</v>
+        <v>4.212653598442799</v>
       </c>
       <c r="F27" t="n">
-        <v>3.9523754741612</v>
+        <v>3.952533742935292</v>
       </c>
       <c r="G27" t="n">
-        <v>4.240628449846141</v>
+        <v>4.240668773711358</v>
       </c>
       <c r="H27" t="n">
-        <v>3.817568263125102</v>
+        <v>3.817678604855052</v>
       </c>
       <c r="I27" t="n">
-        <v>4.325467749063365</v>
+        <v>4.325541888101003</v>
       </c>
       <c r="J27" t="n">
-        <v>3.82092622413363</v>
+        <v>3.82096072510987</v>
       </c>
       <c r="K27" t="n">
-        <v>4.479274316685827</v>
+        <v>4.479139689216103</v>
       </c>
       <c r="L27" t="n">
-        <v>3.987848566518602</v>
+        <v>3.987973381495053</v>
       </c>
       <c r="M27" t="n">
-        <v>4.191825447628064</v>
+        <v>4.191868914661756</v>
       </c>
       <c r="N27" t="n">
-        <v>4.004491703685791</v>
+        <v>4.004600321831856</v>
       </c>
       <c r="O27" t="n">
-        <v>4.304049839210758</v>
+        <v>4.30398791728001</v>
       </c>
       <c r="P27" t="n">
-        <v>3.951740768930171</v>
+        <v>3.951848058109406</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.302982463747139</v>
+        <v>4.302985057387603</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.334543557196484</v>
+        <v>4.334592927802705</v>
       </c>
       <c r="B28" t="n">
-        <v>4.315447766482008</v>
+        <v>4.315500822180107</v>
       </c>
       <c r="C28" t="n">
-        <v>4.348904542221602</v>
+        <v>4.348952708097553</v>
       </c>
       <c r="D28" t="n">
-        <v>4.217407991804199</v>
+        <v>4.217458159016911</v>
       </c>
       <c r="E28" t="n">
-        <v>4.28542265235836</v>
+        <v>4.28547369362832</v>
       </c>
       <c r="F28" t="n">
-        <v>3.982971859659743</v>
+        <v>3.98309328558718</v>
       </c>
       <c r="G28" t="n">
-        <v>4.299929938589244</v>
+        <v>4.299979411121405</v>
       </c>
       <c r="H28" t="n">
-        <v>3.82111725904141</v>
+        <v>3.821204931577271</v>
       </c>
       <c r="I28" t="n">
-        <v>4.398781153288005</v>
+        <v>4.398829128991433</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8647927523336</v>
+        <v>3.864851154141399</v>
       </c>
       <c r="K28" t="n">
-        <v>4.581085655780947</v>
+        <v>4.58120589226938</v>
       </c>
       <c r="L28" t="n">
-        <v>3.986798791200037</v>
+        <v>3.986933120612144</v>
       </c>
       <c r="M28" t="n">
-        <v>4.206290566844755</v>
+        <v>4.206389299209941</v>
       </c>
       <c r="N28" t="n">
-        <v>3.996223668876738</v>
+        <v>3.996298768645723</v>
       </c>
       <c r="O28" t="n">
-        <v>4.289454185584913</v>
+        <v>4.289580835732466</v>
       </c>
       <c r="P28" t="n">
-        <v>3.928566877938686</v>
+        <v>3.928624609741748</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.311218231623593</v>
+        <v>4.311483515788443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.362766856470175</v>
+        <v>4.362798408111175</v>
       </c>
       <c r="B29" t="n">
-        <v>4.34545344711216</v>
+        <v>4.345503383414604</v>
       </c>
       <c r="C29" t="n">
-        <v>4.377398810395196</v>
+        <v>4.377428428896225</v>
       </c>
       <c r="D29" t="n">
-        <v>4.250708932926123</v>
+        <v>4.250805542166775</v>
       </c>
       <c r="E29" t="n">
-        <v>4.311633301711129</v>
+        <v>4.311659153773256</v>
       </c>
       <c r="F29" t="n">
-        <v>4.000726372653188</v>
+        <v>4.000840422257183</v>
       </c>
       <c r="G29" t="n">
-        <v>4.331595899569539</v>
+        <v>4.331692517656843</v>
       </c>
       <c r="H29" t="n">
-        <v>3.805291061940502</v>
+        <v>3.805426480377955</v>
       </c>
       <c r="I29" t="n">
-        <v>4.470381843397026</v>
+        <v>4.470427091810815</v>
       </c>
       <c r="J29" t="n">
-        <v>3.866679634551321</v>
+        <v>3.866675002442981</v>
       </c>
       <c r="K29" t="n">
-        <v>4.65738998465579</v>
+        <v>4.65734147526007</v>
       </c>
       <c r="L29" t="n">
-        <v>3.987430563073557</v>
+        <v>3.987549503602687</v>
       </c>
       <c r="M29" t="n">
-        <v>4.214361700031011</v>
+        <v>4.214475246686116</v>
       </c>
       <c r="N29" t="n">
-        <v>3.980991110001732</v>
+        <v>3.981092699271652</v>
       </c>
       <c r="O29" t="n">
-        <v>4.2888931809613</v>
+        <v>4.289008453907221</v>
       </c>
       <c r="P29" t="n">
-        <v>3.919639204359776</v>
+        <v>3.919659738988754</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.313779052729026</v>
+        <v>4.313973615067906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.370503220230707</v>
+        <v>4.370508145624057</v>
       </c>
       <c r="B30" t="n">
-        <v>4.357316311548601</v>
+        <v>4.357291295597812</v>
       </c>
       <c r="C30" t="n">
-        <v>4.391430159370231</v>
+        <v>4.391453800334812</v>
       </c>
       <c r="D30" t="n">
-        <v>4.26342467105833</v>
+        <v>4.263363841419067</v>
       </c>
       <c r="E30" t="n">
-        <v>4.36417706809267</v>
+        <v>4.364276480588794</v>
       </c>
       <c r="F30" t="n">
-        <v>4.014315884653416</v>
+        <v>4.014376280731835</v>
       </c>
       <c r="G30" t="n">
-        <v>4.343883000835732</v>
+        <v>4.343950142279601</v>
       </c>
       <c r="H30" t="n">
-        <v>3.824745088940775</v>
+        <v>3.824810093720649</v>
       </c>
       <c r="I30" t="n">
-        <v>4.338601490640619</v>
+        <v>4.338634434835282</v>
       </c>
       <c r="J30" t="n">
-        <v>3.762416375248293</v>
+        <v>3.762445775438953</v>
       </c>
       <c r="K30" t="n">
-        <v>4.431940193240426</v>
+        <v>4.431809835763817</v>
       </c>
       <c r="L30" t="n">
-        <v>3.970963427356914</v>
+        <v>3.971047599910604</v>
       </c>
       <c r="M30" t="n">
-        <v>4.200597286589304</v>
+        <v>4.200667314339375</v>
       </c>
       <c r="N30" t="n">
-        <v>3.957234214205315</v>
+        <v>3.957298335784259</v>
       </c>
       <c r="O30" t="n">
-        <v>4.274931132557417</v>
+        <v>4.274959248504098</v>
       </c>
       <c r="P30" t="n">
-        <v>3.903679172822516</v>
+        <v>3.903721783565235</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.307103831047407</v>
+        <v>4.307127400423988</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.398311816086551</v>
+        <v>4.3983916840731</v>
       </c>
       <c r="B31" t="n">
-        <v>4.376740638304094</v>
+        <v>4.376842113368636</v>
       </c>
       <c r="C31" t="n">
-        <v>4.414392115281683</v>
+        <v>4.414477043400366</v>
       </c>
       <c r="D31" t="n">
-        <v>4.26966685583767</v>
+        <v>4.269818812368214</v>
       </c>
       <c r="E31" t="n">
-        <v>4.365245543565355</v>
+        <v>4.36534350884726</v>
       </c>
       <c r="F31" t="n">
-        <v>4.026855621335079</v>
+        <v>4.02706071665798</v>
       </c>
       <c r="G31" t="n">
-        <v>4.346859625368079</v>
+        <v>4.346965322131615</v>
       </c>
       <c r="H31" t="n">
-        <v>3.814308936262816</v>
+        <v>3.814503554102458</v>
       </c>
       <c r="I31" t="n">
-        <v>4.342507989503347</v>
+        <v>4.342570339071147</v>
       </c>
       <c r="J31" t="n">
-        <v>3.716771499058438</v>
+        <v>3.716812533585264</v>
       </c>
       <c r="K31" t="n">
-        <v>4.370963757359633</v>
+        <v>4.371018559141508</v>
       </c>
       <c r="L31" t="n">
-        <v>3.976465672704586</v>
+        <v>3.976596146854622</v>
       </c>
       <c r="M31" t="n">
-        <v>4.204346850825296</v>
+        <v>4.204420613739254</v>
       </c>
       <c r="N31" t="n">
-        <v>3.963539832840789</v>
+        <v>3.963660904286282</v>
       </c>
       <c r="O31" t="n">
-        <v>4.265926458343894</v>
+        <v>4.266008311453448</v>
       </c>
       <c r="P31" t="n">
-        <v>3.905791923568437</v>
+        <v>3.905927341975773</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.309057813818149</v>
+        <v>4.309124319975741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.343718366145534</v>
+        <v>4.343726836365716</v>
       </c>
       <c r="B32" t="n">
-        <v>4.317864486399809</v>
+        <v>4.317884218633724</v>
       </c>
       <c r="C32" t="n">
-        <v>4.351728265493788</v>
+        <v>4.351747515446701</v>
       </c>
       <c r="D32" t="n">
-        <v>4.20561186125109</v>
+        <v>4.205653379720339</v>
       </c>
       <c r="E32" t="n">
-        <v>4.280028574568836</v>
+        <v>4.280076950704577</v>
       </c>
       <c r="F32" t="n">
-        <v>3.960852877362464</v>
+        <v>3.960972433086603</v>
       </c>
       <c r="G32" t="n">
-        <v>4.297044614809367</v>
+        <v>4.297101001558191</v>
       </c>
       <c r="H32" t="n">
-        <v>3.73910204976606</v>
+        <v>3.739232960686242</v>
       </c>
       <c r="I32" t="n">
-        <v>4.453678205731213</v>
+        <v>4.453727549551271</v>
       </c>
       <c r="J32" t="n">
-        <v>3.59076839391618</v>
+        <v>3.590720960926782</v>
       </c>
       <c r="K32" t="n">
-        <v>4.738195917298018</v>
+        <v>4.738189583054124</v>
       </c>
       <c r="L32" t="n">
-        <v>3.907954174722323</v>
+        <v>3.90808229904622</v>
       </c>
       <c r="M32" t="n">
-        <v>4.133446499821569</v>
+        <v>4.133546103412638</v>
       </c>
       <c r="N32" t="n">
-        <v>3.93179430453806</v>
+        <v>3.931885462766672</v>
       </c>
       <c r="O32" t="n">
-        <v>4.240731117358959</v>
+        <v>4.240943780994467</v>
       </c>
       <c r="P32" t="n">
-        <v>3.922444960817219</v>
+        <v>3.922600483536139</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.28801940709328</v>
+        <v>4.288310668760878</v>
       </c>
     </row>
   </sheetData>
@@ -2206,1645 +2206,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.468474977681274</v>
+        <v>2.468573909399034</v>
       </c>
       <c r="B2" t="n">
-        <v>2.43788152554024</v>
+        <v>2.437979715829474</v>
       </c>
       <c r="C2" t="n">
-        <v>2.433923692921102</v>
+        <v>2.434025294436548</v>
       </c>
       <c r="D2" t="n">
-        <v>2.459130950670918</v>
+        <v>2.459237595475654</v>
       </c>
       <c r="E2" t="n">
-        <v>2.454098225859545</v>
+        <v>2.45420624556207</v>
       </c>
       <c r="F2" t="n">
-        <v>2.654040823719789</v>
+        <v>2.654138923779165</v>
       </c>
       <c r="G2" t="n">
-        <v>2.648168425321439</v>
+        <v>2.648246067716693</v>
       </c>
       <c r="H2" t="n">
-        <v>2.925483094189834</v>
+        <v>2.925541228083524</v>
       </c>
       <c r="I2" t="n">
-        <v>2.876855360082926</v>
+        <v>2.876902889978203</v>
       </c>
       <c r="J2" t="n">
-        <v>3.164686482291092</v>
+        <v>3.164757046649119</v>
       </c>
       <c r="K2" t="n">
-        <v>2.851096081116868</v>
+        <v>2.851259010842804</v>
       </c>
       <c r="L2" t="n">
-        <v>3.097593262664473</v>
+        <v>3.097612368434224</v>
       </c>
       <c r="M2" t="n">
-        <v>3.071970018152899</v>
+        <v>3.071990306543285</v>
       </c>
       <c r="N2" t="n">
-        <v>3.37520731733364</v>
+        <v>3.375265588283663</v>
       </c>
       <c r="O2" t="n">
-        <v>3.301108506635942</v>
+        <v>3.301169459304514</v>
       </c>
       <c r="P2" t="n">
-        <v>3.663698261646506</v>
+        <v>3.663797729576538</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.598124154539907</v>
+        <v>3.598272294244592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.450754381634029</v>
+        <v>2.450906158164755</v>
       </c>
       <c r="B3" t="n">
-        <v>2.417401006746631</v>
+        <v>2.417552724854663</v>
       </c>
       <c r="C3" t="n">
-        <v>2.424518982077277</v>
+        <v>2.424669363326972</v>
       </c>
       <c r="D3" t="n">
-        <v>2.44438019576678</v>
+        <v>2.444537539502504</v>
       </c>
       <c r="E3" t="n">
-        <v>2.463313001804657</v>
+        <v>2.46345969062414</v>
       </c>
       <c r="F3" t="n">
-        <v>2.657235800051719</v>
+        <v>2.657388409836387</v>
       </c>
       <c r="G3" t="n">
-        <v>2.663932838579811</v>
+        <v>2.664069803448628</v>
       </c>
       <c r="H3" t="n">
-        <v>2.917708780116529</v>
+        <v>2.917849824389516</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8800989201486</v>
+        <v>2.88024184507153</v>
       </c>
       <c r="J3" t="n">
-        <v>3.171635606230121</v>
+        <v>3.171801266536876</v>
       </c>
       <c r="K3" t="n">
-        <v>2.949365391019764</v>
+        <v>2.949533413476567</v>
       </c>
       <c r="L3" t="n">
-        <v>3.088678055854977</v>
+        <v>3.088758600623606</v>
       </c>
       <c r="M3" t="n">
-        <v>3.069098444486347</v>
+        <v>3.069180282124472</v>
       </c>
       <c r="N3" t="n">
-        <v>3.375193017215783</v>
+        <v>3.375142018344452</v>
       </c>
       <c r="O3" t="n">
-        <v>3.29849085172877</v>
+        <v>3.298436986939537</v>
       </c>
       <c r="P3" t="n">
-        <v>3.654988023192958</v>
+        <v>3.654780057425187</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.628007367494054</v>
+        <v>3.627825676916677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.448047075987985</v>
+        <v>2.448146735086034</v>
       </c>
       <c r="B4" t="n">
-        <v>2.415167988342837</v>
+        <v>2.41527511453595</v>
       </c>
       <c r="C4" t="n">
-        <v>2.414928003031625</v>
+        <v>2.4150365915524</v>
       </c>
       <c r="D4" t="n">
-        <v>2.434742466335827</v>
+        <v>2.434852333005952</v>
       </c>
       <c r="E4" t="n">
-        <v>2.438990701348364</v>
+        <v>2.439110545777621</v>
       </c>
       <c r="F4" t="n">
-        <v>2.651253400746778</v>
+        <v>2.651345949811904</v>
       </c>
       <c r="G4" t="n">
-        <v>2.637440220236482</v>
+        <v>2.637541500890749</v>
       </c>
       <c r="H4" t="n">
-        <v>2.916408019396093</v>
+        <v>2.916524839299494</v>
       </c>
       <c r="I4" t="n">
-        <v>2.862600525932668</v>
+        <v>2.862761282127955</v>
       </c>
       <c r="J4" t="n">
-        <v>3.160490681044029</v>
+        <v>3.160433932158637</v>
       </c>
       <c r="K4" t="n">
-        <v>2.938488501376066</v>
+        <v>2.9385963738273</v>
       </c>
       <c r="L4" t="n">
-        <v>3.097390860996346</v>
+        <v>3.097573867414589</v>
       </c>
       <c r="M4" t="n">
-        <v>3.070037852228632</v>
+        <v>3.070227509858553</v>
       </c>
       <c r="N4" t="n">
-        <v>3.397802603556458</v>
+        <v>3.397907121240261</v>
       </c>
       <c r="O4" t="n">
-        <v>3.304936538185302</v>
+        <v>3.305063195756968</v>
       </c>
       <c r="P4" t="n">
-        <v>3.654407585075847</v>
+        <v>3.654494049850753</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.63120472717896</v>
+        <v>3.631272434864983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.42389197690971</v>
+        <v>2.423914560003931</v>
       </c>
       <c r="B5" t="n">
-        <v>2.392180548888024</v>
+        <v>2.392209703686986</v>
       </c>
       <c r="C5" t="n">
-        <v>2.390358750540036</v>
+        <v>2.390386955414536</v>
       </c>
       <c r="D5" t="n">
-        <v>2.416419248655308</v>
+        <v>2.416460945940718</v>
       </c>
       <c r="E5" t="n">
-        <v>2.416335097961765</v>
+        <v>2.416371293566425</v>
       </c>
       <c r="F5" t="n">
-        <v>2.628913866631784</v>
+        <v>2.628944773220744</v>
       </c>
       <c r="G5" t="n">
-        <v>2.61134195514328</v>
+        <v>2.611369791109968</v>
       </c>
       <c r="H5" t="n">
-        <v>2.886882676058055</v>
+        <v>2.88688272094406</v>
       </c>
       <c r="I5" t="n">
-        <v>2.834777813293811</v>
+        <v>2.83478057443888</v>
       </c>
       <c r="J5" t="n">
-        <v>3.122473267717182</v>
+        <v>3.122410691843156</v>
       </c>
       <c r="K5" t="n">
-        <v>2.972355397162398</v>
+        <v>2.972298149695998</v>
       </c>
       <c r="L5" t="n">
-        <v>3.082732506853744</v>
+        <v>3.082804142929719</v>
       </c>
       <c r="M5" t="n">
-        <v>3.057275730380811</v>
+        <v>3.05735221887793</v>
       </c>
       <c r="N5" t="n">
-        <v>3.383197783188396</v>
+        <v>3.383254733196184</v>
       </c>
       <c r="O5" t="n">
-        <v>3.308337032877712</v>
+        <v>3.308418651287282</v>
       </c>
       <c r="P5" t="n">
-        <v>3.647964831976823</v>
+        <v>3.647992877678044</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.64771842994606</v>
+        <v>3.647787905583033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.413431624032301</v>
+        <v>2.413570986071615</v>
       </c>
       <c r="B6" t="n">
-        <v>2.380030398750536</v>
+        <v>2.380178501727321</v>
       </c>
       <c r="C6" t="n">
-        <v>2.37834793488423</v>
+        <v>2.378496740522011</v>
       </c>
       <c r="D6" t="n">
-        <v>2.399964213038389</v>
+        <v>2.400117263105518</v>
       </c>
       <c r="E6" t="n">
-        <v>2.401708277412386</v>
+        <v>2.401861359294998</v>
       </c>
       <c r="F6" t="n">
-        <v>2.615674890853892</v>
+        <v>2.615809142012111</v>
       </c>
       <c r="G6" t="n">
-        <v>2.601593491466359</v>
+        <v>2.601700535035836</v>
       </c>
       <c r="H6" t="n">
-        <v>2.870612808633898</v>
+        <v>2.870711926020841</v>
       </c>
       <c r="I6" t="n">
-        <v>2.836910730872607</v>
+        <v>2.837001533257272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.115058106603895</v>
+        <v>3.115010429192866</v>
       </c>
       <c r="K6" t="n">
-        <v>2.985314787302705</v>
+        <v>2.985374562669668</v>
       </c>
       <c r="L6" t="n">
-        <v>3.071413046895862</v>
+        <v>3.07152554423483</v>
       </c>
       <c r="M6" t="n">
-        <v>3.046488858145672</v>
+        <v>3.046585683744191</v>
       </c>
       <c r="N6" t="n">
-        <v>3.369225834702921</v>
+        <v>3.369249895634736</v>
       </c>
       <c r="O6" t="n">
-        <v>3.282520553440228</v>
+        <v>3.28251186518923</v>
       </c>
       <c r="P6" t="n">
-        <v>3.633628780490533</v>
+        <v>3.633579562632084</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.637981149694642</v>
+        <v>3.637928344468989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.399987313228773</v>
+        <v>2.400112862988988</v>
       </c>
       <c r="B7" t="n">
-        <v>2.367892348712774</v>
+        <v>2.368020979755614</v>
       </c>
       <c r="C7" t="n">
-        <v>2.367843214974497</v>
+        <v>2.367967261666313</v>
       </c>
       <c r="D7" t="n">
-        <v>2.394885287846247</v>
+        <v>2.395018078062101</v>
       </c>
       <c r="E7" t="n">
-        <v>2.398452617246987</v>
+        <v>2.398573372218141</v>
       </c>
       <c r="F7" t="n">
-        <v>2.612388980439181</v>
+        <v>2.6125317885502</v>
       </c>
       <c r="G7" t="n">
-        <v>2.596942836470544</v>
+        <v>2.597056945391437</v>
       </c>
       <c r="H7" t="n">
-        <v>2.853216348591406</v>
+        <v>2.853356399721986</v>
       </c>
       <c r="I7" t="n">
-        <v>2.821885707041369</v>
+        <v>2.821995485847117</v>
       </c>
       <c r="J7" t="n">
-        <v>3.101228059287922</v>
+        <v>3.101299666086157</v>
       </c>
       <c r="K7" t="n">
-        <v>2.985931159049303</v>
+        <v>2.986057680760912</v>
       </c>
       <c r="L7" t="n">
-        <v>3.056855893587323</v>
+        <v>3.056968858725275</v>
       </c>
       <c r="M7" t="n">
-        <v>3.035185348319246</v>
+        <v>3.035282334393822</v>
       </c>
       <c r="N7" t="n">
-        <v>3.348081827107725</v>
+        <v>3.348127136233658</v>
       </c>
       <c r="O7" t="n">
-        <v>3.279631562963465</v>
+        <v>3.279648122681116</v>
       </c>
       <c r="P7" t="n">
-        <v>3.601574149640283</v>
+        <v>3.601543047531709</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.611139461807731</v>
+        <v>3.611079200080816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.425305121889713</v>
+        <v>2.425418666504351</v>
       </c>
       <c r="B8" t="n">
-        <v>2.392463801222495</v>
+        <v>2.392580230166429</v>
       </c>
       <c r="C8" t="n">
-        <v>2.390787387406051</v>
+        <v>2.390904519121348</v>
       </c>
       <c r="D8" t="n">
-        <v>2.414431348938368</v>
+        <v>2.414563945701829</v>
       </c>
       <c r="E8" t="n">
-        <v>2.414660334158921</v>
+        <v>2.414787251615714</v>
       </c>
       <c r="F8" t="n">
-        <v>2.626524830275476</v>
+        <v>2.626691363542944</v>
       </c>
       <c r="G8" t="n">
-        <v>2.602293097232276</v>
+        <v>2.602447454816762</v>
       </c>
       <c r="H8" t="n">
-        <v>2.874067020435693</v>
+        <v>2.874236969375739</v>
       </c>
       <c r="I8" t="n">
-        <v>2.829551120217149</v>
+        <v>2.829761874860319</v>
       </c>
       <c r="J8" t="n">
-        <v>3.137818394186599</v>
+        <v>3.138036238993063</v>
       </c>
       <c r="K8" t="n">
-        <v>2.926426901968384</v>
+        <v>2.926630073586449</v>
       </c>
       <c r="L8" t="n">
-        <v>3.07356008125767</v>
+        <v>3.073747053067789</v>
       </c>
       <c r="M8" t="n">
-        <v>3.042414424565549</v>
+        <v>3.042607611724917</v>
       </c>
       <c r="N8" t="n">
-        <v>3.378479844304717</v>
+        <v>3.378555408742408</v>
       </c>
       <c r="O8" t="n">
-        <v>3.265434112619478</v>
+        <v>3.265523015267854</v>
       </c>
       <c r="P8" t="n">
-        <v>3.604876010186451</v>
+        <v>3.604946537667473</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.600704775808527</v>
+        <v>3.600780727342929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.424327213830121</v>
+        <v>2.424505458986239</v>
       </c>
       <c r="B9" t="n">
-        <v>2.392656669478717</v>
+        <v>2.392843320467271</v>
       </c>
       <c r="C9" t="n">
-        <v>2.390206032614719</v>
+        <v>2.390392272222009</v>
       </c>
       <c r="D9" t="n">
-        <v>2.41832318101355</v>
+        <v>2.418506450112487</v>
       </c>
       <c r="E9" t="n">
-        <v>2.415494141030879</v>
+        <v>2.415670575009062</v>
       </c>
       <c r="F9" t="n">
-        <v>2.631730989849575</v>
+        <v>2.63185050017408</v>
       </c>
       <c r="G9" t="n">
-        <v>2.60453546571313</v>
+        <v>2.604638712848578</v>
       </c>
       <c r="H9" t="n">
-        <v>2.883274646321877</v>
+        <v>2.883376928098979</v>
       </c>
       <c r="I9" t="n">
-        <v>2.833770754993973</v>
+        <v>2.833860400069595</v>
       </c>
       <c r="J9" t="n">
-        <v>3.146110629195102</v>
+        <v>3.146134653466073</v>
       </c>
       <c r="K9" t="n">
-        <v>2.947556242776034</v>
+        <v>2.94760542908378</v>
       </c>
       <c r="L9" t="n">
-        <v>3.080340720474771</v>
+        <v>3.080372345194275</v>
       </c>
       <c r="M9" t="n">
-        <v>3.049183513687459</v>
+        <v>3.049208519872301</v>
       </c>
       <c r="N9" t="n">
-        <v>3.384241691791943</v>
+        <v>3.38421395859967</v>
       </c>
       <c r="O9" t="n">
-        <v>3.287416327122896</v>
+        <v>3.287362993663282</v>
       </c>
       <c r="P9" t="n">
-        <v>3.620352037734711</v>
+        <v>3.620328245026356</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.627741531969793</v>
+        <v>3.627713107268791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.416443998859291</v>
+        <v>2.416614766681071</v>
       </c>
       <c r="B10" t="n">
-        <v>2.38439780141188</v>
+        <v>2.384574218140544</v>
       </c>
       <c r="C10" t="n">
-        <v>2.382712770857753</v>
+        <v>2.382892273597046</v>
       </c>
       <c r="D10" t="n">
-        <v>2.410690401440059</v>
+        <v>2.410850247350717</v>
       </c>
       <c r="E10" t="n">
-        <v>2.408675734835848</v>
+        <v>2.408850027711567</v>
       </c>
       <c r="F10" t="n">
-        <v>2.624921383727071</v>
+        <v>2.625045169946251</v>
       </c>
       <c r="G10" t="n">
-        <v>2.606254963217988</v>
+        <v>2.606398576122291</v>
       </c>
       <c r="H10" t="n">
-        <v>2.876049786776993</v>
+        <v>2.876139836436668</v>
       </c>
       <c r="I10" t="n">
-        <v>2.822856648376877</v>
+        <v>2.822957827999812</v>
       </c>
       <c r="J10" t="n">
-        <v>3.125533859608226</v>
+        <v>3.125505440469082</v>
       </c>
       <c r="K10" t="n">
-        <v>2.978081494354983</v>
+        <v>2.978183672230919</v>
       </c>
       <c r="L10" t="n">
-        <v>3.057208079823258</v>
+        <v>3.057203714945051</v>
       </c>
       <c r="M10" t="n">
-        <v>3.038040238514966</v>
+        <v>3.038036624003259</v>
       </c>
       <c r="N10" t="n">
-        <v>3.329149204404693</v>
+        <v>3.329084898598398</v>
       </c>
       <c r="O10" t="n">
-        <v>3.293435943401234</v>
+        <v>3.29335961914058</v>
       </c>
       <c r="P10" t="n">
-        <v>3.616900942625269</v>
+        <v>3.61677955104511</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.637761514551149</v>
+        <v>3.637603469198543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.411531358370945</v>
+        <v>2.411572966490729</v>
       </c>
       <c r="B11" t="n">
-        <v>2.38061267021609</v>
+        <v>2.380654447665289</v>
       </c>
       <c r="C11" t="n">
-        <v>2.379398810211861</v>
+        <v>2.379446065663306</v>
       </c>
       <c r="D11" t="n">
-        <v>2.407553542253777</v>
+        <v>2.407611028232064</v>
       </c>
       <c r="E11" t="n">
-        <v>2.407106021898797</v>
+        <v>2.40717670006294</v>
       </c>
       <c r="F11" t="n">
-        <v>2.622220311465734</v>
+        <v>2.622315447654105</v>
       </c>
       <c r="G11" t="n">
-        <v>2.611286404685452</v>
+        <v>2.611386108208766</v>
       </c>
       <c r="H11" t="n">
-        <v>2.854327357747974</v>
+        <v>2.854516747118519</v>
       </c>
       <c r="I11" t="n">
-        <v>2.864847111114941</v>
+        <v>2.865043475901387</v>
       </c>
       <c r="J11" t="n">
-        <v>3.099330910318919</v>
+        <v>3.099381215279185</v>
       </c>
       <c r="K11" t="n">
-        <v>3.050746626570114</v>
+        <v>3.050829046122571</v>
       </c>
       <c r="L11" t="n">
-        <v>3.070962409848528</v>
+        <v>3.071131367129039</v>
       </c>
       <c r="M11" t="n">
-        <v>3.05328416415032</v>
+        <v>3.053468199349479</v>
       </c>
       <c r="N11" t="n">
-        <v>3.340840100757164</v>
+        <v>3.340794342036825</v>
       </c>
       <c r="O11" t="n">
-        <v>3.28212748353401</v>
+        <v>3.282172322863684</v>
       </c>
       <c r="P11" t="n">
-        <v>3.608801942542676</v>
+        <v>3.608797372983761</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.631855932545978</v>
+        <v>3.631811449139878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.376559320143063</v>
+        <v>2.376651074975969</v>
       </c>
       <c r="B12" t="n">
-        <v>2.345329329422557</v>
+        <v>2.345419414524161</v>
       </c>
       <c r="C12" t="n">
-        <v>2.341842850688161</v>
+        <v>2.341930855468823</v>
       </c>
       <c r="D12" t="n">
-        <v>2.378011148775218</v>
+        <v>2.378089729743009</v>
       </c>
       <c r="E12" t="n">
-        <v>2.374156167003743</v>
+        <v>2.374238527750343</v>
       </c>
       <c r="F12" t="n">
-        <v>2.600184563187775</v>
+        <v>2.600244463140866</v>
       </c>
       <c r="G12" t="n">
-        <v>2.589682593300707</v>
+        <v>2.589744685071743</v>
       </c>
       <c r="H12" t="n">
-        <v>2.837708787449923</v>
+        <v>2.837771920326357</v>
       </c>
       <c r="I12" t="n">
-        <v>2.855026963513891</v>
+        <v>2.855108562791771</v>
       </c>
       <c r="J12" t="n">
-        <v>3.072847275382961</v>
+        <v>3.072969882485721</v>
       </c>
       <c r="K12" t="n">
-        <v>3.04801640406853</v>
+        <v>3.048217026947597</v>
       </c>
       <c r="L12" t="n">
-        <v>3.063661099673563</v>
+        <v>3.063716437423651</v>
       </c>
       <c r="M12" t="n">
-        <v>3.044195522578099</v>
+        <v>3.044244455073985</v>
       </c>
       <c r="N12" t="n">
-        <v>3.356408895736649</v>
+        <v>3.356451423355195</v>
       </c>
       <c r="O12" t="n">
-        <v>3.276230701601366</v>
+        <v>3.27622739875561</v>
       </c>
       <c r="P12" t="n">
-        <v>3.610038719402446</v>
+        <v>3.610054339605761</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.646337185228968</v>
+        <v>3.64628709917001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.358978241912344</v>
+        <v>2.358930522343333</v>
       </c>
       <c r="B13" t="n">
-        <v>2.329392948080214</v>
+        <v>2.329346522193729</v>
       </c>
       <c r="C13" t="n">
-        <v>2.324194488569577</v>
+        <v>2.324136417546125</v>
       </c>
       <c r="D13" t="n">
-        <v>2.361602313539068</v>
+        <v>2.361584892639907</v>
       </c>
       <c r="E13" t="n">
-        <v>2.350508172104852</v>
+        <v>2.350463414772768</v>
       </c>
       <c r="F13" t="n">
-        <v>2.569016906314336</v>
+        <v>2.569038286697293</v>
       </c>
       <c r="G13" t="n">
-        <v>2.544399620093535</v>
+        <v>2.544407534392869</v>
       </c>
       <c r="H13" t="n">
-        <v>2.798879750767279</v>
+        <v>2.798941991980421</v>
       </c>
       <c r="I13" t="n">
-        <v>2.773151638724756</v>
+        <v>2.773207543779785</v>
       </c>
       <c r="J13" t="n">
-        <v>3.033915387852655</v>
+        <v>3.033891347555854</v>
       </c>
       <c r="K13" t="n">
-        <v>2.851832903856183</v>
+        <v>2.851804258616116</v>
       </c>
       <c r="L13" t="n">
-        <v>3.039813636464054</v>
+        <v>3.039904656808328</v>
       </c>
       <c r="M13" t="n">
-        <v>3.019115682545084</v>
+        <v>3.019210908768901</v>
       </c>
       <c r="N13" t="n">
-        <v>3.359069817667081</v>
+        <v>3.359122294088755</v>
       </c>
       <c r="O13" t="n">
-        <v>3.283348493597168</v>
+        <v>3.283423422663644</v>
       </c>
       <c r="P13" t="n">
-        <v>3.618300887496481</v>
+        <v>3.618414194335913</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.650926056382248</v>
+        <v>3.650987890329295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.323403032046656</v>
+        <v>2.323592636478323</v>
       </c>
       <c r="B14" t="n">
-        <v>2.292465277067992</v>
+        <v>2.292666967463522</v>
       </c>
       <c r="C14" t="n">
-        <v>2.289372418244347</v>
+        <v>2.2895672687065</v>
       </c>
       <c r="D14" t="n">
-        <v>2.319894369796098</v>
+        <v>2.320104994113927</v>
       </c>
       <c r="E14" t="n">
-        <v>2.316572342417055</v>
+        <v>2.316773005871772</v>
       </c>
       <c r="F14" t="n">
-        <v>2.535977400680411</v>
+        <v>2.536184266613327</v>
       </c>
       <c r="G14" t="n">
-        <v>2.526523372763464</v>
+        <v>2.526700915462578</v>
       </c>
       <c r="H14" t="n">
-        <v>2.767639493295491</v>
+        <v>2.767772849850973</v>
       </c>
       <c r="I14" t="n">
-        <v>2.780190046732968</v>
+        <v>2.780317032062733</v>
       </c>
       <c r="J14" t="n">
-        <v>3.004939499043038</v>
+        <v>3.005024749738789</v>
       </c>
       <c r="K14" t="n">
-        <v>2.986435146536333</v>
+        <v>2.986519326320159</v>
       </c>
       <c r="L14" t="n">
-        <v>3.010545145242905</v>
+        <v>3.010682566243296</v>
       </c>
       <c r="M14" t="n">
-        <v>2.998966449815157</v>
+        <v>2.999090275907474</v>
       </c>
       <c r="N14" t="n">
-        <v>3.313455008391694</v>
+        <v>3.313546620426331</v>
       </c>
       <c r="O14" t="n">
-        <v>3.286352618356163</v>
+        <v>3.286390567910207</v>
       </c>
       <c r="P14" t="n">
-        <v>3.590452691314264</v>
+        <v>3.590427253148421</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.637305744128175</v>
+        <v>3.637255126639937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.307328416231697</v>
+        <v>2.307378573742561</v>
       </c>
       <c r="B15" t="n">
-        <v>2.277993557796905</v>
+        <v>2.278032179885564</v>
       </c>
       <c r="C15" t="n">
-        <v>2.27308348399638</v>
+        <v>2.273131733438741</v>
       </c>
       <c r="D15" t="n">
-        <v>2.303240415873094</v>
+        <v>2.30326336475811</v>
       </c>
       <c r="E15" t="n">
-        <v>2.295999972866443</v>
+        <v>2.296046256958372</v>
       </c>
       <c r="F15" t="n">
-        <v>2.49974695208113</v>
+        <v>2.499788702737478</v>
       </c>
       <c r="G15" t="n">
-        <v>2.488426208779337</v>
+        <v>2.488445202323775</v>
       </c>
       <c r="H15" t="n">
-        <v>2.736900106618379</v>
+        <v>2.736958650454926</v>
       </c>
       <c r="I15" t="n">
-        <v>2.755105439994001</v>
+        <v>2.755055413050856</v>
       </c>
       <c r="J15" t="n">
-        <v>2.989607572682412</v>
+        <v>2.989603808007515</v>
       </c>
       <c r="K15" t="n">
-        <v>2.946059863776711</v>
+        <v>2.946007086754348</v>
       </c>
       <c r="L15" t="n">
-        <v>2.986324045620676</v>
+        <v>2.986306837359409</v>
       </c>
       <c r="M15" t="n">
-        <v>2.974305896571098</v>
+        <v>2.974274168694234</v>
       </c>
       <c r="N15" t="n">
-        <v>3.28638561862814</v>
+        <v>3.286375167502352</v>
       </c>
       <c r="O15" t="n">
-        <v>3.256168736257335</v>
+        <v>3.256099065690256</v>
       </c>
       <c r="P15" t="n">
-        <v>3.550370560970707</v>
+        <v>3.550320557656102</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.616653807255128</v>
+        <v>3.616538644665106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.275208334842026</v>
+        <v>2.275230589023433</v>
       </c>
       <c r="B16" t="n">
-        <v>2.247438422638333</v>
+        <v>2.247453570062047</v>
       </c>
       <c r="C16" t="n">
-        <v>2.243645041374549</v>
+        <v>2.243659019569701</v>
       </c>
       <c r="D16" t="n">
-        <v>2.277570604311064</v>
+        <v>2.277604818567612</v>
       </c>
       <c r="E16" t="n">
-        <v>2.271871824010283</v>
+        <v>2.271903917588751</v>
       </c>
       <c r="F16" t="n">
-        <v>2.482455909574121</v>
+        <v>2.482529245649522</v>
       </c>
       <c r="G16" t="n">
-        <v>2.461423736233959</v>
+        <v>2.461459287646801</v>
       </c>
       <c r="H16" t="n">
-        <v>2.714208569602294</v>
+        <v>2.714252215779514</v>
       </c>
       <c r="I16" t="n">
-        <v>2.727762514642725</v>
+        <v>2.727749939910909</v>
       </c>
       <c r="J16" t="n">
-        <v>2.970585115905664</v>
+        <v>2.970548370022666</v>
       </c>
       <c r="K16" t="n">
-        <v>2.879564682412258</v>
+        <v>2.879602361469206</v>
       </c>
       <c r="L16" t="n">
-        <v>2.978846550660322</v>
+        <v>2.978908224752819</v>
       </c>
       <c r="M16" t="n">
-        <v>2.954342748708154</v>
+        <v>2.954385091965186</v>
       </c>
       <c r="N16" t="n">
-        <v>3.329989978000735</v>
+        <v>3.329983989075977</v>
       </c>
       <c r="O16" t="n">
-        <v>3.251473897564039</v>
+        <v>3.251400474589235</v>
       </c>
       <c r="P16" t="n">
-        <v>3.576756111764955</v>
+        <v>3.576626654329229</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.580772611534274</v>
+        <v>3.58065019421931</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.275566204458135</v>
+        <v>2.275443994675125</v>
       </c>
       <c r="B17" t="n">
-        <v>2.242294230241614</v>
+        <v>2.242156013098414</v>
       </c>
       <c r="C17" t="n">
-        <v>2.240914452203277</v>
+        <v>2.240782993402942</v>
       </c>
       <c r="D17" t="n">
-        <v>2.261505338573166</v>
+        <v>2.261387639082642</v>
       </c>
       <c r="E17" t="n">
-        <v>2.263488838253842</v>
+        <v>2.263386942030848</v>
       </c>
       <c r="F17" t="n">
-        <v>2.473204833329835</v>
+        <v>2.473189631638745</v>
       </c>
       <c r="G17" t="n">
-        <v>2.467391835421044</v>
+        <v>2.46738019445215</v>
       </c>
       <c r="H17" t="n">
-        <v>2.709154027944447</v>
+        <v>2.709252950048961</v>
       </c>
       <c r="I17" t="n">
-        <v>2.750435718174377</v>
+        <v>2.75051889290868</v>
       </c>
       <c r="J17" t="n">
-        <v>2.944492350857792</v>
+        <v>2.944618849989211</v>
       </c>
       <c r="K17" t="n">
-        <v>2.921013207350517</v>
+        <v>2.9212692649477</v>
       </c>
       <c r="L17" t="n">
-        <v>2.962604550132501</v>
+        <v>2.962661161143084</v>
       </c>
       <c r="M17" t="n">
-        <v>2.938651852722353</v>
+        <v>2.938709676827941</v>
       </c>
       <c r="N17" t="n">
-        <v>3.320843035948021</v>
+        <v>3.320867680979084</v>
       </c>
       <c r="O17" t="n">
-        <v>3.22890061152254</v>
+        <v>3.228923579326126</v>
       </c>
       <c r="P17" t="n">
-        <v>3.580435275420728</v>
+        <v>3.58046392261955</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.593915886523432</v>
+        <v>3.593920945673045</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.259002267943692</v>
+        <v>2.259197297741768</v>
       </c>
       <c r="B18" t="n">
-        <v>2.226884203237308</v>
+        <v>2.227082680572991</v>
       </c>
       <c r="C18" t="n">
-        <v>2.226248031327525</v>
+        <v>2.226440263559647</v>
       </c>
       <c r="D18" t="n">
-        <v>2.251606540323903</v>
+        <v>2.251805285309973</v>
       </c>
       <c r="E18" t="n">
-        <v>2.254559331326489</v>
+        <v>2.254731179464069</v>
       </c>
       <c r="F18" t="n">
-        <v>2.454378361501663</v>
+        <v>2.454515903762851</v>
       </c>
       <c r="G18" t="n">
-        <v>2.463014532678107</v>
+        <v>2.463107497963571</v>
       </c>
       <c r="H18" t="n">
-        <v>2.67871586041655</v>
+        <v>2.678831644391382</v>
       </c>
       <c r="I18" t="n">
-        <v>2.726191518361764</v>
+        <v>2.726243266675846</v>
       </c>
       <c r="J18" t="n">
-        <v>2.932556519153312</v>
+        <v>2.932552263759118</v>
       </c>
       <c r="K18" t="n">
-        <v>2.871104512686359</v>
+        <v>2.871100969657347</v>
       </c>
       <c r="L18" t="n">
-        <v>2.932046298281575</v>
+        <v>2.932100701800253</v>
       </c>
       <c r="M18" t="n">
-        <v>2.91520717616581</v>
+        <v>2.915246055433035</v>
       </c>
       <c r="N18" t="n">
-        <v>3.280764205631661</v>
+        <v>3.280823687147314</v>
       </c>
       <c r="O18" t="n">
-        <v>3.213922521411448</v>
+        <v>3.213966849888741</v>
       </c>
       <c r="P18" t="n">
-        <v>3.589160180661822</v>
+        <v>3.589269289148341</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.577025980655791</v>
+        <v>3.577123500820714</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.278644029824546</v>
+        <v>2.278803300307403</v>
       </c>
       <c r="B19" t="n">
-        <v>2.249338321630001</v>
+        <v>2.249493024073588</v>
       </c>
       <c r="C19" t="n">
-        <v>2.244910051800344</v>
+        <v>2.24506009000805</v>
       </c>
       <c r="D19" t="n">
-        <v>2.276143709217737</v>
+        <v>2.276302934089371</v>
       </c>
       <c r="E19" t="n">
-        <v>2.270458862365124</v>
+        <v>2.270605333197908</v>
       </c>
       <c r="F19" t="n">
-        <v>2.472232425315572</v>
+        <v>2.472416677835018</v>
       </c>
       <c r="G19" t="n">
-        <v>2.465066049586025</v>
+        <v>2.465233854276574</v>
       </c>
       <c r="H19" t="n">
-        <v>2.698375589112147</v>
+        <v>2.698548566561204</v>
       </c>
       <c r="I19" t="n">
-        <v>2.724398503584334</v>
+        <v>2.724548305120947</v>
       </c>
       <c r="J19" t="n">
-        <v>2.945222206873022</v>
+        <v>2.945274834028521</v>
       </c>
       <c r="K19" t="n">
-        <v>2.88450647314085</v>
+        <v>2.884573759795072</v>
       </c>
       <c r="L19" t="n">
-        <v>2.947582642993616</v>
+        <v>2.947766033337116</v>
       </c>
       <c r="M19" t="n">
-        <v>2.925005140250697</v>
+        <v>2.925181335219028</v>
       </c>
       <c r="N19" t="n">
-        <v>3.315770527475431</v>
+        <v>3.315905816239034</v>
       </c>
       <c r="O19" t="n">
-        <v>3.257462346918842</v>
+        <v>3.257600972132412</v>
       </c>
       <c r="P19" t="n">
-        <v>3.593536750065382</v>
+        <v>3.593656205328505</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.616342871359165</v>
+        <v>3.616448808952624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.286182941957747</v>
+        <v>2.286297615448516</v>
       </c>
       <c r="B20" t="n">
-        <v>2.253228870361273</v>
+        <v>2.253336709200515</v>
       </c>
       <c r="C20" t="n">
-        <v>2.25546628880133</v>
+        <v>2.255575268485027</v>
       </c>
       <c r="D20" t="n">
-        <v>2.273055983769733</v>
+        <v>2.273151900639502</v>
       </c>
       <c r="E20" t="n">
-        <v>2.283780522157803</v>
+        <v>2.283870217829602</v>
       </c>
       <c r="F20" t="n">
-        <v>2.468928548086117</v>
+        <v>2.469019421197671</v>
       </c>
       <c r="G20" t="n">
-        <v>2.491617518414381</v>
+        <v>2.491695055057375</v>
       </c>
       <c r="H20" t="n">
-        <v>2.709155311288357</v>
+        <v>2.709283017511914</v>
       </c>
       <c r="I20" t="n">
-        <v>2.774219747527753</v>
+        <v>2.774325173378342</v>
       </c>
       <c r="J20" t="n">
-        <v>2.971688975003302</v>
+        <v>2.971730901340037</v>
       </c>
       <c r="K20" t="n">
-        <v>2.825650121399751</v>
+        <v>2.825714684343891</v>
       </c>
       <c r="L20" t="n">
-        <v>2.952577967496749</v>
+        <v>2.952664463063864</v>
       </c>
       <c r="M20" t="n">
-        <v>2.942670735844648</v>
+        <v>2.942756500667993</v>
       </c>
       <c r="N20" t="n">
-        <v>3.29373257917934</v>
+        <v>3.293829331580131</v>
       </c>
       <c r="O20" t="n">
-        <v>3.25242797209387</v>
+        <v>3.252542671505084</v>
       </c>
       <c r="P20" t="n">
-        <v>3.590837694487332</v>
+        <v>3.590999268297289</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.623918633796074</v>
+        <v>3.624033509820785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.290265075601332</v>
+        <v>2.290234619713512</v>
       </c>
       <c r="B21" t="n">
-        <v>2.258780249447223</v>
+        <v>2.258741885680939</v>
       </c>
       <c r="C21" t="n">
-        <v>2.256784833001665</v>
+        <v>2.256750466274848</v>
       </c>
       <c r="D21" t="n">
-        <v>2.289119416159188</v>
+        <v>2.289077755742565</v>
       </c>
       <c r="E21" t="n">
-        <v>2.28870086270961</v>
+        <v>2.288667444876165</v>
       </c>
       <c r="F21" t="n">
-        <v>2.506605508607067</v>
+        <v>2.50659934977278</v>
       </c>
       <c r="G21" t="n">
-        <v>2.498767394007939</v>
+        <v>2.498738908268754</v>
       </c>
       <c r="H21" t="n">
-        <v>2.75414879877635</v>
+        <v>2.754130838565041</v>
       </c>
       <c r="I21" t="n">
-        <v>2.776511616416572</v>
+        <v>2.776447679589381</v>
       </c>
       <c r="J21" t="n">
-        <v>2.995542488262674</v>
+        <v>2.995489330542437</v>
       </c>
       <c r="K21" t="n">
-        <v>2.930039698410515</v>
+        <v>2.930071148050904</v>
       </c>
       <c r="L21" t="n">
-        <v>2.993753323516975</v>
+        <v>2.993818386290263</v>
       </c>
       <c r="M21" t="n">
-        <v>2.971002386011331</v>
+        <v>2.971051450012568</v>
       </c>
       <c r="N21" t="n">
-        <v>3.336691966569624</v>
+        <v>3.336822503515968</v>
       </c>
       <c r="O21" t="n">
-        <v>3.265101543211885</v>
+        <v>3.26520510684858</v>
       </c>
       <c r="P21" t="n">
-        <v>3.598014153633316</v>
+        <v>3.598150557687269</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.631773065196346</v>
+        <v>3.631900918175983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.275156451081084</v>
+        <v>2.275427127561762</v>
       </c>
       <c r="B22" t="n">
-        <v>2.241871460090617</v>
+        <v>2.24214922958543</v>
       </c>
       <c r="C22" t="n">
-        <v>2.239526057427256</v>
+        <v>2.239806167533337</v>
       </c>
       <c r="D22" t="n">
-        <v>2.27145602058337</v>
+        <v>2.271705362330346</v>
       </c>
       <c r="E22" t="n">
-        <v>2.27182965699609</v>
+        <v>2.272085605733792</v>
       </c>
       <c r="F22" t="n">
-        <v>2.496467275051125</v>
+        <v>2.496595318166009</v>
       </c>
       <c r="G22" t="n">
-        <v>2.493695985544414</v>
+        <v>2.493830211603437</v>
       </c>
       <c r="H22" t="n">
-        <v>2.738210400750719</v>
+        <v>2.738217083782435</v>
       </c>
       <c r="I22" t="n">
-        <v>2.767404641359919</v>
+        <v>2.767418090455762</v>
       </c>
       <c r="J22" t="n">
-        <v>2.997094051050138</v>
+        <v>2.997108573425386</v>
       </c>
       <c r="K22" t="n">
-        <v>2.918598137446316</v>
+        <v>2.918781549064691</v>
       </c>
       <c r="L22" t="n">
-        <v>2.973033736086375</v>
+        <v>2.973031685789145</v>
       </c>
       <c r="M22" t="n">
-        <v>2.954569350575731</v>
+        <v>2.954566780110226</v>
       </c>
       <c r="N22" t="n">
-        <v>3.322416415581958</v>
+        <v>3.32245685639908</v>
       </c>
       <c r="O22" t="n">
-        <v>3.263440529522364</v>
+        <v>3.263432226563467</v>
       </c>
       <c r="P22" t="n">
-        <v>3.590737226992646</v>
+        <v>3.590727561101577</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.636513737600721</v>
+        <v>3.636506373477124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.278829564686996</v>
+        <v>2.279019822708305</v>
       </c>
       <c r="B23" t="n">
-        <v>2.243311371957891</v>
+        <v>2.243508682254935</v>
       </c>
       <c r="C23" t="n">
-        <v>2.246491864837119</v>
+        <v>2.246683733007529</v>
       </c>
       <c r="D23" t="n">
-        <v>2.260395612760508</v>
+        <v>2.260586817874227</v>
       </c>
       <c r="E23" t="n">
-        <v>2.27411602583958</v>
+        <v>2.274290064115198</v>
       </c>
       <c r="F23" t="n">
-        <v>2.484257724424079</v>
+        <v>2.484369594388091</v>
       </c>
       <c r="G23" t="n">
-        <v>2.485429967418648</v>
+        <v>2.485518024802357</v>
       </c>
       <c r="H23" t="n">
-        <v>2.744769571475885</v>
+        <v>2.744804058227476</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75476700387139</v>
+        <v>2.754849157588524</v>
       </c>
       <c r="J23" t="n">
-        <v>3.000807314986954</v>
+        <v>3.000852705915829</v>
       </c>
       <c r="K23" t="n">
-        <v>2.906914941157307</v>
+        <v>2.907160841309614</v>
       </c>
       <c r="L23" t="n">
-        <v>2.966952152630658</v>
+        <v>2.966975108724129</v>
       </c>
       <c r="M23" t="n">
-        <v>2.947647726863349</v>
+        <v>2.947661163893157</v>
       </c>
       <c r="N23" t="n">
-        <v>3.337073303045806</v>
+        <v>3.337131978378561</v>
       </c>
       <c r="O23" t="n">
-        <v>3.266020417451607</v>
+        <v>3.266060562837239</v>
       </c>
       <c r="P23" t="n">
-        <v>3.603649866747652</v>
+        <v>3.603733938887148</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.644738138716827</v>
+        <v>3.644767592261735</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.249849642510804</v>
+        <v>2.249867033978616</v>
       </c>
       <c r="B24" t="n">
-        <v>2.212780987003301</v>
+        <v>2.212805769139453</v>
       </c>
       <c r="C24" t="n">
-        <v>2.223170572630803</v>
+        <v>2.22320012775005</v>
       </c>
       <c r="D24" t="n">
-        <v>2.232064879268047</v>
+        <v>2.23211751391216</v>
       </c>
       <c r="E24" t="n">
-        <v>2.260682531791866</v>
+        <v>2.260744672054732</v>
       </c>
       <c r="F24" t="n">
-        <v>2.452050008978824</v>
+        <v>2.452107573315567</v>
       </c>
       <c r="G24" t="n">
-        <v>2.469790955193789</v>
+        <v>2.46985470998557</v>
       </c>
       <c r="H24" t="n">
-        <v>2.704368621838058</v>
+        <v>2.704404021633173</v>
       </c>
       <c r="I24" t="n">
-        <v>2.723877282621938</v>
+        <v>2.72399517380552</v>
       </c>
       <c r="J24" t="n">
-        <v>2.952564584053114</v>
+        <v>2.952421539963783</v>
       </c>
       <c r="K24" t="n">
-        <v>2.900352837074632</v>
+        <v>2.900383745162851</v>
       </c>
       <c r="L24" t="n">
-        <v>2.939061606099404</v>
+        <v>2.939099270479013</v>
       </c>
       <c r="M24" t="n">
-        <v>2.926971406456008</v>
+        <v>2.927015083782802</v>
       </c>
       <c r="N24" t="n">
-        <v>3.305672810920083</v>
+        <v>3.305710746239596</v>
       </c>
       <c r="O24" t="n">
-        <v>3.256007768264023</v>
+        <v>3.256023897032873</v>
       </c>
       <c r="P24" t="n">
-        <v>3.613368446844949</v>
+        <v>3.613376060909347</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.607533632089685</v>
+        <v>3.607533072834212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.26242604616133</v>
+        <v>2.262600787877532</v>
       </c>
       <c r="B25" t="n">
-        <v>2.224027479693145</v>
+        <v>2.224213254581025</v>
       </c>
       <c r="C25" t="n">
-        <v>2.231992095334852</v>
+        <v>2.232177465499878</v>
       </c>
       <c r="D25" t="n">
-        <v>2.22203426326572</v>
+        <v>2.222217251720216</v>
       </c>
       <c r="E25" t="n">
-        <v>2.248363713597606</v>
+        <v>2.248542598903161</v>
       </c>
       <c r="F25" t="n">
-        <v>2.42505193646971</v>
+        <v>2.425210577660132</v>
       </c>
       <c r="G25" t="n">
-        <v>2.445012700979677</v>
+        <v>2.445119088237187</v>
       </c>
       <c r="H25" t="n">
-        <v>2.701671216273608</v>
+        <v>2.701743051161805</v>
       </c>
       <c r="I25" t="n">
-        <v>2.728882873876352</v>
+        <v>2.72888296991732</v>
       </c>
       <c r="J25" t="n">
-        <v>2.927910814198293</v>
+        <v>2.927801787950684</v>
       </c>
       <c r="K25" t="n">
-        <v>2.869447532363413</v>
+        <v>2.869401424647729</v>
       </c>
       <c r="L25" t="n">
-        <v>2.924920256217778</v>
+        <v>2.92501376411452</v>
       </c>
       <c r="M25" t="n">
-        <v>2.909041075346863</v>
+        <v>2.909111192961427</v>
       </c>
       <c r="N25" t="n">
-        <v>3.298989889175003</v>
+        <v>3.299105071299305</v>
       </c>
       <c r="O25" t="n">
-        <v>3.236527707715858</v>
+        <v>3.23659664920126</v>
       </c>
       <c r="P25" t="n">
-        <v>3.626779390706812</v>
+        <v>3.626836750726615</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.585944854162173</v>
+        <v>3.586013202916324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.253494705885534</v>
+        <v>2.253546631426622</v>
       </c>
       <c r="B26" t="n">
-        <v>2.216502867677801</v>
+        <v>2.216550451644461</v>
       </c>
       <c r="C26" t="n">
-        <v>2.224585734294093</v>
+        <v>2.22463878251709</v>
       </c>
       <c r="D26" t="n">
-        <v>2.207070839942173</v>
+        <v>2.207105601513347</v>
       </c>
       <c r="E26" t="n">
-        <v>2.230357665197757</v>
+        <v>2.230403301847444</v>
       </c>
       <c r="F26" t="n">
-        <v>2.399557209684003</v>
+        <v>2.399547448014915</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42160010802089</v>
+        <v>2.421595698592751</v>
       </c>
       <c r="H26" t="n">
-        <v>2.68887866084163</v>
+        <v>2.688828159132414</v>
       </c>
       <c r="I26" t="n">
-        <v>2.700686891494464</v>
+        <v>2.700686473180098</v>
       </c>
       <c r="J26" t="n">
-        <v>2.94068888617757</v>
+        <v>2.940657828421489</v>
       </c>
       <c r="K26" t="n">
-        <v>2.847634902590989</v>
+        <v>2.847692349719062</v>
       </c>
       <c r="L26" t="n">
-        <v>2.919264009600879</v>
+        <v>2.919241177903861</v>
       </c>
       <c r="M26" t="n">
-        <v>2.907506562699921</v>
+        <v>2.907489933358402</v>
       </c>
       <c r="N26" t="n">
-        <v>3.307458125634052</v>
+        <v>3.307482893171954</v>
       </c>
       <c r="O26" t="n">
-        <v>3.259044526625307</v>
+        <v>3.259067310965952</v>
       </c>
       <c r="P26" t="n">
-        <v>3.653248908859757</v>
+        <v>3.653288051245224</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.582995729856473</v>
+        <v>3.583066224870522</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.231163971843068</v>
+        <v>2.231271591509315</v>
       </c>
       <c r="B27" t="n">
-        <v>2.193913631504846</v>
+        <v>2.194023505055826</v>
       </c>
       <c r="C27" t="n">
-        <v>2.198218700319122</v>
+        <v>2.198333969211284</v>
       </c>
       <c r="D27" t="n">
-        <v>2.195558145058379</v>
+        <v>2.195650814819079</v>
       </c>
       <c r="E27" t="n">
-        <v>2.211238224288365</v>
+        <v>2.211344930451575</v>
       </c>
       <c r="F27" t="n">
-        <v>2.403304390567019</v>
+        <v>2.403393699876485</v>
       </c>
       <c r="G27" t="n">
-        <v>2.410085763123498</v>
+        <v>2.410168229288606</v>
       </c>
       <c r="H27" t="n">
-        <v>2.686074187728097</v>
+        <v>2.686175805555917</v>
       </c>
       <c r="I27" t="n">
-        <v>2.648032024197266</v>
+        <v>2.648069879717315</v>
       </c>
       <c r="J27" t="n">
-        <v>2.945949129530743</v>
+        <v>2.945983986142566</v>
       </c>
       <c r="K27" t="n">
-        <v>2.774621250836809</v>
+        <v>2.774608430879944</v>
       </c>
       <c r="L27" t="n">
-        <v>2.913980299387634</v>
+        <v>2.914005039233456</v>
       </c>
       <c r="M27" t="n">
-        <v>2.902908524804425</v>
+        <v>2.902949379776075</v>
       </c>
       <c r="N27" t="n">
-        <v>3.291057357131052</v>
+        <v>3.291099425949797</v>
       </c>
       <c r="O27" t="n">
-        <v>3.260391304391667</v>
+        <v>3.260481948430268</v>
       </c>
       <c r="P27" t="n">
-        <v>3.640050633417304</v>
+        <v>3.640037833668628</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.599376331526599</v>
+        <v>3.599396157341567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.225436591306573</v>
+        <v>2.225423836641274</v>
       </c>
       <c r="B28" t="n">
-        <v>2.187521478822855</v>
+        <v>2.187514632679189</v>
       </c>
       <c r="C28" t="n">
-        <v>2.193745330117762</v>
+        <v>2.193732547350296</v>
       </c>
       <c r="D28" t="n">
-        <v>2.182696289055249</v>
+        <v>2.18272840592395</v>
       </c>
       <c r="E28" t="n">
-        <v>2.205449426579024</v>
+        <v>2.205470958222544</v>
       </c>
       <c r="F28" t="n">
-        <v>2.362491670868854</v>
+        <v>2.362533117752069</v>
       </c>
       <c r="G28" t="n">
-        <v>2.400547034508476</v>
+        <v>2.40054902454</v>
       </c>
       <c r="H28" t="n">
-        <v>2.594940819970591</v>
+        <v>2.594974223567354</v>
       </c>
       <c r="I28" t="n">
-        <v>2.611087119709678</v>
+        <v>2.611099917296143</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8626511263497</v>
+        <v>2.862714347551638</v>
       </c>
       <c r="K28" t="n">
-        <v>2.727261277178359</v>
+        <v>2.727426164669594</v>
       </c>
       <c r="L28" t="n">
-        <v>2.894033284990991</v>
+        <v>2.894019709955319</v>
       </c>
       <c r="M28" t="n">
-        <v>2.893256495255615</v>
+        <v>2.893232272434682</v>
       </c>
       <c r="N28" t="n">
-        <v>3.273991083143177</v>
+        <v>3.274044574280476</v>
       </c>
       <c r="O28" t="n">
-        <v>3.253114011081308</v>
+        <v>3.253163821288534</v>
       </c>
       <c r="P28" t="n">
-        <v>3.622714857208281</v>
+        <v>3.622792676959395</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.599367164784383</v>
+        <v>3.59947132599895</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.214756603285672</v>
+        <v>2.214839723005331</v>
       </c>
       <c r="B29" t="n">
-        <v>2.176626439029568</v>
+        <v>2.176720596817139</v>
       </c>
       <c r="C29" t="n">
-        <v>2.182283785655533</v>
+        <v>2.182371263132285</v>
       </c>
       <c r="D29" t="n">
-        <v>2.168457405036447</v>
+        <v>2.168558930669014</v>
       </c>
       <c r="E29" t="n">
-        <v>2.190537153677042</v>
+        <v>2.190619648243684</v>
       </c>
       <c r="F29" t="n">
-        <v>2.342229687209672</v>
+        <v>2.34232246583997</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38480920480253</v>
+        <v>2.384856008936637</v>
       </c>
       <c r="H29" t="n">
-        <v>2.56950916037133</v>
+        <v>2.569584451161548</v>
       </c>
       <c r="I29" t="n">
-        <v>2.585582859512067</v>
+        <v>2.585619209148722</v>
       </c>
       <c r="J29" t="n">
-        <v>2.826464678113056</v>
+        <v>2.826479754605501</v>
       </c>
       <c r="K29" t="n">
-        <v>2.695878018528003</v>
+        <v>2.69591473014177</v>
       </c>
       <c r="L29" t="n">
-        <v>2.886474939364292</v>
+        <v>2.886504677598878</v>
       </c>
       <c r="M29" t="n">
-        <v>2.888336888043185</v>
+        <v>2.888361526774434</v>
       </c>
       <c r="N29" t="n">
-        <v>3.26813793490348</v>
+        <v>3.268133751075508</v>
       </c>
       <c r="O29" t="n">
-        <v>3.253205311833778</v>
+        <v>3.253243390062447</v>
       </c>
       <c r="P29" t="n">
-        <v>3.660221132989171</v>
+        <v>3.660202467695353</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.587673335074403</v>
+        <v>3.587709081162166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.27991454029567</v>
+        <v>2.280025616011731</v>
       </c>
       <c r="B30" t="n">
-        <v>2.23798879475765</v>
+        <v>2.238084621941071</v>
       </c>
       <c r="C30" t="n">
-        <v>2.254297529168803</v>
+        <v>2.2543936538586</v>
       </c>
       <c r="D30" t="n">
-        <v>2.20385239675017</v>
+        <v>2.203919917145806</v>
       </c>
       <c r="E30" t="n">
-        <v>2.252829750405193</v>
+        <v>2.252909897897129</v>
       </c>
       <c r="F30" t="n">
-        <v>2.33538194743955</v>
+        <v>2.335466717610238</v>
       </c>
       <c r="G30" t="n">
-        <v>2.439274137017679</v>
+        <v>2.439337701793469</v>
       </c>
       <c r="H30" t="n">
-        <v>2.528474788846385</v>
+        <v>2.528566198194815</v>
       </c>
       <c r="I30" t="n">
-        <v>2.72114816012942</v>
+        <v>2.721250417781897</v>
       </c>
       <c r="J30" t="n">
-        <v>2.780768468166792</v>
+        <v>2.780827445580184</v>
       </c>
       <c r="K30" t="n">
-        <v>2.837239083578781</v>
+        <v>2.83736124278358</v>
       </c>
       <c r="L30" t="n">
-        <v>2.865964353656215</v>
+        <v>2.86604670247017</v>
       </c>
       <c r="M30" t="n">
-        <v>2.893742699262746</v>
+        <v>2.893815287874874</v>
       </c>
       <c r="N30" t="n">
-        <v>3.264962575399892</v>
+        <v>3.265067603207025</v>
       </c>
       <c r="O30" t="n">
-        <v>3.251700866101305</v>
+        <v>3.251742583649424</v>
       </c>
       <c r="P30" t="n">
-        <v>3.652333334647233</v>
+        <v>3.652476596421862</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.588125072130803</v>
+        <v>3.588287329809451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.239741842539019</v>
+        <v>2.240032956872808</v>
       </c>
       <c r="B31" t="n">
-        <v>2.20036701802484</v>
+        <v>2.200663830913789</v>
       </c>
       <c r="C31" t="n">
-        <v>2.208399100889257</v>
+        <v>2.208701193769949</v>
       </c>
       <c r="D31" t="n">
-        <v>2.19028488493126</v>
+        <v>2.190571613638235</v>
       </c>
       <c r="E31" t="n">
-        <v>2.220270398728536</v>
+        <v>2.220571058123523</v>
       </c>
       <c r="F31" t="n">
-        <v>2.348134535875467</v>
+        <v>2.34833632510701</v>
       </c>
       <c r="G31" t="n">
-        <v>2.426036077914009</v>
+        <v>2.42626550559814</v>
       </c>
       <c r="H31" t="n">
-        <v>2.521530614948151</v>
+        <v>2.521503277811807</v>
       </c>
       <c r="I31" t="n">
-        <v>2.683611817434062</v>
+        <v>2.683721823899636</v>
       </c>
       <c r="J31" t="n">
-        <v>2.752584585884629</v>
+        <v>2.752457144240037</v>
       </c>
       <c r="K31" t="n">
-        <v>2.775871961144746</v>
+        <v>2.775859164003527</v>
       </c>
       <c r="L31" t="n">
-        <v>2.861016879547449</v>
+        <v>2.861102438196238</v>
       </c>
       <c r="M31" t="n">
-        <v>2.875867001937208</v>
+        <v>2.875971165303028</v>
       </c>
       <c r="N31" t="n">
-        <v>3.258889058677325</v>
+        <v>3.259021843095145</v>
       </c>
       <c r="O31" t="n">
-        <v>3.242779425907102</v>
+        <v>3.242891749249826</v>
       </c>
       <c r="P31" t="n">
-        <v>3.619306295782721</v>
+        <v>3.619374519768532</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.570773529125169</v>
+        <v>3.570864701733518</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.263876591449574</v>
+        <v>2.263935489891557</v>
       </c>
       <c r="B32" t="n">
-        <v>2.228629550955216</v>
+        <v>2.22869458992839</v>
       </c>
       <c r="C32" t="n">
-        <v>2.231454924241</v>
+        <v>2.231527164944418</v>
       </c>
       <c r="D32" t="n">
-        <v>2.22548994174627</v>
+        <v>2.2255552901226</v>
       </c>
       <c r="E32" t="n">
-        <v>2.239800509689201</v>
+        <v>2.239885186292684</v>
       </c>
       <c r="F32" t="n">
-        <v>2.365695080603623</v>
+        <v>2.365746852862487</v>
       </c>
       <c r="G32" t="n">
-        <v>2.432873550932849</v>
+        <v>2.432910964925388</v>
       </c>
       <c r="H32" t="n">
-        <v>2.525641715497139</v>
+        <v>2.525675321634768</v>
       </c>
       <c r="I32" t="n">
-        <v>2.647565253683632</v>
+        <v>2.647582750149833</v>
       </c>
       <c r="J32" t="n">
-        <v>2.734096733513912</v>
+        <v>2.734131758922749</v>
       </c>
       <c r="K32" t="n">
-        <v>2.731677996912825</v>
+        <v>2.73167594388458</v>
       </c>
       <c r="L32" t="n">
-        <v>2.885823367327586</v>
+        <v>2.885848693559568</v>
       </c>
       <c r="M32" t="n">
-        <v>2.900905041625718</v>
+        <v>2.900931376332617</v>
       </c>
       <c r="N32" t="n">
-        <v>3.272788773234139</v>
+        <v>3.272845909202495</v>
       </c>
       <c r="O32" t="n">
-        <v>3.276999607938436</v>
+        <v>3.277040320284482</v>
       </c>
       <c r="P32" t="n">
-        <v>3.656475968789443</v>
+        <v>3.656529837098519</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.596151471615045</v>
+        <v>3.596220373236218</v>
       </c>
     </row>
   </sheetData>
@@ -3921,1645 +3921,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.669786811826308</v>
+        <v>7.669942858986715</v>
       </c>
       <c r="B2" t="n">
-        <v>7.702473947889453</v>
+        <v>7.702626924569719</v>
       </c>
       <c r="C2" t="n">
-        <v>7.681682309865037</v>
+        <v>7.681824640322558</v>
       </c>
       <c r="D2" t="n">
-        <v>7.797871867460641</v>
+        <v>7.798025117698534</v>
       </c>
       <c r="E2" t="n">
-        <v>7.741153933343667</v>
+        <v>7.741264347817478</v>
       </c>
       <c r="F2" t="n">
-        <v>7.933733253851567</v>
+        <v>7.933879448907406</v>
       </c>
       <c r="G2" t="n">
-        <v>7.692818068308913</v>
+        <v>7.692963535317627</v>
       </c>
       <c r="H2" t="n">
-        <v>7.931126232365365</v>
+        <v>7.931273846569036</v>
       </c>
       <c r="I2" t="n">
-        <v>7.559348834966648</v>
+        <v>7.559461066393908</v>
       </c>
       <c r="J2" t="n">
-        <v>7.822666071806209</v>
+        <v>7.822802907230327</v>
       </c>
       <c r="K2" t="n">
-        <v>7.366107309001071</v>
+        <v>7.36632088473143</v>
       </c>
       <c r="L2" t="n">
-        <v>7.92551985282612</v>
+        <v>7.925704032395124</v>
       </c>
       <c r="M2" t="n">
-        <v>7.726383744946031</v>
+        <v>7.726565025197084</v>
       </c>
       <c r="N2" t="n">
-        <v>7.953993954166839</v>
+        <v>7.954162519404056</v>
       </c>
       <c r="O2" t="n">
-        <v>7.577584785261272</v>
+        <v>7.577772151332474</v>
       </c>
       <c r="P2" t="n">
-        <v>7.991565863821994</v>
+        <v>7.99182311678221</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.367412653092616</v>
+        <v>7.36748618225906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.62266682347907</v>
+        <v>7.622733275386243</v>
       </c>
       <c r="B3" t="n">
-        <v>7.655120757620244</v>
+        <v>7.655179001323885</v>
       </c>
       <c r="C3" t="n">
-        <v>7.638126350891342</v>
+        <v>7.638207018515874</v>
       </c>
       <c r="D3" t="n">
-        <v>7.760068955901644</v>
+        <v>7.760136447613587</v>
       </c>
       <c r="E3" t="n">
-        <v>7.71464738155217</v>
+        <v>7.714759512547757</v>
       </c>
       <c r="F3" t="n">
-        <v>7.897177019233934</v>
+        <v>7.897295413373531</v>
       </c>
       <c r="G3" t="n">
-        <v>7.654905889182704</v>
+        <v>7.655044797769728</v>
       </c>
       <c r="H3" t="n">
-        <v>7.910869932086357</v>
+        <v>7.910950441670863</v>
       </c>
       <c r="I3" t="n">
-        <v>7.52850898079485</v>
+        <v>7.528684451326552</v>
       </c>
       <c r="J3" t="n">
-        <v>7.720785432139937</v>
+        <v>7.720877141229623</v>
       </c>
       <c r="K3" t="n">
-        <v>7.294688120387925</v>
+        <v>7.294973728554244</v>
       </c>
       <c r="L3" t="n">
-        <v>7.891539106101466</v>
+        <v>7.891650063865858</v>
       </c>
       <c r="M3" t="n">
-        <v>7.689309039388666</v>
+        <v>7.689420708158421</v>
       </c>
       <c r="N3" t="n">
-        <v>7.93209277366461</v>
+        <v>7.932186137396205</v>
       </c>
       <c r="O3" t="n">
-        <v>7.498232331264797</v>
+        <v>7.498402849368794</v>
       </c>
       <c r="P3" t="n">
-        <v>7.977245945802004</v>
+        <v>7.977352600221362</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.393842937588877</v>
+        <v>7.393878814557272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.600440040293332</v>
+        <v>7.600575021895163</v>
       </c>
       <c r="B4" t="n">
-        <v>7.636488070722516</v>
+        <v>7.636627376681693</v>
       </c>
       <c r="C4" t="n">
-        <v>7.613489814511888</v>
+        <v>7.613625034169655</v>
       </c>
       <c r="D4" t="n">
-        <v>7.739619787366414</v>
+        <v>7.739756574553283</v>
       </c>
       <c r="E4" t="n">
-        <v>7.674948787702926</v>
+        <v>7.675068261391123</v>
       </c>
       <c r="F4" t="n">
-        <v>7.880962885602449</v>
+        <v>7.881058983378743</v>
       </c>
       <c r="G4" t="n">
-        <v>7.613917351368838</v>
+        <v>7.614095846638339</v>
       </c>
       <c r="H4" t="n">
-        <v>7.892683848869388</v>
+        <v>7.892766226758905</v>
       </c>
       <c r="I4" t="n">
-        <v>7.475998948024663</v>
+        <v>7.476169060543953</v>
       </c>
       <c r="J4" t="n">
-        <v>7.713019368134626</v>
+        <v>7.713174737244291</v>
       </c>
       <c r="K4" t="n">
-        <v>7.280608004344303</v>
+        <v>7.280752551930084</v>
       </c>
       <c r="L4" t="n">
-        <v>7.872396748336534</v>
+        <v>7.872487556378784</v>
       </c>
       <c r="M4" t="n">
-        <v>7.65290680604026</v>
+        <v>7.65305301168726</v>
       </c>
       <c r="N4" t="n">
-        <v>7.919376668862713</v>
+        <v>7.919485201033074</v>
       </c>
       <c r="O4" t="n">
-        <v>7.433942668077489</v>
+        <v>7.43404967841565</v>
       </c>
       <c r="P4" t="n">
-        <v>7.955289764846478</v>
+        <v>7.955297016115977</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.362805815124593</v>
+        <v>7.362901260835057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.569498251948093</v>
+        <v>7.569607001758763</v>
       </c>
       <c r="B5" t="n">
-        <v>7.606831092966257</v>
+        <v>7.606935390338921</v>
       </c>
       <c r="C5" t="n">
-        <v>7.58678452774915</v>
+        <v>7.586893592898652</v>
       </c>
       <c r="D5" t="n">
-        <v>7.710782683033946</v>
+        <v>7.710872742946476</v>
       </c>
       <c r="E5" t="n">
-        <v>7.658078315328782</v>
+        <v>7.658179880797176</v>
       </c>
       <c r="F5" t="n">
-        <v>7.855480808921</v>
+        <v>7.855577908554945</v>
       </c>
       <c r="G5" t="n">
-        <v>7.593794518856493</v>
+        <v>7.593975580453289</v>
       </c>
       <c r="H5" t="n">
-        <v>7.853688527482947</v>
+        <v>7.853737193139998</v>
       </c>
       <c r="I5" t="n">
-        <v>7.441457930015773</v>
+        <v>7.441709547941195</v>
       </c>
       <c r="J5" t="n">
-        <v>7.668979405171931</v>
+        <v>7.669041568450871</v>
       </c>
       <c r="K5" t="n">
-        <v>7.235743767921554</v>
+        <v>7.235932231605267</v>
       </c>
       <c r="L5" t="n">
-        <v>7.843805312695452</v>
+        <v>7.843944733803034</v>
       </c>
       <c r="M5" t="n">
-        <v>7.625520980335413</v>
+        <v>7.625712887629641</v>
       </c>
       <c r="N5" t="n">
-        <v>7.89090623421888</v>
+        <v>7.890985646269866</v>
       </c>
       <c r="O5" t="n">
-        <v>7.396146356572888</v>
+        <v>7.396343613166689</v>
       </c>
       <c r="P5" t="n">
-        <v>7.948991846274466</v>
+        <v>7.949133919563304</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.307244357205577</v>
+        <v>7.307354923116214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.552159175711873</v>
+        <v>7.552348278023563</v>
       </c>
       <c r="B6" t="n">
-        <v>7.582545826148517</v>
+        <v>7.582728149250486</v>
       </c>
       <c r="C6" t="n">
-        <v>7.565362951199656</v>
+        <v>7.565554494434861</v>
       </c>
       <c r="D6" t="n">
-        <v>7.678094080292045</v>
+        <v>7.678267146108253</v>
       </c>
       <c r="E6" t="n">
-        <v>7.639620163202845</v>
+        <v>7.639819661224028</v>
       </c>
       <c r="F6" t="n">
-        <v>7.79087727648022</v>
+        <v>7.791006198480823</v>
       </c>
       <c r="G6" t="n">
-        <v>7.603377797838684</v>
+        <v>7.603628702766811</v>
       </c>
       <c r="H6" t="n">
-        <v>7.738141375181834</v>
+        <v>7.738226800706439</v>
       </c>
       <c r="I6" t="n">
-        <v>7.431776383557028</v>
+        <v>7.43199115723248</v>
       </c>
       <c r="J6" t="n">
-        <v>7.654765088022267</v>
+        <v>7.654828458707015</v>
       </c>
       <c r="K6" t="n">
-        <v>7.194021157391039</v>
+        <v>7.194110590695477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.821213326499833</v>
+        <v>7.821293667260622</v>
       </c>
       <c r="M6" t="n">
-        <v>7.644977207353818</v>
+        <v>7.645154802516354</v>
       </c>
       <c r="N6" t="n">
-        <v>7.879477140024096</v>
+        <v>7.879513809124045</v>
       </c>
       <c r="O6" t="n">
-        <v>7.357415770701643</v>
+        <v>7.357643121582004</v>
       </c>
       <c r="P6" t="n">
-        <v>7.960432673899287</v>
+        <v>7.960453952688847</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.21890849583752</v>
+        <v>7.219095185704168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.496142314039572</v>
+        <v>7.496277593084923</v>
       </c>
       <c r="B7" t="n">
-        <v>7.52632069609307</v>
+        <v>7.526444058660154</v>
       </c>
       <c r="C7" t="n">
-        <v>7.510244430264513</v>
+        <v>7.510393166912371</v>
       </c>
       <c r="D7" t="n">
-        <v>7.619604398239582</v>
+        <v>7.619709661977548</v>
       </c>
       <c r="E7" t="n">
-        <v>7.586841728220577</v>
+        <v>7.587010929339446</v>
       </c>
       <c r="F7" t="n">
-        <v>7.761620702023952</v>
+        <v>7.761721956269809</v>
       </c>
       <c r="G7" t="n">
-        <v>7.534754098931699</v>
+        <v>7.534903282688603</v>
       </c>
       <c r="H7" t="n">
-        <v>7.776287489569393</v>
+        <v>7.776408078540613</v>
       </c>
       <c r="I7" t="n">
-        <v>7.362518346088702</v>
+        <v>7.36268858853612</v>
       </c>
       <c r="J7" t="n">
-        <v>7.702686616308863</v>
+        <v>7.702848397101716</v>
       </c>
       <c r="K7" t="n">
-        <v>7.143920877814568</v>
+        <v>7.144112066567896</v>
       </c>
       <c r="L7" t="n">
-        <v>7.808735556995549</v>
+        <v>7.808834737306626</v>
       </c>
       <c r="M7" t="n">
-        <v>7.606899293528344</v>
+        <v>7.60703439296084</v>
       </c>
       <c r="N7" t="n">
-        <v>7.873091220726811</v>
+        <v>7.873222375839253</v>
       </c>
       <c r="O7" t="n">
-        <v>7.31642136617276</v>
+        <v>7.316638435641237</v>
       </c>
       <c r="P7" t="n">
-        <v>7.95334568215733</v>
+        <v>7.953442366998686</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.125426058719767</v>
+        <v>7.125681445130271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.433619265412112</v>
+        <v>7.433800338478964</v>
       </c>
       <c r="B8" t="n">
-        <v>7.459447478279634</v>
+        <v>7.459639289447182</v>
       </c>
       <c r="C8" t="n">
-        <v>7.447005642404836</v>
+        <v>7.447169359201863</v>
       </c>
       <c r="D8" t="n">
-        <v>7.542779765076564</v>
+        <v>7.542976763167944</v>
       </c>
       <c r="E8" t="n">
-        <v>7.526464430611016</v>
+        <v>7.526617863263079</v>
       </c>
       <c r="F8" t="n">
-        <v>7.689672775719793</v>
+        <v>7.689810851824059</v>
       </c>
       <c r="G8" t="n">
-        <v>7.47714222411383</v>
+        <v>7.477341691599133</v>
       </c>
       <c r="H8" t="n">
-        <v>7.681021571086115</v>
+        <v>7.681283425989398</v>
       </c>
       <c r="I8" t="n">
-        <v>7.289498277614971</v>
+        <v>7.289771324110567</v>
       </c>
       <c r="J8" t="n">
-        <v>7.648196567220041</v>
+        <v>7.648658028626792</v>
       </c>
       <c r="K8" t="n">
-        <v>7.037793469814514</v>
+        <v>7.038022323624538</v>
       </c>
       <c r="L8" t="n">
-        <v>7.75386050473366</v>
+        <v>7.754008551993152</v>
       </c>
       <c r="M8" t="n">
-        <v>7.556111141615992</v>
+        <v>7.556301049372791</v>
       </c>
       <c r="N8" t="n">
-        <v>7.85540820832265</v>
+        <v>7.855590375551779</v>
       </c>
       <c r="O8" t="n">
-        <v>7.262753390525861</v>
+        <v>7.262983414677432</v>
       </c>
       <c r="P8" t="n">
-        <v>7.95006618846217</v>
+        <v>7.950398953065607</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.057250430172295</v>
+        <v>7.057423170756972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.376825063999902</v>
+        <v>7.376990433963326</v>
       </c>
       <c r="B9" t="n">
-        <v>7.399644385402476</v>
+        <v>7.399821905283458</v>
       </c>
       <c r="C9" t="n">
-        <v>7.388881896701632</v>
+        <v>7.389046753254848</v>
       </c>
       <c r="D9" t="n">
-        <v>7.486451967508299</v>
+        <v>7.486646471354049</v>
       </c>
       <c r="E9" t="n">
-        <v>7.475262675289883</v>
+        <v>7.475385839801658</v>
       </c>
       <c r="F9" t="n">
-        <v>7.623949434049919</v>
+        <v>7.624171380138717</v>
       </c>
       <c r="G9" t="n">
-        <v>7.446288436493864</v>
+        <v>7.446373671462733</v>
       </c>
       <c r="H9" t="n">
-        <v>7.57052346039752</v>
+        <v>7.57092263660116</v>
       </c>
       <c r="I9" t="n">
-        <v>7.266556488536393</v>
+        <v>7.266634044691617</v>
       </c>
       <c r="J9" t="n">
-        <v>7.469393760253574</v>
+        <v>7.469860760145798</v>
       </c>
       <c r="K9" t="n">
-        <v>7.02174580422167</v>
+        <v>7.021752892755776</v>
       </c>
       <c r="L9" t="n">
-        <v>7.706123044630759</v>
+        <v>7.706308355399612</v>
       </c>
       <c r="M9" t="n">
-        <v>7.527062835542869</v>
+        <v>7.527164211065523</v>
       </c>
       <c r="N9" t="n">
-        <v>7.831474944406001</v>
+        <v>7.831690409267672</v>
       </c>
       <c r="O9" t="n">
-        <v>7.221156914368236</v>
+        <v>7.221261509742316</v>
       </c>
       <c r="P9" t="n">
-        <v>7.95891319470958</v>
+        <v>7.959128784260637</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.034095972674308</v>
+        <v>7.034217689531811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.304484801128902</v>
+        <v>7.304611450459913</v>
       </c>
       <c r="B10" t="n">
-        <v>7.337732941815662</v>
+        <v>7.337873398013824</v>
       </c>
       <c r="C10" t="n">
-        <v>7.315748893963801</v>
+        <v>7.3158786821871</v>
       </c>
       <c r="D10" t="n">
-        <v>7.441771065929869</v>
+        <v>7.441978688402265</v>
       </c>
       <c r="E10" t="n">
-        <v>7.394326941577877</v>
+        <v>7.394444229531345</v>
       </c>
       <c r="F10" t="n">
-        <v>7.569159449155793</v>
+        <v>7.5696568697461</v>
       </c>
       <c r="G10" t="n">
-        <v>7.374350043601609</v>
+        <v>7.374272628653449</v>
       </c>
       <c r="H10" t="n">
-        <v>7.60041364007575</v>
+        <v>7.601944191488672</v>
       </c>
       <c r="I10" t="n">
-        <v>7.236669975555048</v>
+        <v>7.236001900116988</v>
       </c>
       <c r="J10" t="n">
-        <v>7.448979792008452</v>
+        <v>7.451028261398456</v>
       </c>
       <c r="K10" t="n">
-        <v>7.017509302639169</v>
+        <v>7.017140837279841</v>
       </c>
       <c r="L10" t="n">
-        <v>7.641262110068557</v>
+        <v>7.641588508068988</v>
       </c>
       <c r="M10" t="n">
-        <v>7.449510729717598</v>
+        <v>7.449585023176697</v>
       </c>
       <c r="N10" t="n">
-        <v>7.774992412229131</v>
+        <v>7.77513571151076</v>
       </c>
       <c r="O10" t="n">
-        <v>7.135640009566412</v>
+        <v>7.135883115304503</v>
       </c>
       <c r="P10" t="n">
-        <v>7.961028145473632</v>
+        <v>7.961251107133487</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.993482171282229</v>
+        <v>6.993577479910259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.245398914162718</v>
+        <v>7.245572886921956</v>
       </c>
       <c r="B11" t="n">
-        <v>7.284306968163262</v>
+        <v>7.284493384333128</v>
       </c>
       <c r="C11" t="n">
-        <v>7.255939934371626</v>
+        <v>7.256114832774488</v>
       </c>
       <c r="D11" t="n">
-        <v>7.392074123010898</v>
+        <v>7.392254438205039</v>
       </c>
       <c r="E11" t="n">
-        <v>7.305323008037124</v>
+        <v>7.305497340587904</v>
       </c>
       <c r="F11" t="n">
-        <v>7.51987977634249</v>
+        <v>7.520047755931403</v>
       </c>
       <c r="G11" t="n">
-        <v>7.252370771622442</v>
+        <v>7.252530937861004</v>
       </c>
       <c r="H11" t="n">
-        <v>7.63022095240435</v>
+        <v>7.630345476982716</v>
       </c>
       <c r="I11" t="n">
-        <v>7.098607104353552</v>
+        <v>7.098810666835827</v>
       </c>
       <c r="J11" t="n">
-        <v>7.432415855494009</v>
+        <v>7.432522104627071</v>
       </c>
       <c r="K11" t="n">
-        <v>6.895549830823189</v>
+        <v>6.895755555926306</v>
       </c>
       <c r="L11" t="n">
-        <v>7.585127914095892</v>
+        <v>7.585285350307028</v>
       </c>
       <c r="M11" t="n">
-        <v>7.356651631070526</v>
+        <v>7.356796099150026</v>
       </c>
       <c r="N11" t="n">
-        <v>7.696741433977318</v>
+        <v>7.696949307540828</v>
       </c>
       <c r="O11" t="n">
-        <v>7.080879358247378</v>
+        <v>7.081056196638274</v>
       </c>
       <c r="P11" t="n">
-        <v>7.934520860342757</v>
+        <v>7.934837940958136</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.976002293885572</v>
+        <v>6.976170618918558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.184212009880648</v>
+        <v>7.184299064186884</v>
       </c>
       <c r="B12" t="n">
-        <v>7.222121255649348</v>
+        <v>7.222233935495391</v>
       </c>
       <c r="C12" t="n">
-        <v>7.199957539650056</v>
+        <v>7.200070548535027</v>
       </c>
       <c r="D12" t="n">
-        <v>7.322427415672617</v>
+        <v>7.322618927357926</v>
       </c>
       <c r="E12" t="n">
-        <v>7.259776032654136</v>
+        <v>7.259938534038843</v>
       </c>
       <c r="F12" t="n">
-        <v>7.463349577106098</v>
+        <v>7.463531925870504</v>
       </c>
       <c r="G12" t="n">
-        <v>7.190608929268592</v>
+        <v>7.190814903414692</v>
       </c>
       <c r="H12" t="n">
-        <v>7.606675625018276</v>
+        <v>7.606829787542207</v>
       </c>
       <c r="I12" t="n">
-        <v>7.03278109517086</v>
+        <v>7.032990790372765</v>
       </c>
       <c r="J12" t="n">
-        <v>7.399142781268423</v>
+        <v>7.399260890425915</v>
       </c>
       <c r="K12" t="n">
-        <v>6.814003958749294</v>
+        <v>6.814268331206304</v>
       </c>
       <c r="L12" t="n">
-        <v>7.527714774249264</v>
+        <v>7.527879963354363</v>
       </c>
       <c r="M12" t="n">
-        <v>7.301038839395101</v>
+        <v>7.301206493618639</v>
       </c>
       <c r="N12" t="n">
-        <v>7.621751615936235</v>
+        <v>7.621949321291193</v>
       </c>
       <c r="O12" t="n">
-        <v>7.049577500267898</v>
+        <v>7.049749367529083</v>
       </c>
       <c r="P12" t="n">
-        <v>7.882903301594711</v>
+        <v>7.883156372257925</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.963347056251989</v>
+        <v>6.963526150717558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.107482710836675</v>
+        <v>7.107649767591345</v>
       </c>
       <c r="B13" t="n">
-        <v>7.147013369968525</v>
+        <v>7.147190681433213</v>
       </c>
       <c r="C13" t="n">
-        <v>7.12142789243488</v>
+        <v>7.121591536815867</v>
       </c>
       <c r="D13" t="n">
-        <v>7.256661540318862</v>
+        <v>7.256853318998732</v>
       </c>
       <c r="E13" t="n">
-        <v>7.185891357054601</v>
+        <v>7.186038576921645</v>
       </c>
       <c r="F13" t="n">
-        <v>7.41470277617538</v>
+        <v>7.414854170054603</v>
       </c>
       <c r="G13" t="n">
-        <v>7.117334392030948</v>
+        <v>7.117462760805449</v>
       </c>
       <c r="H13" t="n">
-        <v>7.598061087353462</v>
+        <v>7.598179891797468</v>
       </c>
       <c r="I13" t="n">
-        <v>6.975953893486672</v>
+        <v>6.976103150465102</v>
       </c>
       <c r="J13" t="n">
-        <v>7.407268914907974</v>
+        <v>7.407432640174421</v>
       </c>
       <c r="K13" t="n">
-        <v>6.773275023074982</v>
+        <v>6.773314246605631</v>
       </c>
       <c r="L13" t="n">
-        <v>7.470970439914709</v>
+        <v>7.471125060295347</v>
       </c>
       <c r="M13" t="n">
-        <v>7.233101546145243</v>
+        <v>7.233223226528449</v>
       </c>
       <c r="N13" t="n">
-        <v>7.557520619899109</v>
+        <v>7.557680485904869</v>
       </c>
       <c r="O13" t="n">
-        <v>6.994553580112423</v>
+        <v>6.994699509625346</v>
       </c>
       <c r="P13" t="n">
-        <v>7.809788632341312</v>
+        <v>7.810134238388414</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.967194154625158</v>
+        <v>6.967275783353663</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.062244471331518</v>
+        <v>7.062390168966308</v>
       </c>
       <c r="B14" t="n">
-        <v>7.10219093389028</v>
+        <v>7.102341026998198</v>
       </c>
       <c r="C14" t="n">
-        <v>7.082095968274272</v>
+        <v>7.082230294398963</v>
       </c>
       <c r="D14" t="n">
-        <v>7.211979172061676</v>
+        <v>7.212132001295834</v>
       </c>
       <c r="E14" t="n">
-        <v>7.153429356180277</v>
+        <v>7.153518049002998</v>
       </c>
       <c r="F14" t="n">
-        <v>7.356554830272726</v>
+        <v>7.356671429181683</v>
       </c>
       <c r="G14" t="n">
-        <v>7.074732507587083</v>
+        <v>7.074886499910806</v>
       </c>
       <c r="H14" t="n">
-        <v>7.581304282582796</v>
+        <v>7.581433048285229</v>
       </c>
       <c r="I14" t="n">
-        <v>6.939575126998339</v>
+        <v>6.939866724137078</v>
       </c>
       <c r="J14" t="n">
-        <v>7.382112440910034</v>
+        <v>7.382226572633732</v>
       </c>
       <c r="K14" t="n">
-        <v>6.698265404870712</v>
+        <v>6.698460930906987</v>
       </c>
       <c r="L14" t="n">
-        <v>7.400231790243671</v>
+        <v>7.400379986729982</v>
       </c>
       <c r="M14" t="n">
-        <v>7.180622313628901</v>
+        <v>7.180789971254406</v>
       </c>
       <c r="N14" t="n">
-        <v>7.456753922746914</v>
+        <v>7.456944951425464</v>
       </c>
       <c r="O14" t="n">
-        <v>6.986480246908035</v>
+        <v>6.986701564479766</v>
       </c>
       <c r="P14" t="n">
-        <v>7.725194268476096</v>
+        <v>7.72539166078915</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.9568225358124</v>
+        <v>6.956953843327618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.018868913844631</v>
+        <v>7.019043887678959</v>
       </c>
       <c r="B15" t="n">
-        <v>7.057898702181804</v>
+        <v>7.05808098817817</v>
       </c>
       <c r="C15" t="n">
-        <v>7.035695385856139</v>
+        <v>7.035868466583223</v>
       </c>
       <c r="D15" t="n">
-        <v>7.167980276104108</v>
+        <v>7.16815943675575</v>
       </c>
       <c r="E15" t="n">
-        <v>7.103048940961688</v>
+        <v>7.10320344983803</v>
       </c>
       <c r="F15" t="n">
-        <v>7.305735878106529</v>
+        <v>7.305855950085078</v>
       </c>
       <c r="G15" t="n">
-        <v>7.031187548704048</v>
+        <v>7.031345880143393</v>
       </c>
       <c r="H15" t="n">
-        <v>7.549822023116507</v>
+        <v>7.549925280521179</v>
       </c>
       <c r="I15" t="n">
-        <v>6.904092501229031</v>
+        <v>6.90423751389016</v>
       </c>
       <c r="J15" t="n">
-        <v>7.352073393338217</v>
+        <v>7.352225111428368</v>
       </c>
       <c r="K15" t="n">
-        <v>6.676343690865919</v>
+        <v>6.676554217410858</v>
       </c>
       <c r="L15" t="n">
-        <v>7.34615827792114</v>
+        <v>7.346265153588818</v>
       </c>
       <c r="M15" t="n">
-        <v>7.137635426011969</v>
+        <v>7.137788365761887</v>
       </c>
       <c r="N15" t="n">
-        <v>7.375902523063294</v>
+        <v>7.37594833969853</v>
       </c>
       <c r="O15" t="n">
-        <v>6.949876345230878</v>
+        <v>6.950100661832527</v>
       </c>
       <c r="P15" t="n">
-        <v>7.604578274399278</v>
+        <v>7.604612862163966</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.954444316211906</v>
+        <v>6.954519112181154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.985015768171623</v>
+        <v>6.985160790341598</v>
       </c>
       <c r="B16" t="n">
-        <v>7.022722612272196</v>
+        <v>7.022858055357499</v>
       </c>
       <c r="C16" t="n">
-        <v>6.99828041082772</v>
+        <v>6.998410274565438</v>
       </c>
       <c r="D16" t="n">
-        <v>7.129922895781199</v>
+        <v>7.130030960319933</v>
       </c>
       <c r="E16" t="n">
-        <v>7.062922810255494</v>
+        <v>7.063044319623732</v>
       </c>
       <c r="F16" t="n">
-        <v>7.270096317710485</v>
+        <v>7.270252407184584</v>
       </c>
       <c r="G16" t="n">
-        <v>6.994605647208209</v>
+        <v>6.994757444492988</v>
       </c>
       <c r="H16" t="n">
-        <v>7.507764276490579</v>
+        <v>7.507884367137656</v>
       </c>
       <c r="I16" t="n">
-        <v>6.877298480401643</v>
+        <v>6.877481871978243</v>
       </c>
       <c r="J16" t="n">
-        <v>7.347946159322929</v>
+        <v>7.348166737282425</v>
       </c>
       <c r="K16" t="n">
-        <v>6.67344553364694</v>
+        <v>6.673759410061709</v>
       </c>
       <c r="L16" t="n">
-        <v>7.284422835784872</v>
+        <v>7.28454985249526</v>
       </c>
       <c r="M16" t="n">
-        <v>7.081946367041309</v>
+        <v>7.082070423498382</v>
       </c>
       <c r="N16" t="n">
-        <v>7.295183124467584</v>
+        <v>7.295382206038757</v>
       </c>
       <c r="O16" t="n">
-        <v>6.903492629618422</v>
+        <v>6.903701433026285</v>
       </c>
       <c r="P16" t="n">
-        <v>7.44421675275307</v>
+        <v>7.444355484681086</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.953531308687203</v>
+        <v>6.953661822810608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.948568801121203</v>
+        <v>6.948790160459416</v>
       </c>
       <c r="B17" t="n">
-        <v>6.983999359794724</v>
+        <v>6.984227232284535</v>
       </c>
       <c r="C17" t="n">
-        <v>6.951439091443845</v>
+        <v>6.951659036436815</v>
       </c>
       <c r="D17" t="n">
-        <v>7.087304144531658</v>
+        <v>7.087536834933845</v>
       </c>
       <c r="E17" t="n">
-        <v>6.995080851124682</v>
+        <v>6.995291325298599</v>
       </c>
       <c r="F17" t="n">
-        <v>7.250033619027077</v>
+        <v>7.250278078197771</v>
       </c>
       <c r="G17" t="n">
-        <v>6.957413607350481</v>
+        <v>6.957610194043306</v>
       </c>
       <c r="H17" t="n">
-        <v>7.451402745310959</v>
+        <v>7.451519607744278</v>
       </c>
       <c r="I17" t="n">
-        <v>6.858558725954834</v>
+        <v>6.858592905068769</v>
       </c>
       <c r="J17" t="n">
-        <v>7.318201180841399</v>
+        <v>7.318350080971311</v>
       </c>
       <c r="K17" t="n">
-        <v>6.640010391418976</v>
+        <v>6.640077984731962</v>
       </c>
       <c r="L17" t="n">
-        <v>7.250665757570285</v>
+        <v>7.250827359411235</v>
       </c>
       <c r="M17" t="n">
-        <v>7.04133769902487</v>
+        <v>7.041480081864168</v>
       </c>
       <c r="N17" t="n">
-        <v>7.228612042477583</v>
+        <v>7.228721173965758</v>
       </c>
       <c r="O17" t="n">
-        <v>6.836364943041072</v>
+        <v>6.836573988601131</v>
       </c>
       <c r="P17" t="n">
-        <v>7.285953315065238</v>
+        <v>7.286117027332607</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.927347426221704</v>
+        <v>6.927481862811334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.892940609318855</v>
+        <v>6.89318882128395</v>
       </c>
       <c r="B18" t="n">
-        <v>6.926562019748646</v>
+        <v>6.926818178568095</v>
       </c>
       <c r="C18" t="n">
-        <v>6.896192969457057</v>
+        <v>6.896420706875054</v>
       </c>
       <c r="D18" t="n">
-        <v>7.039279948732244</v>
+        <v>7.039540363827302</v>
       </c>
       <c r="E18" t="n">
-        <v>6.94277102000449</v>
+        <v>6.942946805707905</v>
       </c>
       <c r="F18" t="n">
-        <v>7.213106314684543</v>
+        <v>7.213292165354179</v>
       </c>
       <c r="G18" t="n">
-        <v>6.908232202013732</v>
+        <v>6.9084066243021</v>
       </c>
       <c r="H18" t="n">
-        <v>7.393020130807578</v>
+        <v>7.393174062559757</v>
       </c>
       <c r="I18" t="n">
-        <v>6.830086091292869</v>
+        <v>6.830255421264407</v>
       </c>
       <c r="J18" t="n">
-        <v>7.283855231106863</v>
+        <v>7.284002771340061</v>
       </c>
       <c r="K18" t="n">
-        <v>6.639276318702326</v>
+        <v>6.639516969874419</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2114299008681</v>
+        <v>7.211596653784714</v>
       </c>
       <c r="M18" t="n">
-        <v>6.994032909154559</v>
+        <v>6.99419129616616</v>
       </c>
       <c r="N18" t="n">
-        <v>7.179076434221612</v>
+        <v>7.179224263122569</v>
       </c>
       <c r="O18" t="n">
-        <v>6.789108553569663</v>
+        <v>6.78924926861813</v>
       </c>
       <c r="P18" t="n">
-        <v>7.179217968721425</v>
+        <v>7.179321065686223</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.867956470074574</v>
+        <v>6.868059755782532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.845215615985368</v>
+        <v>6.845364688074823</v>
       </c>
       <c r="B19" t="n">
-        <v>6.876079670356616</v>
+        <v>6.876243972527872</v>
       </c>
       <c r="C19" t="n">
-        <v>6.853442950458984</v>
+        <v>6.853577505577606</v>
       </c>
       <c r="D19" t="n">
-        <v>6.983265287078074</v>
+        <v>6.983452811775298</v>
       </c>
       <c r="E19" t="n">
-        <v>6.910601621541698</v>
+        <v>6.910705685188896</v>
       </c>
       <c r="F19" t="n">
-        <v>7.168124743961432</v>
+        <v>7.168283373371338</v>
       </c>
       <c r="G19" t="n">
-        <v>6.86168861841703</v>
+        <v>6.861813057015794</v>
       </c>
       <c r="H19" t="n">
-        <v>7.339645490911588</v>
+        <v>7.339770581590902</v>
       </c>
       <c r="I19" t="n">
-        <v>6.793501989778899</v>
+        <v>6.793584116752692</v>
       </c>
       <c r="J19" t="n">
-        <v>7.244901710064927</v>
+        <v>7.24494953708024</v>
       </c>
       <c r="K19" t="n">
-        <v>6.614180711872701</v>
+        <v>6.614231700236195</v>
       </c>
       <c r="L19" t="n">
-        <v>7.170326228772002</v>
+        <v>7.170457764289791</v>
       </c>
       <c r="M19" t="n">
-        <v>6.946546984458063</v>
+        <v>6.946669304292075</v>
       </c>
       <c r="N19" t="n">
-        <v>7.125490592584967</v>
+        <v>7.125602243032736</v>
       </c>
       <c r="O19" t="n">
-        <v>6.73042233656409</v>
+        <v>6.730638249736314</v>
       </c>
       <c r="P19" t="n">
-        <v>7.145632491921121</v>
+        <v>7.145895580467956</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.771798810908534</v>
+        <v>6.771869541678362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.787854543234527</v>
+        <v>6.78801576928429</v>
       </c>
       <c r="B20" t="n">
-        <v>6.814152093303503</v>
+        <v>6.814324799368436</v>
       </c>
       <c r="C20" t="n">
-        <v>6.794032927488044</v>
+        <v>6.794187666070023</v>
       </c>
       <c r="D20" t="n">
-        <v>6.91583766469542</v>
+        <v>6.916010759018268</v>
       </c>
       <c r="E20" t="n">
-        <v>6.86577478542719</v>
+        <v>6.865921299149073</v>
       </c>
       <c r="F20" t="n">
-        <v>7.10587376424294</v>
+        <v>7.10604005829421</v>
       </c>
       <c r="G20" t="n">
-        <v>6.837847755261916</v>
+        <v>6.837999626356772</v>
       </c>
       <c r="H20" t="n">
-        <v>7.279847531410072</v>
+        <v>7.279976664715337</v>
       </c>
       <c r="I20" t="n">
-        <v>6.771578809095351</v>
+        <v>6.771717737658085</v>
       </c>
       <c r="J20" t="n">
-        <v>7.175923074899342</v>
+        <v>7.176018044877888</v>
       </c>
       <c r="K20" t="n">
-        <v>6.582546651155317</v>
+        <v>6.582566994982583</v>
       </c>
       <c r="L20" t="n">
-        <v>7.118284066524515</v>
+        <v>7.118441053380564</v>
       </c>
       <c r="M20" t="n">
-        <v>6.91261977150795</v>
+        <v>6.91277227325237</v>
       </c>
       <c r="N20" t="n">
-        <v>7.067140245014186</v>
+        <v>7.067349100295339</v>
       </c>
       <c r="O20" t="n">
-        <v>6.666191340526965</v>
+        <v>6.66637528117203</v>
       </c>
       <c r="P20" t="n">
-        <v>7.162032160415055</v>
+        <v>7.162321948826278</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.628050359515046</v>
+        <v>6.628199136807139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.744024315333732</v>
+        <v>6.744109939844907</v>
       </c>
       <c r="B21" t="n">
-        <v>6.783216171673281</v>
+        <v>6.783291510836845</v>
       </c>
       <c r="C21" t="n">
-        <v>6.747724012492069</v>
+        <v>6.747805304377144</v>
       </c>
       <c r="D21" t="n">
-        <v>6.897299578577361</v>
+        <v>6.897379198925785</v>
       </c>
       <c r="E21" t="n">
-        <v>6.800038976987902</v>
+        <v>6.800136623618249</v>
       </c>
       <c r="F21" t="n">
-        <v>7.05984865158597</v>
+        <v>7.05995763787811</v>
       </c>
       <c r="G21" t="n">
-        <v>6.783465507061554</v>
+        <v>6.783614186049027</v>
       </c>
       <c r="H21" t="n">
-        <v>7.210451626138819</v>
+        <v>7.210540625817574</v>
       </c>
       <c r="I21" t="n">
-        <v>6.70665847404359</v>
+        <v>6.706900354411053</v>
       </c>
       <c r="J21" t="n">
-        <v>7.107047840585953</v>
+        <v>7.10720975593837</v>
       </c>
       <c r="K21" t="n">
-        <v>6.50646342410272</v>
+        <v>6.506659118022309</v>
       </c>
       <c r="L21" t="n">
-        <v>7.057036295074132</v>
+        <v>7.057152563590392</v>
       </c>
       <c r="M21" t="n">
-        <v>6.841996989458521</v>
+        <v>6.842147469538818</v>
       </c>
       <c r="N21" t="n">
-        <v>7.046869277947632</v>
+        <v>7.046892958548518</v>
       </c>
       <c r="O21" t="n">
-        <v>6.590704318388091</v>
+        <v>6.590939683385948</v>
       </c>
       <c r="P21" t="n">
-        <v>7.15046079838108</v>
+        <v>7.150403499852688</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.4805384104374</v>
+        <v>6.480715297610132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.705303262874391</v>
+        <v>6.705413115023997</v>
       </c>
       <c r="B22" t="n">
-        <v>6.731264210169199</v>
+        <v>6.731374535902292</v>
       </c>
       <c r="C22" t="n">
-        <v>6.709778099754505</v>
+        <v>6.709890233593019</v>
       </c>
       <c r="D22" t="n">
-        <v>6.819051533683057</v>
+        <v>6.819178861253508</v>
       </c>
       <c r="E22" t="n">
-        <v>6.765304357383412</v>
+        <v>6.765421904256764</v>
       </c>
       <c r="F22" t="n">
-        <v>6.988496196856156</v>
+        <v>6.988659616335506</v>
       </c>
       <c r="G22" t="n">
-        <v>6.733949698968769</v>
+        <v>6.734103341503494</v>
       </c>
       <c r="H22" t="n">
-        <v>7.10195699862893</v>
+        <v>7.102104154058346</v>
       </c>
       <c r="I22" t="n">
-        <v>6.660870963344856</v>
+        <v>6.66103060629389</v>
       </c>
       <c r="J22" t="n">
-        <v>7.016046290581512</v>
+        <v>7.016199945695228</v>
       </c>
       <c r="K22" t="n">
-        <v>6.425194754313433</v>
+        <v>6.425391899128795</v>
       </c>
       <c r="L22" t="n">
-        <v>6.99189302485168</v>
+        <v>6.992035972419337</v>
       </c>
       <c r="M22" t="n">
-        <v>6.779524541248094</v>
+        <v>6.77965114776123</v>
       </c>
       <c r="N22" t="n">
-        <v>7.016022823721439</v>
+        <v>7.016232213216447</v>
       </c>
       <c r="O22" t="n">
-        <v>6.488145339797843</v>
+        <v>6.488273964455492</v>
       </c>
       <c r="P22" t="n">
-        <v>7.138623967492532</v>
+        <v>7.138835593495968</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.329418431623574</v>
+        <v>6.329459091841616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.682044671184832</v>
+        <v>6.682143832109154</v>
       </c>
       <c r="B23" t="n">
-        <v>6.700813759206732</v>
+        <v>6.700916195930589</v>
       </c>
       <c r="C23" t="n">
-        <v>6.685001495553992</v>
+        <v>6.685111710708472</v>
       </c>
       <c r="D23" t="n">
-        <v>6.757079222927929</v>
+        <v>6.757159218766644</v>
       </c>
       <c r="E23" t="n">
-        <v>6.727571113065257</v>
+        <v>6.727687238250359</v>
       </c>
       <c r="F23" t="n">
-        <v>6.912338169187078</v>
+        <v>6.91242319734101</v>
       </c>
       <c r="G23" t="n">
-        <v>6.677368165975968</v>
+        <v>6.677465041532517</v>
       </c>
       <c r="H23" t="n">
-        <v>6.983079752215625</v>
+        <v>6.983210072013407</v>
       </c>
       <c r="I23" t="n">
-        <v>6.580557101424778</v>
+        <v>6.580642677353572</v>
       </c>
       <c r="J23" t="n">
-        <v>6.927007890090027</v>
+        <v>6.927146720602317</v>
       </c>
       <c r="K23" t="n">
-        <v>6.341459864198381</v>
+        <v>6.341461143029271</v>
       </c>
       <c r="L23" t="n">
-        <v>6.933530943850863</v>
+        <v>6.933643492658497</v>
       </c>
       <c r="M23" t="n">
-        <v>6.722813940524893</v>
+        <v>6.722918978637618</v>
       </c>
       <c r="N23" t="n">
-        <v>7.008786964085895</v>
+        <v>7.009019688871427</v>
       </c>
       <c r="O23" t="n">
-        <v>6.41932437259837</v>
+        <v>6.419344672311405</v>
       </c>
       <c r="P23" t="n">
-        <v>7.129862761952263</v>
+        <v>7.130184231045719</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.211466659504385</v>
+        <v>6.211439166280587</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.562068882384373</v>
+        <v>6.562135787229431</v>
       </c>
       <c r="B24" t="n">
-        <v>6.589791310863387</v>
+        <v>6.589877788596768</v>
       </c>
       <c r="C24" t="n">
-        <v>6.566287050482441</v>
+        <v>6.566351832217689</v>
       </c>
       <c r="D24" t="n">
-        <v>6.680129188731397</v>
+        <v>6.680271582525743</v>
       </c>
       <c r="E24" t="n">
-        <v>6.631193452086034</v>
+        <v>6.631264551322867</v>
       </c>
       <c r="F24" t="n">
-        <v>6.805803757832638</v>
+        <v>6.805943310732013</v>
       </c>
       <c r="G24" t="n">
-        <v>6.604979502706068</v>
+        <v>6.60506185738819</v>
       </c>
       <c r="H24" t="n">
-        <v>6.905585580201157</v>
+        <v>6.905784888203122</v>
       </c>
       <c r="I24" t="n">
-        <v>6.520094736447453</v>
+        <v>6.520262811626795</v>
       </c>
       <c r="J24" t="n">
-        <v>6.742066299196416</v>
+        <v>6.742305892067709</v>
       </c>
       <c r="K24" t="n">
-        <v>6.455539604405573</v>
+        <v>6.455501896541893</v>
       </c>
       <c r="L24" t="n">
-        <v>6.864139438615873</v>
+        <v>6.864313056557448</v>
       </c>
       <c r="M24" t="n">
-        <v>6.656411526591665</v>
+        <v>6.656557154488642</v>
       </c>
       <c r="N24" t="n">
-        <v>6.968911635446728</v>
+        <v>6.968973494981392</v>
       </c>
       <c r="O24" t="n">
-        <v>6.361689764259807</v>
+        <v>6.361836615973046</v>
       </c>
       <c r="P24" t="n">
-        <v>7.164731582662794</v>
+        <v>7.164853482536396</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.074626265044802</v>
+        <v>6.074863582637214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.457638421703326</v>
+        <v>6.457766489849206</v>
       </c>
       <c r="B25" t="n">
-        <v>6.495252131702985</v>
+        <v>6.495373552476248</v>
       </c>
       <c r="C25" t="n">
-        <v>6.462064124845162</v>
+        <v>6.462180540081303</v>
       </c>
       <c r="D25" t="n">
-        <v>6.596912769556075</v>
+        <v>6.597018444371802</v>
       </c>
       <c r="E25" t="n">
-        <v>6.52167068276921</v>
+        <v>6.521785985298844</v>
       </c>
       <c r="F25" t="n">
-        <v>6.723704214528901</v>
+        <v>6.723812202293157</v>
       </c>
       <c r="G25" t="n">
-        <v>6.497284948456784</v>
+        <v>6.497459941064106</v>
       </c>
       <c r="H25" t="n">
-        <v>6.827074266470412</v>
+        <v>6.827118138178693</v>
       </c>
       <c r="I25" t="n">
-        <v>6.262314945245674</v>
+        <v>6.262614721579877</v>
       </c>
       <c r="J25" t="n">
-        <v>6.685855835928514</v>
+        <v>6.685962399904224</v>
       </c>
       <c r="K25" t="n">
-        <v>5.954948578701202</v>
+        <v>5.955393818679632</v>
       </c>
       <c r="L25" t="n">
-        <v>6.798405830194717</v>
+        <v>6.79850858050224</v>
       </c>
       <c r="M25" t="n">
-        <v>6.590697718333695</v>
+        <v>6.590845814233314</v>
       </c>
       <c r="N25" t="n">
-        <v>6.913446978325513</v>
+        <v>6.913382422744496</v>
       </c>
       <c r="O25" t="n">
-        <v>6.268183126942604</v>
+        <v>6.268282071670198</v>
       </c>
       <c r="P25" t="n">
-        <v>7.129435958434691</v>
+        <v>7.12909593555736</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.997029792187204</v>
+        <v>5.996950719244881</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.347890517197679</v>
+        <v>6.347965981965756</v>
       </c>
       <c r="B26" t="n">
-        <v>6.390584069063703</v>
+        <v>6.390672046298026</v>
       </c>
       <c r="C26" t="n">
-        <v>6.350612672966113</v>
+        <v>6.350698454330733</v>
       </c>
       <c r="D26" t="n">
-        <v>6.489958154738459</v>
+        <v>6.490062611824836</v>
       </c>
       <c r="E26" t="n">
-        <v>6.39178381228492</v>
+        <v>6.391870344699629</v>
       </c>
       <c r="F26" t="n">
-        <v>6.612007827297844</v>
+        <v>6.612132844651502</v>
       </c>
       <c r="G26" t="n">
-        <v>6.383338676016255</v>
+        <v>6.383521856937178</v>
       </c>
       <c r="H26" t="n">
-        <v>6.622445446654556</v>
+        <v>6.622298580540741</v>
       </c>
       <c r="I26" t="n">
-        <v>6.153424314472058</v>
+        <v>6.15371403752676</v>
       </c>
       <c r="J26" t="n">
-        <v>6.527568198041232</v>
+        <v>6.526761783741239</v>
       </c>
       <c r="K26" t="n">
-        <v>5.869296372784272</v>
+        <v>5.869467976410242</v>
       </c>
       <c r="L26" t="n">
-        <v>6.710622173377746</v>
+        <v>6.710773923662745</v>
       </c>
       <c r="M26" t="n">
-        <v>6.488790678449842</v>
+        <v>6.488944982226279</v>
       </c>
       <c r="N26" t="n">
-        <v>6.87575333433373</v>
+        <v>6.875908830318856</v>
       </c>
       <c r="O26" t="n">
-        <v>6.169233644767289</v>
+        <v>6.169359385201052</v>
       </c>
       <c r="P26" t="n">
-        <v>7.10866705393097</v>
+        <v>7.108832665585093</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.875344589298323</v>
+        <v>5.875303264281449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.137205047464933</v>
+        <v>6.137351837534498</v>
       </c>
       <c r="B27" t="n">
-        <v>6.174578222148847</v>
+        <v>6.174770061827138</v>
       </c>
       <c r="C27" t="n">
-        <v>6.139933803287762</v>
+        <v>6.140051675701878</v>
       </c>
       <c r="D27" t="n">
-        <v>6.294919947298566</v>
+        <v>6.295138182909544</v>
       </c>
       <c r="E27" t="n">
-        <v>6.220522667474317</v>
+        <v>6.220470405457904</v>
       </c>
       <c r="F27" t="n">
-        <v>6.330186971290955</v>
+        <v>6.330428584183671</v>
       </c>
       <c r="G27" t="n">
-        <v>6.23759774153472</v>
+        <v>6.237421854388777</v>
       </c>
       <c r="H27" t="n">
-        <v>5.984642590096013</v>
+        <v>5.984364185911524</v>
       </c>
       <c r="I27" t="n">
-        <v>5.920208459051383</v>
+        <v>5.920364124309892</v>
       </c>
       <c r="J27" t="n">
-        <v>5.736231576108573</v>
+        <v>5.736104844509965</v>
       </c>
       <c r="K27" t="n">
-        <v>5.612406855586501</v>
+        <v>5.61250850460023</v>
       </c>
       <c r="L27" t="n">
-        <v>6.500441974475939</v>
+        <v>6.500786429160599</v>
       </c>
       <c r="M27" t="n">
-        <v>6.328640358544289</v>
+        <v>6.328657537280446</v>
       </c>
       <c r="N27" t="n">
-        <v>6.739300876404723</v>
+        <v>6.739681955910465</v>
       </c>
       <c r="O27" t="n">
-        <v>5.996974791733908</v>
+        <v>5.996936418866159</v>
       </c>
       <c r="P27" t="n">
-        <v>7.010571178790799</v>
+        <v>7.011265948359866</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.738210859087831</v>
+        <v>5.73807242995152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.873234405240223</v>
+        <v>5.873469149041297</v>
       </c>
       <c r="B28" t="n">
-        <v>5.921771571934038</v>
+        <v>5.922006101128245</v>
       </c>
       <c r="C28" t="n">
-        <v>5.874051711976193</v>
+        <v>5.874278770482771</v>
       </c>
       <c r="D28" t="n">
-        <v>6.0663468634754</v>
+        <v>6.066586596768371</v>
       </c>
       <c r="E28" t="n">
-        <v>5.945859203789604</v>
+        <v>5.946067405018443</v>
       </c>
       <c r="F28" t="n">
-        <v>6.229624875825018</v>
+        <v>6.229891054948105</v>
       </c>
       <c r="G28" t="n">
-        <v>5.912724730706322</v>
+        <v>5.913039396993364</v>
       </c>
       <c r="H28" t="n">
-        <v>6.53330804534714</v>
+        <v>6.533356091713829</v>
       </c>
       <c r="I28" t="n">
-        <v>5.655889113952781</v>
+        <v>5.656577505027592</v>
       </c>
       <c r="J28" t="n">
-        <v>6.529776282906198</v>
+        <v>6.529540457329778</v>
       </c>
       <c r="K28" t="n">
-        <v>5.373922690079504</v>
+        <v>5.374824476601555</v>
       </c>
       <c r="L28" t="n">
-        <v>6.358881807784233</v>
+        <v>6.359033741743594</v>
       </c>
       <c r="M28" t="n">
-        <v>6.098467128199915</v>
+        <v>6.098627511985276</v>
       </c>
       <c r="N28" t="n">
-        <v>6.568511268813707</v>
+        <v>6.568669960276114</v>
       </c>
       <c r="O28" t="n">
-        <v>5.809773048879545</v>
+        <v>5.810024968827925</v>
       </c>
       <c r="P28" t="n">
-        <v>6.93105299009506</v>
+        <v>6.930960888280858</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.622783241105212</v>
+        <v>5.622867112264023</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.805474213449976</v>
+        <v>5.805629252414701</v>
       </c>
       <c r="B29" t="n">
-        <v>5.837223408449591</v>
+        <v>5.83737865991151</v>
       </c>
       <c r="C29" t="n">
-        <v>5.797665982430471</v>
+        <v>5.797793744904344</v>
       </c>
       <c r="D29" t="n">
-        <v>5.926221841945014</v>
+        <v>5.92635928308168</v>
       </c>
       <c r="E29" t="n">
-        <v>5.822590354515505</v>
+        <v>5.822656603355712</v>
       </c>
       <c r="F29" t="n">
-        <v>6.0828766997088</v>
+        <v>6.082965297197621</v>
       </c>
       <c r="G29" t="n">
-        <v>5.774769293723596</v>
+        <v>5.774925605946464</v>
       </c>
       <c r="H29" t="n">
-        <v>6.304873562666279</v>
+        <v>6.304990777172415</v>
       </c>
       <c r="I29" t="n">
-        <v>5.488667202432193</v>
+        <v>5.488925365040084</v>
       </c>
       <c r="J29" t="n">
-        <v>6.308554193000807</v>
+        <v>6.308686141704653</v>
       </c>
       <c r="K29" t="n">
-        <v>5.201584636393378</v>
+        <v>5.201835361939835</v>
       </c>
       <c r="L29" t="n">
-        <v>6.252282862564592</v>
+        <v>6.252376383767897</v>
       </c>
       <c r="M29" t="n">
-        <v>5.997077092577038</v>
+        <v>5.997217292971309</v>
       </c>
       <c r="N29" t="n">
-        <v>6.487247732400061</v>
+        <v>6.487445275842388</v>
       </c>
       <c r="O29" t="n">
-        <v>5.717904691731167</v>
+        <v>5.718163736036276</v>
       </c>
       <c r="P29" t="n">
-        <v>6.867210663927889</v>
+        <v>6.8675669427312</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.557041199281217</v>
+        <v>5.557224707167662</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.658991139518641</v>
+        <v>5.659127372556584</v>
       </c>
       <c r="B30" t="n">
-        <v>5.664189782364123</v>
+        <v>5.664328676971128</v>
       </c>
       <c r="C30" t="n">
-        <v>5.640211051406082</v>
+        <v>5.640343275091069</v>
       </c>
       <c r="D30" t="n">
-        <v>5.647931648370002</v>
+        <v>5.648066579629917</v>
       </c>
       <c r="E30" t="n">
-        <v>5.599262113918589</v>
+        <v>5.599368289936878</v>
       </c>
       <c r="F30" t="n">
-        <v>5.769344415680226</v>
+        <v>5.769423260226008</v>
       </c>
       <c r="G30" t="n">
-        <v>5.559714587981063</v>
+        <v>5.559836543004447</v>
       </c>
       <c r="H30" t="n">
-        <v>6.005221559701021</v>
+        <v>6.005325974382888</v>
       </c>
       <c r="I30" t="n">
-        <v>5.559627687264856</v>
+        <v>5.559768707874613</v>
       </c>
       <c r="J30" t="n">
-        <v>5.872167396446293</v>
+        <v>5.872303851513667</v>
       </c>
       <c r="K30" t="n">
-        <v>5.422362689305831</v>
+        <v>5.422548507159632</v>
       </c>
       <c r="L30" t="n">
-        <v>5.94931213224749</v>
+        <v>5.949404160053505</v>
       </c>
       <c r="M30" t="n">
-        <v>5.760827778822277</v>
+        <v>5.760958169375519</v>
       </c>
       <c r="N30" t="n">
-        <v>6.100921248425956</v>
+        <v>6.101076910186838</v>
       </c>
       <c r="O30" t="n">
-        <v>5.518309880070595</v>
+        <v>5.518504048382215</v>
       </c>
       <c r="P30" t="n">
-        <v>6.485437850816954</v>
+        <v>6.485625827657336</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.499406590942653</v>
+        <v>5.499465110834352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.665961896969301</v>
+        <v>5.66624566107259</v>
       </c>
       <c r="B31" t="n">
-        <v>5.669960796593565</v>
+        <v>5.670232166648547</v>
       </c>
       <c r="C31" t="n">
-        <v>5.650233967344947</v>
+        <v>5.650496910659851</v>
       </c>
       <c r="D31" t="n">
-        <v>5.637253127027855</v>
+        <v>5.637458632029438</v>
       </c>
       <c r="E31" t="n">
-        <v>5.627154677133131</v>
+        <v>5.627301329696881</v>
       </c>
       <c r="F31" t="n">
-        <v>5.783791934751862</v>
+        <v>5.783909177194709</v>
       </c>
       <c r="G31" t="n">
-        <v>5.567705787175196</v>
+        <v>5.567873722522418</v>
       </c>
       <c r="H31" t="n">
-        <v>6.070331829651496</v>
+        <v>6.070435232026395</v>
       </c>
       <c r="I31" t="n">
-        <v>5.643183275902166</v>
+        <v>5.643376055409201</v>
       </c>
       <c r="J31" t="n">
-        <v>5.86229151505257</v>
+        <v>5.862496725121604</v>
       </c>
       <c r="K31" t="n">
-        <v>5.524210695369814</v>
+        <v>5.524341902988064</v>
       </c>
       <c r="L31" t="n">
-        <v>5.954724176851758</v>
+        <v>5.954885971896823</v>
       </c>
       <c r="M31" t="n">
-        <v>5.754026789437456</v>
+        <v>5.754222324321223</v>
       </c>
       <c r="N31" t="n">
-        <v>6.092652113607836</v>
+        <v>6.092814224696717</v>
       </c>
       <c r="O31" t="n">
-        <v>5.517691674975555</v>
+        <v>5.517899032359374</v>
       </c>
       <c r="P31" t="n">
-        <v>6.490018288567395</v>
+        <v>6.490111013106664</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.497726877099012</v>
+        <v>5.497895002585985</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.623566447560139</v>
+        <v>5.623588731374903</v>
       </c>
       <c r="B32" t="n">
-        <v>5.654316100988532</v>
+        <v>5.654346645947006</v>
       </c>
       <c r="C32" t="n">
-        <v>5.636557921298201</v>
+        <v>5.63658117545813</v>
       </c>
       <c r="D32" t="n">
-        <v>5.736344143702985</v>
+        <v>5.736410652608783</v>
       </c>
       <c r="E32" t="n">
-        <v>5.735352668864913</v>
+        <v>5.735355357994398</v>
       </c>
       <c r="F32" t="n">
-        <v>5.871549191351252</v>
+        <v>5.871597632810643</v>
       </c>
       <c r="G32" t="n">
-        <v>5.728981416355174</v>
+        <v>5.729079325117461</v>
       </c>
       <c r="H32" t="n">
-        <v>6.138489858053913</v>
+        <v>6.138582770133696</v>
       </c>
       <c r="I32" t="n">
-        <v>5.850729686430499</v>
+        <v>5.850869417191732</v>
       </c>
       <c r="J32" t="n">
-        <v>5.929410768227082</v>
+        <v>5.929514166633513</v>
       </c>
       <c r="K32" t="n">
-        <v>5.776329473248742</v>
+        <v>5.776423845624845</v>
       </c>
       <c r="L32" t="n">
-        <v>5.97172921700163</v>
+        <v>5.971779852636431</v>
       </c>
       <c r="M32" t="n">
-        <v>5.815896799349455</v>
+        <v>5.815973559699772</v>
       </c>
       <c r="N32" t="n">
-        <v>6.121648352585172</v>
+        <v>6.121750124349126</v>
       </c>
       <c r="O32" t="n">
-        <v>5.533756574043764</v>
+        <v>5.533894555974157</v>
       </c>
       <c r="P32" t="n">
-        <v>6.489851820528754</v>
+        <v>6.490188015145934</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.484296866413341</v>
+        <v>5.484212840236719</v>
       </c>
     </row>
   </sheetData>
@@ -5636,1645 +5636,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.388388267633306</v>
+        <v>2.388525156107884</v>
       </c>
       <c r="B2" t="n">
-        <v>2.361161209903638</v>
+        <v>2.361290268170602</v>
       </c>
       <c r="C2" t="n">
-        <v>2.352697740150542</v>
+        <v>2.352833977553172</v>
       </c>
       <c r="D2" t="n">
-        <v>2.391129306890704</v>
+        <v>2.391253595032708</v>
       </c>
       <c r="E2" t="n">
-        <v>2.375764930262634</v>
+        <v>2.375904521871421</v>
       </c>
       <c r="F2" t="n">
-        <v>2.609806342487273</v>
+        <v>2.609924719506322</v>
       </c>
       <c r="G2" t="n">
-        <v>2.589842644619796</v>
+        <v>2.589973124454913</v>
       </c>
       <c r="H2" t="n">
-        <v>2.911044741860414</v>
+        <v>2.91116623071901</v>
       </c>
       <c r="I2" t="n">
-        <v>2.815534254694816</v>
+        <v>2.815636767447058</v>
       </c>
       <c r="J2" t="n">
-        <v>3.135274806556531</v>
+        <v>3.135363168201238</v>
       </c>
       <c r="K2" t="n">
-        <v>2.885228629092618</v>
+        <v>2.885274111676058</v>
       </c>
       <c r="L2" t="n">
-        <v>3.036615360104926</v>
+        <v>3.036676621319188</v>
       </c>
       <c r="M2" t="n">
-        <v>3.020184891357146</v>
+        <v>3.020256119782906</v>
       </c>
       <c r="N2" t="n">
-        <v>3.370921682012863</v>
+        <v>3.370972174579757</v>
       </c>
       <c r="O2" t="n">
-        <v>3.335662358083935</v>
+        <v>3.33571660756149</v>
       </c>
       <c r="P2" t="n">
-        <v>3.73370943865529</v>
+        <v>3.73380138350664</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.688786901752048</v>
+        <v>3.68881715884109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.378671154214762</v>
+        <v>2.37880254862083</v>
       </c>
       <c r="B3" t="n">
-        <v>2.352083935091765</v>
+        <v>2.352222728031914</v>
       </c>
       <c r="C3" t="n">
-        <v>2.344923059407548</v>
+        <v>2.345063738438006</v>
       </c>
       <c r="D3" t="n">
-        <v>2.393409259014643</v>
+        <v>2.393543855686445</v>
       </c>
       <c r="E3" t="n">
-        <v>2.382340417788943</v>
+        <v>2.382481046039703</v>
       </c>
       <c r="F3" t="n">
-        <v>2.626102243459323</v>
+        <v>2.626181683378248</v>
       </c>
       <c r="G3" t="n">
-        <v>2.605150554115817</v>
+        <v>2.605263896072181</v>
       </c>
       <c r="H3" t="n">
-        <v>2.918412235914178</v>
+        <v>2.918525242276833</v>
       </c>
       <c r="I3" t="n">
-        <v>2.844359992266936</v>
+        <v>2.844480264652342</v>
       </c>
       <c r="J3" t="n">
-        <v>3.045744335342897</v>
+        <v>3.045809796529445</v>
       </c>
       <c r="K3" t="n">
-        <v>2.884899359712223</v>
+        <v>2.884941536201684</v>
       </c>
       <c r="L3" t="n">
-        <v>3.073815466695805</v>
+        <v>3.07388217331289</v>
       </c>
       <c r="M3" t="n">
-        <v>3.055423865118355</v>
+        <v>3.055495369702374</v>
       </c>
       <c r="N3" t="n">
-        <v>3.416941661294192</v>
+        <v>3.417020860769129</v>
       </c>
       <c r="O3" t="n">
-        <v>3.347162586198315</v>
+        <v>3.347224378992304</v>
       </c>
       <c r="P3" t="n">
-        <v>3.694042745068957</v>
+        <v>3.694158166955455</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.709441405312916</v>
+        <v>3.709470939155372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.431829642329302</v>
+        <v>2.431862453823985</v>
       </c>
       <c r="B4" t="n">
-        <v>2.404194297901339</v>
+        <v>2.404229905355327</v>
       </c>
       <c r="C4" t="n">
-        <v>2.397559959890003</v>
+        <v>2.397595262981215</v>
       </c>
       <c r="D4" t="n">
-        <v>2.445264053051237</v>
+        <v>2.445299493014907</v>
       </c>
       <c r="E4" t="n">
-        <v>2.435065502331515</v>
+        <v>2.435109923161132</v>
       </c>
       <c r="F4" t="n">
-        <v>2.664978213862113</v>
+        <v>2.664980444232098</v>
       </c>
       <c r="G4" t="n">
-        <v>2.659961805851883</v>
+        <v>2.659999512320418</v>
       </c>
       <c r="H4" t="n">
-        <v>2.936500051654592</v>
+        <v>2.936536019262244</v>
       </c>
       <c r="I4" t="n">
-        <v>2.89648905523063</v>
+        <v>2.896538409992225</v>
       </c>
       <c r="J4" t="n">
-        <v>2.99728948599418</v>
+        <v>2.997323812458967</v>
       </c>
       <c r="K4" t="n">
-        <v>2.937777712184645</v>
+        <v>2.937810403012173</v>
       </c>
       <c r="L4" t="n">
-        <v>3.089088725906249</v>
+        <v>3.089106209829457</v>
       </c>
       <c r="M4" t="n">
-        <v>3.078791907709973</v>
+        <v>3.078827537615954</v>
       </c>
       <c r="N4" t="n">
-        <v>3.369223268015101</v>
+        <v>3.369217994789895</v>
       </c>
       <c r="O4" t="n">
-        <v>3.331512023878263</v>
+        <v>3.331549697207814</v>
       </c>
       <c r="P4" t="n">
-        <v>3.701775808802291</v>
+        <v>3.701851770707727</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.693026336692058</v>
+        <v>3.693100672282804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.467178616997102</v>
+        <v>2.467245990897992</v>
       </c>
       <c r="B5" t="n">
-        <v>2.442395412742193</v>
+        <v>2.442472051468163</v>
       </c>
       <c r="C5" t="n">
-        <v>2.431559590103622</v>
+        <v>2.431640797953799</v>
       </c>
       <c r="D5" t="n">
-        <v>2.485385417051479</v>
+        <v>2.48546228999298</v>
       </c>
       <c r="E5" t="n">
-        <v>2.463384502393941</v>
+        <v>2.463474907693806</v>
       </c>
       <c r="F5" t="n">
-        <v>2.703665716044943</v>
+        <v>2.703716136749021</v>
       </c>
       <c r="G5" t="n">
-        <v>2.672868578891871</v>
+        <v>2.672955288765897</v>
       </c>
       <c r="H5" t="n">
-        <v>2.966644333427048</v>
+        <v>2.966702118161096</v>
       </c>
       <c r="I5" t="n">
-        <v>2.890712357621014</v>
+        <v>2.890790757775235</v>
       </c>
       <c r="J5" t="n">
-        <v>2.970544782239914</v>
+        <v>2.970592371187964</v>
       </c>
       <c r="K5" t="n">
-        <v>2.931382259475455</v>
+        <v>2.931420883796406</v>
       </c>
       <c r="L5" t="n">
-        <v>3.113533860708235</v>
+        <v>3.113565724265598</v>
       </c>
       <c r="M5" t="n">
-        <v>3.089336961285456</v>
+        <v>3.089375350290527</v>
       </c>
       <c r="N5" t="n">
-        <v>3.407998587588359</v>
+        <v>3.408079090627917</v>
       </c>
       <c r="O5" t="n">
-        <v>3.341041035746536</v>
+        <v>3.341088416491564</v>
       </c>
       <c r="P5" t="n">
-        <v>3.698020744520969</v>
+        <v>3.698147972618808</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.684365231976787</v>
+        <v>3.684439042893986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.487501651159441</v>
+        <v>2.487662714934234</v>
       </c>
       <c r="B6" t="n">
-        <v>2.461665188223926</v>
+        <v>2.461832197522698</v>
       </c>
       <c r="C6" t="n">
-        <v>2.450947249890251</v>
+        <v>2.45112084718377</v>
       </c>
       <c r="D6" t="n">
-        <v>2.501025895955093</v>
+        <v>2.501196740026999</v>
       </c>
       <c r="E6" t="n">
-        <v>2.478067973410214</v>
+        <v>2.478256365822755</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7301671344608</v>
+        <v>2.730273773417099</v>
       </c>
       <c r="G6" t="n">
-        <v>2.681284748255134</v>
+        <v>2.681426979791182</v>
       </c>
       <c r="H6" t="n">
-        <v>2.979086535971534</v>
+        <v>2.979168748319018</v>
       </c>
       <c r="I6" t="n">
-        <v>2.909632880224321</v>
+        <v>2.90974645978541</v>
       </c>
       <c r="J6" t="n">
-        <v>2.919358060376014</v>
+        <v>2.919437166427624</v>
       </c>
       <c r="K6" t="n">
-        <v>2.91664818804215</v>
+        <v>2.916721377837823</v>
       </c>
       <c r="L6" t="n">
-        <v>3.14513015444769</v>
+        <v>3.145158560949223</v>
       </c>
       <c r="M6" t="n">
-        <v>3.107289109241075</v>
+        <v>3.107325992350031</v>
       </c>
       <c r="N6" t="n">
-        <v>3.455215376733396</v>
+        <v>3.455104236010517</v>
       </c>
       <c r="O6" t="n">
-        <v>3.347797291429344</v>
+        <v>3.347719392101901</v>
       </c>
       <c r="P6" t="n">
-        <v>3.720280527978685</v>
+        <v>3.720098320603857</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.668102331276714</v>
+        <v>3.667854270340593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.52013452010867</v>
+        <v>2.520233294178408</v>
       </c>
       <c r="B7" t="n">
-        <v>2.497149830676521</v>
+        <v>2.497254785630906</v>
       </c>
       <c r="C7" t="n">
-        <v>2.486880696041736</v>
+        <v>2.486988763752427</v>
       </c>
       <c r="D7" t="n">
-        <v>2.541299427876118</v>
+        <v>2.541402254803048</v>
       </c>
       <c r="E7" t="n">
-        <v>2.517910485112248</v>
+        <v>2.518026635738737</v>
       </c>
       <c r="F7" t="n">
-        <v>2.762188948373916</v>
+        <v>2.762245203460472</v>
       </c>
       <c r="G7" t="n">
-        <v>2.712921008990649</v>
+        <v>2.713024399929525</v>
       </c>
       <c r="H7" t="n">
-        <v>3.0091030333575</v>
+        <v>3.009132258519313</v>
       </c>
       <c r="I7" t="n">
-        <v>2.926373368193843</v>
+        <v>2.926452235543371</v>
       </c>
       <c r="J7" t="n">
-        <v>2.938783670475417</v>
+        <v>2.938787228881778</v>
       </c>
       <c r="K7" t="n">
-        <v>2.937025305983564</v>
+        <v>2.936975480900653</v>
       </c>
       <c r="L7" t="n">
-        <v>3.169137118971756</v>
+        <v>3.169164863382798</v>
       </c>
       <c r="M7" t="n">
-        <v>3.131794744541686</v>
+        <v>3.131840874919171</v>
       </c>
       <c r="N7" t="n">
-        <v>3.477022323125647</v>
+        <v>3.47706998440342</v>
       </c>
       <c r="O7" t="n">
-        <v>3.365351969442481</v>
+        <v>3.365439028043593</v>
       </c>
       <c r="P7" t="n">
-        <v>3.726900382537319</v>
+        <v>3.726979369503636</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.669677544259094</v>
+        <v>3.669668951732739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.576950721702198</v>
+        <v>2.576893044717468</v>
       </c>
       <c r="B8" t="n">
-        <v>2.553275043241815</v>
+        <v>2.553210517525206</v>
       </c>
       <c r="C8" t="n">
-        <v>2.542196301934522</v>
+        <v>2.54212937405959</v>
       </c>
       <c r="D8" t="n">
-        <v>2.583165039585201</v>
+        <v>2.583111142726763</v>
       </c>
       <c r="E8" t="n">
-        <v>2.558871889369155</v>
+        <v>2.558822132806151</v>
       </c>
       <c r="F8" t="n">
-        <v>2.784242846801462</v>
+        <v>2.784264486604487</v>
       </c>
       <c r="G8" t="n">
-        <v>2.731720163927018</v>
+        <v>2.731799880500168</v>
       </c>
       <c r="H8" t="n">
-        <v>3.010133558517412</v>
+        <v>3.010164269183729</v>
       </c>
       <c r="I8" t="n">
-        <v>2.927820063450356</v>
+        <v>2.927961108836699</v>
       </c>
       <c r="J8" t="n">
-        <v>2.976049777610251</v>
+        <v>2.976070882943883</v>
       </c>
       <c r="K8" t="n">
-        <v>2.963463657212975</v>
+        <v>2.963412481040539</v>
       </c>
       <c r="L8" t="n">
-        <v>3.176597380456744</v>
+        <v>3.176724630257291</v>
       </c>
       <c r="M8" t="n">
-        <v>3.138420832485028</v>
+        <v>3.138575619944335</v>
       </c>
       <c r="N8" t="n">
-        <v>3.502713401529618</v>
+        <v>3.502832666685123</v>
       </c>
       <c r="O8" t="n">
-        <v>3.385112165632765</v>
+        <v>3.385261553010129</v>
       </c>
       <c r="P8" t="n">
-        <v>3.732020558069433</v>
+        <v>3.732172240361499</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.681413540983267</v>
+        <v>3.681556233214243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.601039270231985</v>
+        <v>2.601161887437319</v>
       </c>
       <c r="B9" t="n">
-        <v>2.577409242147837</v>
+        <v>2.577515111191861</v>
       </c>
       <c r="C9" t="n">
-        <v>2.565925147499757</v>
+        <v>2.566030807049207</v>
       </c>
       <c r="D9" t="n">
-        <v>2.602754001030892</v>
+        <v>2.602840165217042</v>
       </c>
       <c r="E9" t="n">
-        <v>2.579071539181269</v>
+        <v>2.579159838083045</v>
       </c>
       <c r="F9" t="n">
-        <v>2.789630141201747</v>
+        <v>2.789759132121016</v>
       </c>
       <c r="G9" t="n">
-        <v>2.736926690170805</v>
+        <v>2.737052886283939</v>
       </c>
       <c r="H9" t="n">
-        <v>2.989588139188914</v>
+        <v>2.989716377655402</v>
       </c>
       <c r="I9" t="n">
-        <v>2.917777897352837</v>
+        <v>2.91786082468084</v>
       </c>
       <c r="J9" t="n">
-        <v>2.959246039119439</v>
+        <v>2.959164535207441</v>
       </c>
       <c r="K9" t="n">
-        <v>2.972737650312801</v>
+        <v>2.972644475534527</v>
       </c>
       <c r="L9" t="n">
-        <v>3.181097884215062</v>
+        <v>3.181172414716116</v>
       </c>
       <c r="M9" t="n">
-        <v>3.143432107119616</v>
+        <v>3.143507417221433</v>
       </c>
       <c r="N9" t="n">
-        <v>3.490827070233104</v>
+        <v>3.490946118556373</v>
       </c>
       <c r="O9" t="n">
-        <v>3.387574352591956</v>
+        <v>3.387714617975466</v>
       </c>
       <c r="P9" t="n">
-        <v>3.714531513930561</v>
+        <v>3.714749612285565</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.701635007641855</v>
+        <v>3.701787602341668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.551656379901331</v>
+        <v>2.551765629259748</v>
       </c>
       <c r="B10" t="n">
-        <v>2.528877392164507</v>
+        <v>2.528979075795857</v>
       </c>
       <c r="C10" t="n">
-        <v>2.517467548128376</v>
+        <v>2.517569023619642</v>
       </c>
       <c r="D10" t="n">
-        <v>2.567477260291754</v>
+        <v>2.567572131201941</v>
       </c>
       <c r="E10" t="n">
-        <v>2.545164126394342</v>
+        <v>2.545263357057906</v>
       </c>
       <c r="F10" t="n">
-        <v>2.760657002414795</v>
+        <v>2.7607354134762</v>
       </c>
       <c r="G10" t="n">
-        <v>2.727136976153912</v>
+        <v>2.727268860503655</v>
       </c>
       <c r="H10" t="n">
-        <v>2.924104049490875</v>
+        <v>2.923928768713558</v>
       </c>
       <c r="I10" t="n">
-        <v>2.909115509293656</v>
+        <v>2.909252180028568</v>
       </c>
       <c r="J10" t="n">
-        <v>2.947096438986485</v>
+        <v>2.946926344432689</v>
       </c>
       <c r="K10" t="n">
-        <v>2.968568065948477</v>
+        <v>2.968848458336672</v>
       </c>
       <c r="L10" t="n">
-        <v>3.180621946959213</v>
+        <v>3.180787037843385</v>
       </c>
       <c r="M10" t="n">
-        <v>3.14949572376059</v>
+        <v>3.149663546922934</v>
       </c>
       <c r="N10" t="n">
-        <v>3.495237373248018</v>
+        <v>3.495463938203297</v>
       </c>
       <c r="O10" t="n">
-        <v>3.388730828789914</v>
+        <v>3.388798146670918</v>
       </c>
       <c r="P10" t="n">
-        <v>3.713479905263553</v>
+        <v>3.713664250208226</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.718674881412148</v>
+        <v>3.718835120483441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.509340131144914</v>
+        <v>2.509211002271377</v>
       </c>
       <c r="B11" t="n">
-        <v>2.484509076495639</v>
+        <v>2.484381144693982</v>
       </c>
       <c r="C11" t="n">
-        <v>2.475601203079915</v>
+        <v>2.475473292117686</v>
       </c>
       <c r="D11" t="n">
-        <v>2.531574797728958</v>
+        <v>2.531470091766264</v>
       </c>
       <c r="E11" t="n">
-        <v>2.51261430812959</v>
+        <v>2.512510172977747</v>
       </c>
       <c r="F11" t="n">
-        <v>2.769042921528745</v>
+        <v>2.768960881314007</v>
       </c>
       <c r="G11" t="n">
-        <v>2.720272552912957</v>
+        <v>2.720245907845793</v>
       </c>
       <c r="H11" t="n">
-        <v>3.012208725620247</v>
+        <v>3.012202439827948</v>
       </c>
       <c r="I11" t="n">
-        <v>2.958174263619556</v>
+        <v>2.958171208900849</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94339344180095</v>
+        <v>2.943229146518564</v>
       </c>
       <c r="K11" t="n">
-        <v>2.991394904079668</v>
+        <v>2.991228551036127</v>
       </c>
       <c r="L11" t="n">
-        <v>3.186332094020341</v>
+        <v>3.186414053532185</v>
       </c>
       <c r="M11" t="n">
-        <v>3.150857534984184</v>
+        <v>3.150974048296046</v>
       </c>
       <c r="N11" t="n">
-        <v>3.523633007275368</v>
+        <v>3.52361661711341</v>
       </c>
       <c r="O11" t="n">
-        <v>3.369720838782579</v>
+        <v>3.369860778479617</v>
       </c>
       <c r="P11" t="n">
-        <v>3.73009370885565</v>
+        <v>3.730158453696382</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.704904967925111</v>
+        <v>3.704951652802938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.493699102236767</v>
+        <v>2.493921880697807</v>
       </c>
       <c r="B12" t="n">
-        <v>2.470901414345823</v>
+        <v>2.47113624392486</v>
       </c>
       <c r="C12" t="n">
-        <v>2.459280368569038</v>
+        <v>2.459505635907591</v>
       </c>
       <c r="D12" t="n">
-        <v>2.521842284183492</v>
+        <v>2.522089593339397</v>
       </c>
       <c r="E12" t="n">
-        <v>2.496554175767332</v>
+        <v>2.496771872841766</v>
       </c>
       <c r="F12" t="n">
-        <v>2.758463767672219</v>
+        <v>2.75866680869265</v>
       </c>
       <c r="G12" t="n">
-        <v>2.705316646318027</v>
+        <v>2.705541451756114</v>
       </c>
       <c r="H12" t="n">
-        <v>3.000128059388756</v>
+        <v>3.000304708069685</v>
       </c>
       <c r="I12" t="n">
-        <v>2.934693286763838</v>
+        <v>2.934857374806143</v>
       </c>
       <c r="J12" t="n">
-        <v>2.952716385304209</v>
+        <v>2.952828367404597</v>
       </c>
       <c r="K12" t="n">
-        <v>2.988650564795071</v>
+        <v>2.98869830069333</v>
       </c>
       <c r="L12" t="n">
-        <v>3.170319262047918</v>
+        <v>3.170408262978831</v>
       </c>
       <c r="M12" t="n">
-        <v>3.134832602912036</v>
+        <v>3.134928290017547</v>
       </c>
       <c r="N12" t="n">
-        <v>3.508517049361349</v>
+        <v>3.508536317736815</v>
       </c>
       <c r="O12" t="n">
-        <v>3.367825156492331</v>
+        <v>3.36788915959791</v>
       </c>
       <c r="P12" t="n">
-        <v>3.725321136188364</v>
+        <v>3.725310258633349</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.706088944349716</v>
+        <v>3.706048748524357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.469312634584963</v>
+        <v>2.4690938565023</v>
       </c>
       <c r="B13" t="n">
-        <v>2.443841191324485</v>
+        <v>2.44361296501669</v>
       </c>
       <c r="C13" t="n">
-        <v>2.432889501064305</v>
+        <v>2.432658324901305</v>
       </c>
       <c r="D13" t="n">
-        <v>2.493722935766529</v>
+        <v>2.493521286755411</v>
       </c>
       <c r="E13" t="n">
-        <v>2.470557661512727</v>
+        <v>2.470349723095167</v>
       </c>
       <c r="F13" t="n">
-        <v>2.741353126652019</v>
+        <v>2.74126544784661</v>
       </c>
       <c r="G13" t="n">
-        <v>2.693476698737125</v>
+        <v>2.693399880206827</v>
       </c>
       <c r="H13" t="n">
-        <v>2.985097535512188</v>
+        <v>2.985174357367564</v>
       </c>
       <c r="I13" t="n">
-        <v>2.919695213154715</v>
+        <v>2.919777625444114</v>
       </c>
       <c r="J13" t="n">
-        <v>2.958260981000918</v>
+        <v>2.95825114435114</v>
       </c>
       <c r="K13" t="n">
-        <v>2.964230730201602</v>
+        <v>2.964162700908862</v>
       </c>
       <c r="L13" t="n">
-        <v>3.171716273561621</v>
+        <v>3.171769732368412</v>
       </c>
       <c r="M13" t="n">
-        <v>3.140598850435526</v>
+        <v>3.140661641855815</v>
       </c>
       <c r="N13" t="n">
-        <v>3.508233247022344</v>
+        <v>3.508218042641162</v>
       </c>
       <c r="O13" t="n">
-        <v>3.376797197103566</v>
+        <v>3.376805629069076</v>
       </c>
       <c r="P13" t="n">
-        <v>3.701067769633535</v>
+        <v>3.70101061509779</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.710537381012248</v>
+        <v>3.710458031963547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.451391653552878</v>
+        <v>2.45146698968411</v>
       </c>
       <c r="B14" t="n">
-        <v>2.429477456276702</v>
+        <v>2.429551475954922</v>
       </c>
       <c r="C14" t="n">
-        <v>2.420209696561582</v>
+        <v>2.420288497307037</v>
       </c>
       <c r="D14" t="n">
-        <v>2.483229949286832</v>
+        <v>2.48329046580917</v>
       </c>
       <c r="E14" t="n">
-        <v>2.467427035711153</v>
+        <v>2.467502114347662</v>
       </c>
       <c r="F14" t="n">
-        <v>2.703407580584143</v>
+        <v>2.703459096608408</v>
       </c>
       <c r="G14" t="n">
-        <v>2.678563325826077</v>
+        <v>2.678659306493967</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92168457955041</v>
+        <v>2.921732743888834</v>
       </c>
       <c r="I14" t="n">
-        <v>2.91695729058967</v>
+        <v>2.917020219085469</v>
       </c>
       <c r="J14" t="n">
-        <v>2.93585287965415</v>
+        <v>2.935883518648519</v>
       </c>
       <c r="K14" t="n">
-        <v>2.990434229495441</v>
+        <v>2.990427546489523</v>
       </c>
       <c r="L14" t="n">
-        <v>3.144957453024342</v>
+        <v>3.144979256200635</v>
       </c>
       <c r="M14" t="n">
-        <v>3.123688044395633</v>
+        <v>3.123733293536724</v>
       </c>
       <c r="N14" t="n">
-        <v>3.508984919884048</v>
+        <v>3.508995029885042</v>
       </c>
       <c r="O14" t="n">
-        <v>3.380917464394769</v>
+        <v>3.380978039568415</v>
       </c>
       <c r="P14" t="n">
-        <v>3.702256146094404</v>
+        <v>3.702292882389835</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.745724471012515</v>
+        <v>3.745744399797521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.401881345505422</v>
+        <v>2.401940011377968</v>
       </c>
       <c r="B15" t="n">
-        <v>2.375317776577342</v>
+        <v>2.375388058193741</v>
       </c>
       <c r="C15" t="n">
-        <v>2.366997858007347</v>
+        <v>2.367063037719449</v>
       </c>
       <c r="D15" t="n">
-        <v>2.427102903373095</v>
+        <v>2.427197230273315</v>
       </c>
       <c r="E15" t="n">
-        <v>2.414498632826232</v>
+        <v>2.414580446138815</v>
       </c>
       <c r="F15" t="n">
-        <v>2.663741803672032</v>
+        <v>2.663867214750071</v>
       </c>
       <c r="G15" t="n">
-        <v>2.651617503747593</v>
+        <v>2.651717026305914</v>
       </c>
       <c r="H15" t="n">
-        <v>2.870985161702708</v>
+        <v>2.871103536391989</v>
       </c>
       <c r="I15" t="n">
-        <v>2.902839774237806</v>
+        <v>2.902896028363151</v>
       </c>
       <c r="J15" t="n">
-        <v>2.937870662950714</v>
+        <v>2.937886305022311</v>
       </c>
       <c r="K15" t="n">
-        <v>2.998153359780607</v>
+        <v>2.998159101246864</v>
       </c>
       <c r="L15" t="n">
-        <v>3.11975037860937</v>
+        <v>3.119847623964575</v>
       </c>
       <c r="M15" t="n">
-        <v>3.103877981127694</v>
+        <v>3.10396283661579</v>
       </c>
       <c r="N15" t="n">
-        <v>3.489864562300435</v>
+        <v>3.489960492453708</v>
       </c>
       <c r="O15" t="n">
-        <v>3.37363210435126</v>
+        <v>3.373692546624277</v>
       </c>
       <c r="P15" t="n">
-        <v>3.695674425183388</v>
+        <v>3.69579977709743</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.734921281976232</v>
+        <v>3.735009215494057</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.378687654350751</v>
+        <v>2.378732146756353</v>
       </c>
       <c r="B16" t="n">
-        <v>2.355068809692106</v>
+        <v>2.355117821370303</v>
       </c>
       <c r="C16" t="n">
-        <v>2.346821491720461</v>
+        <v>2.346875119742755</v>
       </c>
       <c r="D16" t="n">
-        <v>2.409580308957713</v>
+        <v>2.40962646494088</v>
       </c>
       <c r="E16" t="n">
-        <v>2.396049097437978</v>
+        <v>2.396110957005178</v>
       </c>
       <c r="F16" t="n">
-        <v>2.632931833079858</v>
+        <v>2.632975096623809</v>
       </c>
       <c r="G16" t="n">
-        <v>2.630277327868977</v>
+        <v>2.630360510714192</v>
       </c>
       <c r="H16" t="n">
-        <v>2.831083616180803</v>
+        <v>2.831151211654589</v>
       </c>
       <c r="I16" t="n">
-        <v>2.864876261355187</v>
+        <v>2.864968307244003</v>
       </c>
       <c r="J16" t="n">
-        <v>2.950851869937495</v>
+        <v>2.950836214645751</v>
       </c>
       <c r="K16" t="n">
-        <v>3.002599046420474</v>
+        <v>3.002602668927349</v>
       </c>
       <c r="L16" t="n">
-        <v>3.097197626070435</v>
+        <v>3.097256692348069</v>
       </c>
       <c r="M16" t="n">
-        <v>3.088723156226679</v>
+        <v>3.088801501759772</v>
       </c>
       <c r="N16" t="n">
-        <v>3.438858608593033</v>
+        <v>3.438870006073994</v>
       </c>
       <c r="O16" t="n">
-        <v>3.374152408639434</v>
+        <v>3.374218727225959</v>
       </c>
       <c r="P16" t="n">
-        <v>3.654961622975376</v>
+        <v>3.654996763164278</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.72106666779112</v>
+        <v>3.721074779797085</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.389050289756138</v>
+        <v>2.389236508280194</v>
       </c>
       <c r="B17" t="n">
-        <v>2.361133159672458</v>
+        <v>2.361326385793784</v>
       </c>
       <c r="C17" t="n">
-        <v>2.359737798172353</v>
+        <v>2.359924398664491</v>
       </c>
       <c r="D17" t="n">
-        <v>2.401670143764768</v>
+        <v>2.401854759120204</v>
       </c>
       <c r="E17" t="n">
-        <v>2.402675552051008</v>
+        <v>2.402848635441362</v>
       </c>
       <c r="F17" t="n">
-        <v>2.612802033843429</v>
+        <v>2.612971800203175</v>
       </c>
       <c r="G17" t="n">
-        <v>2.627739606953927</v>
+        <v>2.627900295559494</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82376452252594</v>
+        <v>2.823926586989112</v>
       </c>
       <c r="I17" t="n">
-        <v>2.862758927238159</v>
+        <v>2.862923353086801</v>
       </c>
       <c r="J17" t="n">
-        <v>2.988642681396766</v>
+        <v>2.988593797925748</v>
       </c>
       <c r="K17" t="n">
-        <v>3.021019798238171</v>
+        <v>3.021051807522036</v>
       </c>
       <c r="L17" t="n">
-        <v>3.097274993374737</v>
+        <v>3.097484031702106</v>
       </c>
       <c r="M17" t="n">
-        <v>3.087110542936058</v>
+        <v>3.087308762227053</v>
       </c>
       <c r="N17" t="n">
-        <v>3.440812591363774</v>
+        <v>3.441009562736586</v>
       </c>
       <c r="O17" t="n">
-        <v>3.363983558164492</v>
+        <v>3.364152360635018</v>
       </c>
       <c r="P17" t="n">
-        <v>3.723810090401495</v>
+        <v>3.724035324868854</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.676597334623033</v>
+        <v>3.676793107070786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.384328684175572</v>
+        <v>2.384432497720648</v>
       </c>
       <c r="B18" t="n">
-        <v>2.352388087598489</v>
+        <v>2.352487468376454</v>
       </c>
       <c r="C18" t="n">
-        <v>2.35362578113248</v>
+        <v>2.353720967710295</v>
       </c>
       <c r="D18" t="n">
-        <v>2.389732845381534</v>
+        <v>2.389832540731787</v>
       </c>
       <c r="E18" t="n">
-        <v>2.399151123003839</v>
+        <v>2.39924273994523</v>
       </c>
       <c r="F18" t="n">
-        <v>2.612187678780119</v>
+        <v>2.612279331864305</v>
       </c>
       <c r="G18" t="n">
-        <v>2.633305102822889</v>
+        <v>2.633404291323648</v>
       </c>
       <c r="H18" t="n">
-        <v>2.837339367738622</v>
+        <v>2.837427244531526</v>
       </c>
       <c r="I18" t="n">
-        <v>2.879483465076225</v>
+        <v>2.879578710842859</v>
       </c>
       <c r="J18" t="n">
-        <v>3.013214133906487</v>
+        <v>3.013170098788116</v>
       </c>
       <c r="K18" t="n">
-        <v>3.017719404370758</v>
+        <v>3.017620449981584</v>
       </c>
       <c r="L18" t="n">
-        <v>3.07898624264495</v>
+        <v>3.079057810381012</v>
       </c>
       <c r="M18" t="n">
-        <v>3.069263079176544</v>
+        <v>3.069336486261278</v>
       </c>
       <c r="N18" t="n">
-        <v>3.426716708523539</v>
+        <v>3.426827253808439</v>
       </c>
       <c r="O18" t="n">
-        <v>3.346102544128468</v>
+        <v>3.346218952365255</v>
       </c>
       <c r="P18" t="n">
-        <v>3.713511072187087</v>
+        <v>3.713650316505882</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.67582659493752</v>
+        <v>3.675929217525444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.382892989009718</v>
+        <v>2.38277530383263</v>
       </c>
       <c r="B19" t="n">
-        <v>2.350035168206511</v>
+        <v>2.349905333326244</v>
       </c>
       <c r="C19" t="n">
-        <v>2.348718640689464</v>
+        <v>2.34859666533502</v>
       </c>
       <c r="D19" t="n">
-        <v>2.386444551613846</v>
+        <v>2.386334264752445</v>
       </c>
       <c r="E19" t="n">
-        <v>2.391344358663089</v>
+        <v>2.391248278225235</v>
       </c>
       <c r="F19" t="n">
-        <v>2.621821008174809</v>
+        <v>2.621840785083458</v>
       </c>
       <c r="G19" t="n">
-        <v>2.634908549371294</v>
+        <v>2.634955882414953</v>
       </c>
       <c r="H19" t="n">
-        <v>2.846396292382777</v>
+        <v>2.846488734509986</v>
       </c>
       <c r="I19" t="n">
-        <v>2.893883133753494</v>
+        <v>2.893992209227008</v>
       </c>
       <c r="J19" t="n">
-        <v>3.045632134418175</v>
+        <v>3.045731694461042</v>
       </c>
       <c r="K19" t="n">
-        <v>3.038477125448976</v>
+        <v>3.038535670553009</v>
       </c>
       <c r="L19" t="n">
-        <v>3.077178927749663</v>
+        <v>3.077355698636752</v>
       </c>
       <c r="M19" t="n">
-        <v>3.062212937738295</v>
+        <v>3.062406669403295</v>
       </c>
       <c r="N19" t="n">
-        <v>3.44295870905136</v>
+        <v>3.443096318000822</v>
       </c>
       <c r="O19" t="n">
-        <v>3.334341980535156</v>
+        <v>3.334504008781166</v>
       </c>
       <c r="P19" t="n">
-        <v>3.723375586820461</v>
+        <v>3.723468443189271</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.681699543340403</v>
+        <v>3.681840774083167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.401671243773834</v>
+        <v>2.401698004968832</v>
       </c>
       <c r="B20" t="n">
-        <v>2.368654104990915</v>
+        <v>2.368683930646097</v>
       </c>
       <c r="C20" t="n">
-        <v>2.367702597148905</v>
+        <v>2.367738272268577</v>
       </c>
       <c r="D20" t="n">
-        <v>2.400304115839755</v>
+        <v>2.400316368378489</v>
       </c>
       <c r="E20" t="n">
-        <v>2.404892253653657</v>
+        <v>2.404918156915856</v>
       </c>
       <c r="F20" t="n">
-        <v>2.649426285688305</v>
+        <v>2.649435932561614</v>
       </c>
       <c r="G20" t="n">
-        <v>2.638444895183345</v>
+        <v>2.638488075959212</v>
       </c>
       <c r="H20" t="n">
-        <v>2.896933825562946</v>
+        <v>2.897000055551471</v>
       </c>
       <c r="I20" t="n">
-        <v>2.906597405206948</v>
+        <v>2.906648411072087</v>
       </c>
       <c r="J20" t="n">
-        <v>3.086351536680581</v>
+        <v>3.086481540319459</v>
       </c>
       <c r="K20" t="n">
-        <v>3.055085612330589</v>
+        <v>3.055162060875245</v>
       </c>
       <c r="L20" t="n">
-        <v>3.104920056382798</v>
+        <v>3.105013364437268</v>
       </c>
       <c r="M20" t="n">
-        <v>3.077768899278678</v>
+        <v>3.077870145594356</v>
       </c>
       <c r="N20" t="n">
-        <v>3.493005088183602</v>
+        <v>3.493108042477992</v>
       </c>
       <c r="O20" t="n">
-        <v>3.343670057414057</v>
+        <v>3.34376992084007</v>
       </c>
       <c r="P20" t="n">
-        <v>3.729796339738167</v>
+        <v>3.72992451416755</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.742645912306727</v>
+        <v>3.742696585747912</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.442828816314161</v>
+        <v>2.442982098309237</v>
       </c>
       <c r="B21" t="n">
-        <v>2.412416315664468</v>
+        <v>2.412573993001248</v>
       </c>
       <c r="C21" t="n">
-        <v>2.406076780082796</v>
+        <v>2.406234158434629</v>
       </c>
       <c r="D21" t="n">
-        <v>2.446993267302845</v>
+        <v>2.447163859056201</v>
       </c>
       <c r="E21" t="n">
-        <v>2.436119127681811</v>
+        <v>2.43629428786039</v>
       </c>
       <c r="F21" t="n">
-        <v>2.68987050234939</v>
+        <v>2.689992906645478</v>
       </c>
       <c r="G21" t="n">
-        <v>2.655050815377137</v>
+        <v>2.655194218393551</v>
       </c>
       <c r="H21" t="n">
-        <v>2.943100839389418</v>
+        <v>2.943166994872581</v>
       </c>
       <c r="I21" t="n">
-        <v>2.926010915206626</v>
+        <v>2.92609454273714</v>
       </c>
       <c r="J21" t="n">
-        <v>3.109129424408339</v>
+        <v>3.109128206745342</v>
       </c>
       <c r="K21" t="n">
-        <v>3.058677508600466</v>
+        <v>3.058737338893859</v>
       </c>
       <c r="L21" t="n">
-        <v>3.142944803103419</v>
+        <v>3.143000303791379</v>
       </c>
       <c r="M21" t="n">
-        <v>3.102471069532398</v>
+        <v>3.102528031950713</v>
       </c>
       <c r="N21" t="n">
-        <v>3.54115175165902</v>
+        <v>3.541249717430017</v>
       </c>
       <c r="O21" t="n">
-        <v>3.350286978615182</v>
+        <v>3.350373395722097</v>
       </c>
       <c r="P21" t="n">
-        <v>3.731480086948383</v>
+        <v>3.731613792238598</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.743248350605156</v>
+        <v>3.743332402586462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.464064858001205</v>
+        <v>2.464292962691962</v>
       </c>
       <c r="B22" t="n">
-        <v>2.434490014255201</v>
+        <v>2.434725279641156</v>
       </c>
       <c r="C22" t="n">
-        <v>2.428615599173563</v>
+        <v>2.428854974175899</v>
       </c>
       <c r="D22" t="n">
-        <v>2.460020858005238</v>
+        <v>2.460229088400358</v>
       </c>
       <c r="E22" t="n">
-        <v>2.450411545475154</v>
+        <v>2.450628400808815</v>
       </c>
       <c r="F22" t="n">
-        <v>2.692903777348632</v>
+        <v>2.693037970622255</v>
       </c>
       <c r="G22" t="n">
-        <v>2.661343783908352</v>
+        <v>2.661484184972832</v>
       </c>
       <c r="H22" t="n">
-        <v>2.95399312916004</v>
+        <v>2.954106784594679</v>
       </c>
       <c r="I22" t="n">
-        <v>2.931026406542634</v>
+        <v>2.931069424488592</v>
       </c>
       <c r="J22" t="n">
-        <v>3.105882197645779</v>
+        <v>3.105761384247326</v>
       </c>
       <c r="K22" t="n">
-        <v>3.046436057710509</v>
+        <v>3.046322776781539</v>
       </c>
       <c r="L22" t="n">
-        <v>3.151998244385531</v>
+        <v>3.15214447929296</v>
       </c>
       <c r="M22" t="n">
-        <v>3.11392766395383</v>
+        <v>3.114079437870446</v>
       </c>
       <c r="N22" t="n">
-        <v>3.52287180100176</v>
+        <v>3.522994733977205</v>
       </c>
       <c r="O22" t="n">
-        <v>3.378504777843544</v>
+        <v>3.378651477953308</v>
       </c>
       <c r="P22" t="n">
-        <v>3.714346712407488</v>
+        <v>3.714505039141787</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.701069969651666</v>
+        <v>3.701237954451827</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.463638054483632</v>
+        <v>2.463872201548804</v>
       </c>
       <c r="B23" t="n">
-        <v>2.434377263325945</v>
+        <v>2.434617843462554</v>
       </c>
       <c r="C23" t="n">
-        <v>2.431187787039345</v>
+        <v>2.431426292272974</v>
       </c>
       <c r="D23" t="n">
-        <v>2.464182558971257</v>
+        <v>2.464407365721736</v>
       </c>
       <c r="E23" t="n">
-        <v>2.458932765704211</v>
+        <v>2.459152526556078</v>
       </c>
       <c r="F23" t="n">
-        <v>2.697288413485341</v>
+        <v>2.697489971859421</v>
       </c>
       <c r="G23" t="n">
-        <v>2.669573685069788</v>
+        <v>2.669740636964536</v>
       </c>
       <c r="H23" t="n">
-        <v>2.962177196610396</v>
+        <v>2.962422088144968</v>
       </c>
       <c r="I23" t="n">
-        <v>2.950674218473351</v>
+        <v>2.950825214354427</v>
       </c>
       <c r="J23" t="n">
-        <v>3.074292870630409</v>
+        <v>3.074535223941181</v>
       </c>
       <c r="K23" t="n">
-        <v>3.045013379318601</v>
+        <v>3.045212114034153</v>
       </c>
       <c r="L23" t="n">
-        <v>3.155844609419323</v>
+        <v>3.156022081984804</v>
       </c>
       <c r="M23" t="n">
-        <v>3.11536317578484</v>
+        <v>3.11552634285598</v>
       </c>
       <c r="N23" t="n">
-        <v>3.529518055777976</v>
+        <v>3.529564107956126</v>
       </c>
       <c r="O23" t="n">
-        <v>3.35391664186299</v>
+        <v>3.353927956525382</v>
       </c>
       <c r="P23" t="n">
-        <v>3.729867106988074</v>
+        <v>3.729859245772359</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.622874725192527</v>
+        <v>3.622854645267189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.474623845024856</v>
+        <v>2.474721238867476</v>
       </c>
       <c r="B24" t="n">
-        <v>2.445911591721369</v>
+        <v>2.44600167827778</v>
       </c>
       <c r="C24" t="n">
-        <v>2.443053218163606</v>
+        <v>2.443140869180685</v>
       </c>
       <c r="D24" t="n">
-        <v>2.484499909753423</v>
+        <v>2.484573833130348</v>
       </c>
       <c r="E24" t="n">
-        <v>2.475423001611238</v>
+        <v>2.475496759405845</v>
       </c>
       <c r="F24" t="n">
-        <v>2.711178227960562</v>
+        <v>2.71122713566531</v>
       </c>
       <c r="G24" t="n">
-        <v>2.639891407105014</v>
+        <v>2.639990715754122</v>
       </c>
       <c r="H24" t="n">
-        <v>2.990222844419943</v>
+        <v>2.990277942527511</v>
       </c>
       <c r="I24" t="n">
-        <v>2.791938510226555</v>
+        <v>2.792100177453033</v>
       </c>
       <c r="J24" t="n">
-        <v>3.037437616881693</v>
+        <v>3.037482575996888</v>
       </c>
       <c r="K24" t="n">
-        <v>2.718327736884432</v>
+        <v>2.718523628900772</v>
       </c>
       <c r="L24" t="n">
-        <v>3.14626169710682</v>
+        <v>3.146271423754873</v>
       </c>
       <c r="M24" t="n">
-        <v>3.091722880949411</v>
+        <v>3.091749213158328</v>
       </c>
       <c r="N24" t="n">
-        <v>3.523910942899354</v>
+        <v>3.523939659001969</v>
       </c>
       <c r="O24" t="n">
-        <v>3.370145075612331</v>
+        <v>3.370168419960322</v>
       </c>
       <c r="P24" t="n">
-        <v>3.7444730273652</v>
+        <v>3.744504300288886</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.597257347395971</v>
+        <v>3.597238266860101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.551271560063108</v>
+        <v>2.551297933540273</v>
       </c>
       <c r="B25" t="n">
-        <v>2.527522730999841</v>
+        <v>2.527547937894555</v>
       </c>
       <c r="C25" t="n">
-        <v>2.51778233405607</v>
+        <v>2.517806629912249</v>
       </c>
       <c r="D25" t="n">
-        <v>2.555109491694061</v>
+        <v>2.555151518929393</v>
       </c>
       <c r="E25" t="n">
-        <v>2.531894350362604</v>
+        <v>2.531935220751096</v>
       </c>
       <c r="F25" t="n">
-        <v>2.75579276232535</v>
+        <v>2.755840833851416</v>
       </c>
       <c r="G25" t="n">
-        <v>2.680031837929064</v>
+        <v>2.680097044570064</v>
       </c>
       <c r="H25" t="n">
-        <v>2.990783849043556</v>
+        <v>2.990816040111462</v>
       </c>
       <c r="I25" t="n">
-        <v>2.798348263053601</v>
+        <v>2.798408844527566</v>
       </c>
       <c r="J25" t="n">
-        <v>2.963106154266555</v>
+        <v>2.963127023480672</v>
       </c>
       <c r="K25" t="n">
-        <v>2.85223019046382</v>
+        <v>2.852278004495819</v>
       </c>
       <c r="L25" t="n">
-        <v>3.177617088860841</v>
+        <v>3.177616753883699</v>
       </c>
       <c r="M25" t="n">
-        <v>3.11605691483574</v>
+        <v>3.116062790396232</v>
       </c>
       <c r="N25" t="n">
-        <v>3.545323352706632</v>
+        <v>3.545254190148469</v>
       </c>
       <c r="O25" t="n">
-        <v>3.355467654645921</v>
+        <v>3.355469464016305</v>
       </c>
       <c r="P25" t="n">
-        <v>3.746679645551412</v>
+        <v>3.746629923249134</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.588650876464307</v>
+        <v>3.588663173096367</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.504736776538933</v>
+        <v>2.504842603248276</v>
       </c>
       <c r="B26" t="n">
-        <v>2.481217482700753</v>
+        <v>2.481318663589274</v>
       </c>
       <c r="C26" t="n">
-        <v>2.474536027634428</v>
+        <v>2.474634336566013</v>
       </c>
       <c r="D26" t="n">
-        <v>2.522477172749365</v>
+        <v>2.522551055560455</v>
       </c>
       <c r="E26" t="n">
-        <v>2.509315930945464</v>
+        <v>2.509386823594378</v>
       </c>
       <c r="F26" t="n">
-        <v>2.708283004099092</v>
+        <v>2.708386860445354</v>
       </c>
       <c r="G26" t="n">
-        <v>2.693544532629523</v>
+        <v>2.693604485625461</v>
       </c>
       <c r="H26" t="n">
-        <v>2.895569997656064</v>
+        <v>2.895871792337967</v>
       </c>
       <c r="I26" t="n">
-        <v>2.852286840930714</v>
+        <v>2.852327872483156</v>
       </c>
       <c r="J26" t="n">
-        <v>2.846603094087167</v>
+        <v>2.846726157464404</v>
       </c>
       <c r="K26" t="n">
-        <v>2.850631143951678</v>
+        <v>2.850610360331043</v>
       </c>
       <c r="L26" t="n">
-        <v>3.14964092495729</v>
+        <v>3.14974128231496</v>
       </c>
       <c r="M26" t="n">
-        <v>3.123888612715316</v>
+        <v>3.123963566301781</v>
       </c>
       <c r="N26" t="n">
-        <v>3.495326107312668</v>
+        <v>3.495473838465489</v>
       </c>
       <c r="O26" t="n">
-        <v>3.371376352426771</v>
+        <v>3.371538689582962</v>
       </c>
       <c r="P26" t="n">
-        <v>3.730641146700784</v>
+        <v>3.730762736366468</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.597071445863833</v>
+        <v>3.597146964442108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.569231958086721</v>
+        <v>2.56924527551238</v>
       </c>
       <c r="B27" t="n">
-        <v>2.545880232296248</v>
+        <v>2.545902657322042</v>
       </c>
       <c r="C27" t="n">
-        <v>2.537691948144472</v>
+        <v>2.537721740664098</v>
       </c>
       <c r="D27" t="n">
-        <v>2.572403650893423</v>
+        <v>2.57245589387359</v>
       </c>
       <c r="E27" t="n">
-        <v>2.549671596876744</v>
+        <v>2.549744325728893</v>
       </c>
       <c r="F27" t="n">
-        <v>2.714552505770235</v>
+        <v>2.714569390846034</v>
       </c>
       <c r="G27" t="n">
-        <v>2.680720443604323</v>
+        <v>2.680818663680943</v>
       </c>
       <c r="H27" t="n">
-        <v>2.73552069524973</v>
+        <v>2.735663549489669</v>
       </c>
       <c r="I27" t="n">
-        <v>2.831399318782719</v>
+        <v>2.83138808459444</v>
       </c>
       <c r="J27" t="n">
-        <v>2.731782314439242</v>
+        <v>2.731834898094218</v>
       </c>
       <c r="K27" t="n">
-        <v>2.798132661276683</v>
+        <v>2.798054635146921</v>
       </c>
       <c r="L27" t="n">
-        <v>3.140524783158421</v>
+        <v>3.140474270226923</v>
       </c>
       <c r="M27" t="n">
-        <v>3.120457684438749</v>
+        <v>3.120449706576396</v>
       </c>
       <c r="N27" t="n">
-        <v>3.464975757175199</v>
+        <v>3.465078566830711</v>
       </c>
       <c r="O27" t="n">
-        <v>3.415501016087541</v>
+        <v>3.415613190155986</v>
       </c>
       <c r="P27" t="n">
-        <v>3.695553057516449</v>
+        <v>3.695705174592041</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.684588900486855</v>
+        <v>3.68471625023536</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.648892231286806</v>
+        <v>2.648926252396917</v>
       </c>
       <c r="B28" t="n">
-        <v>2.623209219615985</v>
+        <v>2.623250839093055</v>
       </c>
       <c r="C28" t="n">
-        <v>2.617353321353623</v>
+        <v>2.617395567359276</v>
       </c>
       <c r="D28" t="n">
-        <v>2.643895623439763</v>
+        <v>2.643942570412406</v>
       </c>
       <c r="E28" t="n">
-        <v>2.631258535955767</v>
+        <v>2.631309652517297</v>
       </c>
       <c r="F28" t="n">
-        <v>2.790006894306821</v>
+        <v>2.790004621955738</v>
       </c>
       <c r="G28" t="n">
-        <v>2.752104065257671</v>
+        <v>2.75209725137554</v>
       </c>
       <c r="H28" t="n">
-        <v>2.879043278115017</v>
+        <v>2.879020446058147</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75888287112633</v>
+        <v>2.758817329345606</v>
       </c>
       <c r="J28" t="n">
-        <v>2.874462290360043</v>
+        <v>2.874022647033102</v>
       </c>
       <c r="K28" t="n">
-        <v>2.742231300556302</v>
+        <v>2.742214222973339</v>
       </c>
       <c r="L28" t="n">
-        <v>3.203973672749686</v>
+        <v>3.204018553091348</v>
       </c>
       <c r="M28" t="n">
-        <v>3.18018451002067</v>
+        <v>3.180222356222067</v>
       </c>
       <c r="N28" t="n">
-        <v>3.519897376487545</v>
+        <v>3.519851217393074</v>
       </c>
       <c r="O28" t="n">
-        <v>3.420813693206188</v>
+        <v>3.420814494570531</v>
       </c>
       <c r="P28" t="n">
-        <v>3.701362205393509</v>
+        <v>3.701433759637401</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.69609316196781</v>
+        <v>3.696191387468578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.706720257886126</v>
+        <v>2.706960122660582</v>
       </c>
       <c r="B29" t="n">
-        <v>2.680151922252092</v>
+        <v>2.680372051853173</v>
       </c>
       <c r="C29" t="n">
-        <v>2.678678826777997</v>
+        <v>2.678909196445219</v>
       </c>
       <c r="D29" t="n">
-        <v>2.671772053188005</v>
+        <v>2.671910261090081</v>
       </c>
       <c r="E29" t="n">
-        <v>2.670852812278595</v>
+        <v>2.671025287653034</v>
       </c>
       <c r="F29" t="n">
-        <v>2.806279511753643</v>
+        <v>2.806312553844134</v>
       </c>
       <c r="G29" t="n">
-        <v>2.75783712917434</v>
+        <v>2.757935839334145</v>
       </c>
       <c r="H29" t="n">
-        <v>2.89099835997815</v>
+        <v>2.890954662115969</v>
       </c>
       <c r="I29" t="n">
-        <v>2.774624367529162</v>
+        <v>2.774703583399901</v>
       </c>
       <c r="J29" t="n">
-        <v>2.711421329964128</v>
+        <v>2.711349972251765</v>
       </c>
       <c r="K29" t="n">
-        <v>2.71923799438647</v>
+        <v>2.719042109298528</v>
       </c>
       <c r="L29" t="n">
-        <v>3.221896853799903</v>
+        <v>3.221977628707533</v>
       </c>
       <c r="M29" t="n">
-        <v>3.198857530584148</v>
+        <v>3.198969052697079</v>
       </c>
       <c r="N29" t="n">
-        <v>3.550376061016036</v>
+        <v>3.550531396573152</v>
       </c>
       <c r="O29" t="n">
-        <v>3.407609184379028</v>
+        <v>3.407774749234609</v>
       </c>
       <c r="P29" t="n">
-        <v>3.702409780693943</v>
+        <v>3.70256275620366</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.686930086448796</v>
+        <v>3.687124580682645</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.577942746544803</v>
+        <v>2.578143411164672</v>
       </c>
       <c r="B30" t="n">
-        <v>2.552342235553925</v>
+        <v>2.55255086672212</v>
       </c>
       <c r="C30" t="n">
-        <v>2.554348652090141</v>
+        <v>2.554549619655761</v>
       </c>
       <c r="D30" t="n">
-        <v>2.570365884098828</v>
+        <v>2.570589877788597</v>
       </c>
       <c r="E30" t="n">
-        <v>2.575965663583677</v>
+        <v>2.576176559075873</v>
       </c>
       <c r="F30" t="n">
-        <v>2.749655261742116</v>
+        <v>2.749865475604012</v>
       </c>
       <c r="G30" t="n">
-        <v>2.736230934436618</v>
+        <v>2.736480137782316</v>
       </c>
       <c r="H30" t="n">
-        <v>2.905749848221666</v>
+        <v>2.905958509467859</v>
       </c>
       <c r="I30" t="n">
-        <v>3.019222566759321</v>
+        <v>3.019414414158402</v>
       </c>
       <c r="J30" t="n">
-        <v>2.999697405839453</v>
+        <v>2.999711609029112</v>
       </c>
       <c r="K30" t="n">
-        <v>3.159867342573349</v>
+        <v>3.159824149342888</v>
       </c>
       <c r="L30" t="n">
-        <v>3.151434306404409</v>
+        <v>3.151649466183363</v>
       </c>
       <c r="M30" t="n">
-        <v>3.126173331545207</v>
+        <v>3.126416997943496</v>
       </c>
       <c r="N30" t="n">
-        <v>3.549157984310388</v>
+        <v>3.549192294442598</v>
       </c>
       <c r="O30" t="n">
-        <v>3.31613903051251</v>
+        <v>3.316246458593712</v>
       </c>
       <c r="P30" t="n">
-        <v>3.6677187947824</v>
+        <v>3.667647464863694</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.669143306522751</v>
+        <v>3.669123703959427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.55981258045535</v>
+        <v>2.559889344402804</v>
       </c>
       <c r="B31" t="n">
-        <v>2.530945409208414</v>
+        <v>2.531023479938494</v>
       </c>
       <c r="C31" t="n">
-        <v>2.5321251689316</v>
+        <v>2.532208394652318</v>
       </c>
       <c r="D31" t="n">
-        <v>2.545751714570381</v>
+        <v>2.545855722745724</v>
       </c>
       <c r="E31" t="n">
-        <v>2.55310417516691</v>
+        <v>2.553214367627169</v>
       </c>
       <c r="F31" t="n">
-        <v>2.73569137998979</v>
+        <v>2.735795002970995</v>
       </c>
       <c r="G31" t="n">
-        <v>2.716475138282598</v>
+        <v>2.716636345585886</v>
       </c>
       <c r="H31" t="n">
-        <v>2.882792292346476</v>
+        <v>2.88282984694378</v>
       </c>
       <c r="I31" t="n">
-        <v>2.981880008994407</v>
+        <v>2.981941921761895</v>
       </c>
       <c r="J31" t="n">
-        <v>2.991018334309439</v>
+        <v>2.991055846462334</v>
       </c>
       <c r="K31" t="n">
-        <v>3.121464192734055</v>
+        <v>3.121533235271847</v>
       </c>
       <c r="L31" t="n">
-        <v>3.134495266798491</v>
+        <v>3.134473611309473</v>
       </c>
       <c r="M31" t="n">
-        <v>3.105601695333972</v>
+        <v>3.105619480489242</v>
       </c>
       <c r="N31" t="n">
-        <v>3.550982166011352</v>
+        <v>3.550940974086797</v>
       </c>
       <c r="O31" t="n">
-        <v>3.309921412602309</v>
+        <v>3.310019193674979</v>
       </c>
       <c r="P31" t="n">
-        <v>3.66134240889702</v>
+        <v>3.661416166504809</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.704504197955432</v>
+        <v>3.704490373920069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.469980156753125</v>
+        <v>2.470013847533396</v>
       </c>
       <c r="B32" t="n">
-        <v>2.442634114709495</v>
+        <v>2.44267904028325</v>
       </c>
       <c r="C32" t="n">
-        <v>2.436583881512157</v>
+        <v>2.436622463218234</v>
       </c>
       <c r="D32" t="n">
-        <v>2.465453252777225</v>
+        <v>2.465500428003002</v>
       </c>
       <c r="E32" t="n">
-        <v>2.454622563514294</v>
+        <v>2.454661107608333</v>
       </c>
       <c r="F32" t="n">
-        <v>2.671103614345621</v>
+        <v>2.671113106645441</v>
       </c>
       <c r="G32" t="n">
-        <v>2.632582580201432</v>
+        <v>2.6326040201298</v>
       </c>
       <c r="H32" t="n">
-        <v>2.849816770573217</v>
+        <v>2.849872424121366</v>
       </c>
       <c r="I32" t="n">
-        <v>2.85319104838289</v>
+        <v>2.853140794012028</v>
       </c>
       <c r="J32" t="n">
-        <v>2.918169500580301</v>
+        <v>2.918293136129888</v>
       </c>
       <c r="K32" t="n">
-        <v>2.955781193896673</v>
+        <v>2.955778645537796</v>
       </c>
       <c r="L32" t="n">
-        <v>3.121219257382046</v>
+        <v>3.121225593791142</v>
       </c>
       <c r="M32" t="n">
-        <v>3.083040509392198</v>
+        <v>3.083059349688444</v>
       </c>
       <c r="N32" t="n">
-        <v>3.528481480568202</v>
+        <v>3.528487912788224</v>
       </c>
       <c r="O32" t="n">
-        <v>3.327165521389172</v>
+        <v>3.327262883678703</v>
       </c>
       <c r="P32" t="n">
-        <v>3.697105903647822</v>
+        <v>3.697195347390117</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.693779842902205</v>
+        <v>3.69387949290857</v>
       </c>
     </row>
   </sheetData>
